--- a/template/FieldPermission.xlsx
+++ b/template/FieldPermission.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="CRUD" sheetId="2" r:id="rId1"/>
+    <sheet name="base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CRUD!$A:$AI</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CRUD!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">base!$A:$AI</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">base!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -510,21 +510,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,6 +539,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="99">
@@ -990,7 +990,7 @@
   <dimension ref="A1:AI451"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="E23" sqref="E23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1005,170 +1005,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="23" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="23" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="27" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27" t="s">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:35" ht="23" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="27" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27" t="s">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:35" ht="23" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="28" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="28" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
     </row>
     <row r="4" spans="1:35" ht="23" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="A5" s="3"/>
@@ -1209,14 +1209,14 @@
     </row>
     <row r="6" spans="1:35" ht="139" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="16" t="s">
         <v>0</v>
       </c>
@@ -1250,12 +1250,12 @@
     </row>
     <row r="7" spans="1:35" ht="13" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="8" t="s">
         <v>2</v>
       </c>
@@ -1289,12 +1289,12 @@
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1328,12 +1328,12 @@
     </row>
     <row r="9" spans="1:35" ht="13" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1367,12 +1367,12 @@
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1406,12 +1406,12 @@
     </row>
     <row r="11" spans="1:35" ht="13" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="7" t="s">
         <v>2</v>
       </c>
@@ -1445,12 +1445,12 @@
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="7" t="s">
         <v>3</v>
       </c>
@@ -1484,12 +1484,12 @@
     </row>
     <row r="13" spans="1:35" ht="13" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1523,12 +1523,12 @@
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1562,12 +1562,12 @@
     </row>
     <row r="15" spans="1:35" ht="13" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1601,12 +1601,12 @@
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1640,12 +1640,12 @@
     </row>
     <row r="17" spans="1:35" ht="13" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="7" t="s">
         <v>2</v>
       </c>
@@ -1679,12 +1679,12 @@
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="7" t="s">
         <v>3</v>
       </c>
@@ -1718,12 +1718,12 @@
     </row>
     <row r="19" spans="1:35" ht="13" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="7" t="s">
         <v>2</v>
       </c>
@@ -1757,12 +1757,12 @@
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1796,12 +1796,12 @@
     </row>
     <row r="21" spans="1:35" ht="13" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="7" t="s">
         <v>2</v>
       </c>
@@ -1835,12 +1835,12 @@
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1874,12 +1874,12 @@
     </row>
     <row r="23" spans="1:35" ht="13" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="7" t="s">
         <v>2</v>
       </c>
@@ -1913,12 +1913,12 @@
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="7" t="s">
         <v>3</v>
       </c>
@@ -1952,12 +1952,12 @@
     </row>
     <row r="25" spans="1:35" ht="13" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1991,12 +1991,12 @@
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="7" t="s">
         <v>3</v>
       </c>
@@ -2030,12 +2030,12 @@
     </row>
     <row r="27" spans="1:35" ht="13" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="7" t="s">
         <v>2</v>
       </c>
@@ -2069,12 +2069,12 @@
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="7" t="s">
         <v>3</v>
       </c>
@@ -2108,12 +2108,12 @@
     </row>
     <row r="29" spans="1:35" ht="13" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="7" t="s">
         <v>2</v>
       </c>
@@ -2147,12 +2147,12 @@
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="7" t="s">
         <v>3</v>
       </c>
@@ -2186,12 +2186,12 @@
     </row>
     <row r="31" spans="1:35" ht="13" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2225,12 +2225,12 @@
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="7" t="s">
         <v>3</v>
       </c>
@@ -2264,12 +2264,12 @@
     </row>
     <row r="33" spans="1:35" ht="13" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="7" t="s">
         <v>2</v>
       </c>
@@ -2303,12 +2303,12 @@
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="7" t="s">
         <v>3</v>
       </c>
@@ -2342,12 +2342,12 @@
     </row>
     <row r="35" spans="1:35" ht="13" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="7" t="s">
         <v>2</v>
       </c>
@@ -2381,12 +2381,12 @@
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="7" t="s">
         <v>3</v>
       </c>
@@ -2420,12 +2420,12 @@
     </row>
     <row r="37" spans="1:35" ht="13" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="7" t="s">
         <v>2</v>
       </c>
@@ -2459,12 +2459,12 @@
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="7" t="s">
         <v>3</v>
       </c>
@@ -2498,12 +2498,12 @@
     </row>
     <row r="39" spans="1:35" ht="13" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="7" t="s">
         <v>2</v>
       </c>
@@ -2537,12 +2537,12 @@
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="7" t="s">
         <v>3</v>
       </c>
@@ -2576,12 +2576,12 @@
     </row>
     <row r="41" spans="1:35" ht="13" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="7" t="s">
         <v>2</v>
       </c>
@@ -2615,12 +2615,12 @@
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="7" t="s">
         <v>3</v>
       </c>
@@ -2654,12 +2654,12 @@
     </row>
     <row r="43" spans="1:35" ht="13" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="7" t="s">
         <v>2</v>
       </c>
@@ -2693,12 +2693,12 @@
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="7" t="s">
         <v>3</v>
       </c>
@@ -2732,12 +2732,12 @@
     </row>
     <row r="45" spans="1:35" ht="13" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="7" t="s">
         <v>2</v>
       </c>
@@ -2771,12 +2771,12 @@
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="7" t="s">
         <v>3</v>
       </c>
@@ -2810,12 +2810,12 @@
     </row>
     <row r="47" spans="1:35" ht="13" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="7" t="s">
         <v>2</v>
       </c>
@@ -2849,12 +2849,12 @@
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="7" t="s">
         <v>3</v>
       </c>
@@ -2888,12 +2888,12 @@
     </row>
     <row r="49" spans="1:35" ht="13" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2927,12 +2927,12 @@
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2966,12 +2966,12 @@
     </row>
     <row r="51" spans="1:35" ht="13" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="7" t="s">
         <v>2</v>
       </c>
@@ -3005,12 +3005,12 @@
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="7" t="s">
         <v>3</v>
       </c>
@@ -3044,12 +3044,12 @@
     </row>
     <row r="53" spans="1:35" ht="13" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="7" t="s">
         <v>2</v>
       </c>
@@ -3083,12 +3083,12 @@
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="7" t="s">
         <v>3</v>
       </c>
@@ -3122,12 +3122,12 @@
     </row>
     <row r="55" spans="1:35" ht="13" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="7" t="s">
         <v>2</v>
       </c>
@@ -3161,12 +3161,12 @@
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="7" t="s">
         <v>3</v>
       </c>
@@ -3200,12 +3200,12 @@
     </row>
     <row r="57" spans="1:35" ht="13" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="7" t="s">
         <v>2</v>
       </c>
@@ -3239,12 +3239,12 @@
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="7" t="s">
         <v>3</v>
       </c>
@@ -3278,12 +3278,12 @@
     </row>
     <row r="59" spans="1:35" ht="13" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="7" t="s">
         <v>2</v>
       </c>
@@ -3317,12 +3317,12 @@
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="7" t="s">
         <v>3</v>
       </c>
@@ -3356,12 +3356,12 @@
     </row>
     <row r="61" spans="1:35" ht="13" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
       <c r="H61" s="7" t="s">
         <v>2</v>
       </c>
@@ -3395,12 +3395,12 @@
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="7" t="s">
         <v>3</v>
       </c>
@@ -3434,12 +3434,12 @@
     </row>
     <row r="63" spans="1:35" ht="13" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="7" t="s">
         <v>2</v>
       </c>
@@ -3473,12 +3473,12 @@
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="7" t="s">
         <v>3</v>
       </c>
@@ -3512,12 +3512,12 @@
     </row>
     <row r="65" spans="1:35" ht="13" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
       <c r="H65" s="7" t="s">
         <v>2</v>
       </c>
@@ -3551,12 +3551,12 @@
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
       <c r="H66" s="7" t="s">
         <v>3</v>
       </c>
@@ -3590,12 +3590,12 @@
     </row>
     <row r="67" spans="1:35" ht="13" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
       <c r="H67" s="7" t="s">
         <v>2</v>
       </c>
@@ -3629,12 +3629,12 @@
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="7" t="s">
         <v>3</v>
       </c>
@@ -3668,12 +3668,12 @@
     </row>
     <row r="69" spans="1:35" ht="13" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="7" t="s">
         <v>2</v>
       </c>
@@ -3707,12 +3707,12 @@
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
       <c r="H70" s="7" t="s">
         <v>3</v>
       </c>
@@ -3746,12 +3746,12 @@
     </row>
     <row r="71" spans="1:35" ht="13" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
       <c r="H71" s="7" t="s">
         <v>2</v>
       </c>
@@ -3785,12 +3785,12 @@
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
       <c r="H72" s="7" t="s">
         <v>3</v>
       </c>
@@ -3824,12 +3824,12 @@
     </row>
     <row r="73" spans="1:35" ht="13" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
       <c r="H73" s="7" t="s">
         <v>2</v>
       </c>
@@ -3863,12 +3863,12 @@
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
       <c r="H74" s="7" t="s">
         <v>3</v>
       </c>
@@ -3902,12 +3902,12 @@
     </row>
     <row r="75" spans="1:35" ht="13" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
       <c r="H75" s="7" t="s">
         <v>2</v>
       </c>
@@ -3941,12 +3941,12 @@
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
       <c r="H76" s="7" t="s">
         <v>3</v>
       </c>
@@ -3980,12 +3980,12 @@
     </row>
     <row r="77" spans="1:35" ht="13" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
       <c r="H77" s="7" t="s">
         <v>2</v>
       </c>
@@ -4019,12 +4019,12 @@
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
       <c r="H78" s="7" t="s">
         <v>3</v>
       </c>
@@ -4058,12 +4058,12 @@
     </row>
     <row r="79" spans="1:35" ht="13" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
       <c r="H79" s="7" t="s">
         <v>2</v>
       </c>
@@ -4097,12 +4097,12 @@
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
       <c r="H80" s="7" t="s">
         <v>3</v>
       </c>
@@ -4136,12 +4136,12 @@
     </row>
     <row r="81" spans="1:35" ht="13" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
       <c r="H81" s="7" t="s">
         <v>2</v>
       </c>
@@ -4175,12 +4175,12 @@
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
       <c r="H82" s="7" t="s">
         <v>3</v>
       </c>
@@ -4214,12 +4214,12 @@
     </row>
     <row r="83" spans="1:35" ht="13" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
       <c r="H83" s="7" t="s">
         <v>2</v>
       </c>
@@ -4253,12 +4253,12 @@
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
       <c r="H84" s="7" t="s">
         <v>3</v>
       </c>
@@ -4292,12 +4292,12 @@
     </row>
     <row r="85" spans="1:35" ht="13" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
       <c r="H85" s="7" t="s">
         <v>2</v>
       </c>
@@ -4331,12 +4331,12 @@
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
       <c r="H86" s="7" t="s">
         <v>3</v>
       </c>
@@ -4370,12 +4370,12 @@
     </row>
     <row r="87" spans="1:35" ht="13" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
       <c r="H87" s="7" t="s">
         <v>2</v>
       </c>
@@ -4409,12 +4409,12 @@
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
       <c r="H88" s="7" t="s">
         <v>3</v>
       </c>
@@ -4448,12 +4448,12 @@
     </row>
     <row r="89" spans="1:35" ht="13" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
       <c r="H89" s="7" t="s">
         <v>2</v>
       </c>
@@ -4487,12 +4487,12 @@
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
       <c r="H90" s="7" t="s">
         <v>3</v>
       </c>
@@ -4526,12 +4526,12 @@
     </row>
     <row r="91" spans="1:35" ht="13" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
       <c r="H91" s="7" t="s">
         <v>2</v>
       </c>
@@ -4565,12 +4565,12 @@
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
       <c r="H92" s="7" t="s">
         <v>3</v>
       </c>
@@ -4604,12 +4604,12 @@
     </row>
     <row r="93" spans="1:35" ht="13" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
       <c r="H93" s="7" t="s">
         <v>2</v>
       </c>
@@ -4643,12 +4643,12 @@
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
       <c r="H94" s="7" t="s">
         <v>3</v>
       </c>
@@ -4682,12 +4682,12 @@
     </row>
     <row r="95" spans="1:35" ht="13" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
       <c r="H95" s="7" t="s">
         <v>2</v>
       </c>
@@ -4721,12 +4721,12 @@
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
       <c r="H96" s="7" t="s">
         <v>3</v>
       </c>
@@ -4760,12 +4760,12 @@
     </row>
     <row r="97" spans="1:35" ht="13" customHeight="1">
       <c r="A97" s="6"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
       <c r="H97" s="7" t="s">
         <v>2</v>
       </c>
@@ -4799,12 +4799,12 @@
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
       <c r="H98" s="7" t="s">
         <v>3</v>
       </c>
@@ -4838,12 +4838,12 @@
     </row>
     <row r="99" spans="1:35" ht="13" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
       <c r="H99" s="7" t="s">
         <v>2</v>
       </c>
@@ -4877,12 +4877,12 @@
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
       <c r="H100" s="7" t="s">
         <v>3</v>
       </c>
@@ -4916,12 +4916,12 @@
     </row>
     <row r="101" spans="1:35" ht="13" customHeight="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
       <c r="H101" s="7" t="s">
         <v>2</v>
       </c>
@@ -4955,12 +4955,12 @@
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1">
       <c r="A102" s="6"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
       <c r="H102" s="7" t="s">
         <v>3</v>
       </c>
@@ -4994,12 +4994,12 @@
     </row>
     <row r="103" spans="1:35" ht="13" customHeight="1">
       <c r="A103" s="6"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
       <c r="H103" s="7" t="s">
         <v>2</v>
       </c>
@@ -5033,12 +5033,12 @@
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
       <c r="H104" s="7" t="s">
         <v>3</v>
       </c>
@@ -5072,12 +5072,12 @@
     </row>
     <row r="105" spans="1:35" ht="13" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
       <c r="H105" s="7" t="s">
         <v>2</v>
       </c>
@@ -5111,12 +5111,12 @@
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1">
       <c r="A106" s="6"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
       <c r="H106" s="7" t="s">
         <v>3</v>
       </c>
@@ -5150,12 +5150,12 @@
     </row>
     <row r="107" spans="1:35" ht="13" customHeight="1">
       <c r="A107" s="6"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
       <c r="H107" s="7" t="s">
         <v>2</v>
       </c>
@@ -5189,12 +5189,12 @@
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1">
       <c r="A108" s="6"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
       <c r="H108" s="7" t="s">
         <v>3</v>
       </c>
@@ -5228,12 +5228,12 @@
     </row>
     <row r="109" spans="1:35" ht="13" customHeight="1">
       <c r="A109" s="6"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
       <c r="H109" s="7" t="s">
         <v>2</v>
       </c>
@@ -5267,12 +5267,12 @@
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1">
       <c r="A110" s="6"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
       <c r="H110" s="7" t="s">
         <v>3</v>
       </c>
@@ -5306,12 +5306,12 @@
     </row>
     <row r="111" spans="1:35" ht="13" customHeight="1">
       <c r="A111" s="6"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
       <c r="H111" s="7" t="s">
         <v>2</v>
       </c>
@@ -5345,12 +5345,12 @@
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1">
       <c r="A112" s="6"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
       <c r="H112" s="7" t="s">
         <v>3</v>
       </c>
@@ -5384,12 +5384,12 @@
     </row>
     <row r="113" spans="1:35" ht="13" customHeight="1">
       <c r="A113" s="6"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
       <c r="H113" s="7" t="s">
         <v>2</v>
       </c>
@@ -5423,12 +5423,12 @@
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1">
       <c r="A114" s="6"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
       <c r="H114" s="7" t="s">
         <v>3</v>
       </c>
@@ -5462,12 +5462,12 @@
     </row>
     <row r="115" spans="1:35" ht="13" customHeight="1">
       <c r="A115" s="6"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
       <c r="H115" s="7" t="s">
         <v>2</v>
       </c>
@@ -5501,12 +5501,12 @@
     </row>
     <row r="116" spans="1:35" ht="12" customHeight="1">
       <c r="A116" s="6"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
       <c r="H116" s="7" t="s">
         <v>3</v>
       </c>
@@ -5540,12 +5540,12 @@
     </row>
     <row r="117" spans="1:35" ht="13" customHeight="1">
       <c r="A117" s="6"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
       <c r="H117" s="7" t="s">
         <v>2</v>
       </c>
@@ -5579,12 +5579,12 @@
     </row>
     <row r="118" spans="1:35" ht="12" customHeight="1">
       <c r="A118" s="6"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
       <c r="H118" s="7" t="s">
         <v>3</v>
       </c>
@@ -5618,12 +5618,12 @@
     </row>
     <row r="119" spans="1:35" ht="13" customHeight="1">
       <c r="A119" s="6"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
       <c r="H119" s="7" t="s">
         <v>2</v>
       </c>
@@ -5657,12 +5657,12 @@
     </row>
     <row r="120" spans="1:35" ht="12" customHeight="1">
       <c r="A120" s="6"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
       <c r="H120" s="7" t="s">
         <v>3</v>
       </c>
@@ -5696,12 +5696,12 @@
     </row>
     <row r="121" spans="1:35" ht="13" customHeight="1">
       <c r="A121" s="6"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
       <c r="H121" s="7" t="s">
         <v>2</v>
       </c>
@@ -5735,12 +5735,12 @@
     </row>
     <row r="122" spans="1:35" ht="12" customHeight="1">
       <c r="A122" s="6"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
       <c r="H122" s="7" t="s">
         <v>3</v>
       </c>
@@ -5774,12 +5774,12 @@
     </row>
     <row r="123" spans="1:35" ht="13" customHeight="1">
       <c r="A123" s="6"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
       <c r="H123" s="7" t="s">
         <v>2</v>
       </c>
@@ -5813,12 +5813,12 @@
     </row>
     <row r="124" spans="1:35" ht="12" customHeight="1">
       <c r="A124" s="6"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
       <c r="H124" s="7" t="s">
         <v>3</v>
       </c>
@@ -5852,12 +5852,12 @@
     </row>
     <row r="125" spans="1:35" ht="13" customHeight="1">
       <c r="A125" s="6"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
       <c r="H125" s="7" t="s">
         <v>2</v>
       </c>
@@ -5891,12 +5891,12 @@
     </row>
     <row r="126" spans="1:35" ht="12" customHeight="1">
       <c r="A126" s="6"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
       <c r="H126" s="7" t="s">
         <v>3</v>
       </c>
@@ -5930,12 +5930,12 @@
     </row>
     <row r="127" spans="1:35" ht="13" customHeight="1">
       <c r="A127" s="6"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
       <c r="H127" s="7" t="s">
         <v>2</v>
       </c>
@@ -5969,12 +5969,12 @@
     </row>
     <row r="128" spans="1:35" ht="12" customHeight="1">
       <c r="A128" s="6"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
       <c r="H128" s="7" t="s">
         <v>3</v>
       </c>
@@ -6008,12 +6008,12 @@
     </row>
     <row r="129" spans="1:35" ht="13" customHeight="1">
       <c r="A129" s="6"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
       <c r="H129" s="7" t="s">
         <v>2</v>
       </c>
@@ -6047,12 +6047,12 @@
     </row>
     <row r="130" spans="1:35" ht="12" customHeight="1">
       <c r="A130" s="6"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
       <c r="H130" s="7" t="s">
         <v>3</v>
       </c>
@@ -6086,12 +6086,12 @@
     </row>
     <row r="131" spans="1:35" ht="13" customHeight="1">
       <c r="A131" s="6"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
       <c r="H131" s="7" t="s">
         <v>2</v>
       </c>
@@ -6125,12 +6125,12 @@
     </row>
     <row r="132" spans="1:35" ht="12" customHeight="1">
       <c r="A132" s="6"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
       <c r="H132" s="7" t="s">
         <v>3</v>
       </c>
@@ -6164,12 +6164,12 @@
     </row>
     <row r="133" spans="1:35" ht="13" customHeight="1">
       <c r="A133" s="6"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
       <c r="H133" s="7" t="s">
         <v>2</v>
       </c>
@@ -6203,12 +6203,12 @@
     </row>
     <row r="134" spans="1:35" ht="12" customHeight="1">
       <c r="A134" s="6"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
       <c r="H134" s="7" t="s">
         <v>3</v>
       </c>
@@ -6242,12 +6242,12 @@
     </row>
     <row r="135" spans="1:35" ht="13" customHeight="1">
       <c r="A135" s="6"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
       <c r="H135" s="7" t="s">
         <v>2</v>
       </c>
@@ -6281,12 +6281,12 @@
     </row>
     <row r="136" spans="1:35" ht="12" customHeight="1">
       <c r="A136" s="6"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
       <c r="H136" s="7" t="s">
         <v>3</v>
       </c>
@@ -6320,12 +6320,12 @@
     </row>
     <row r="137" spans="1:35" ht="13" customHeight="1">
       <c r="A137" s="6"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
       <c r="H137" s="7" t="s">
         <v>2</v>
       </c>
@@ -6359,12 +6359,12 @@
     </row>
     <row r="138" spans="1:35" ht="12" customHeight="1">
       <c r="A138" s="6"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
       <c r="H138" s="7" t="s">
         <v>3</v>
       </c>
@@ -6398,12 +6398,12 @@
     </row>
     <row r="139" spans="1:35" ht="13" customHeight="1">
       <c r="A139" s="6"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
       <c r="H139" s="7" t="s">
         <v>2</v>
       </c>
@@ -6437,12 +6437,12 @@
     </row>
     <row r="140" spans="1:35" ht="12" customHeight="1">
       <c r="A140" s="6"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
       <c r="H140" s="7" t="s">
         <v>3</v>
       </c>
@@ -6476,12 +6476,12 @@
     </row>
     <row r="141" spans="1:35" ht="13" customHeight="1">
       <c r="A141" s="6"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
       <c r="H141" s="7" t="s">
         <v>2</v>
       </c>
@@ -6515,12 +6515,12 @@
     </row>
     <row r="142" spans="1:35" ht="12" customHeight="1">
       <c r="A142" s="6"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
       <c r="H142" s="7" t="s">
         <v>3</v>
       </c>
@@ -6554,12 +6554,12 @@
     </row>
     <row r="143" spans="1:35" ht="13" customHeight="1">
       <c r="A143" s="6"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
       <c r="H143" s="7" t="s">
         <v>2</v>
       </c>
@@ -6593,12 +6593,12 @@
     </row>
     <row r="144" spans="1:35" ht="12" customHeight="1">
       <c r="A144" s="6"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
       <c r="H144" s="7" t="s">
         <v>3</v>
       </c>
@@ -6632,12 +6632,12 @@
     </row>
     <row r="145" spans="1:35" ht="13" customHeight="1">
       <c r="A145" s="6"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
       <c r="H145" s="7" t="s">
         <v>2</v>
       </c>
@@ -6671,12 +6671,12 @@
     </row>
     <row r="146" spans="1:35" ht="12" customHeight="1">
       <c r="A146" s="6"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
       <c r="H146" s="7" t="s">
         <v>3</v>
       </c>
@@ -6710,12 +6710,12 @@
     </row>
     <row r="147" spans="1:35" ht="13" customHeight="1">
       <c r="A147" s="6"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
       <c r="H147" s="7" t="s">
         <v>2</v>
       </c>
@@ -6749,12 +6749,12 @@
     </row>
     <row r="148" spans="1:35" ht="12" customHeight="1">
       <c r="A148" s="6"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
       <c r="H148" s="7" t="s">
         <v>3</v>
       </c>
@@ -6788,12 +6788,12 @@
     </row>
     <row r="149" spans="1:35" ht="13" customHeight="1">
       <c r="A149" s="6"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
       <c r="H149" s="7" t="s">
         <v>2</v>
       </c>
@@ -6827,12 +6827,12 @@
     </row>
     <row r="150" spans="1:35" ht="12" customHeight="1">
       <c r="A150" s="6"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
       <c r="H150" s="7" t="s">
         <v>3</v>
       </c>
@@ -6866,12 +6866,12 @@
     </row>
     <row r="151" spans="1:35" ht="13" customHeight="1">
       <c r="A151" s="6"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
       <c r="H151" s="7" t="s">
         <v>2</v>
       </c>
@@ -6905,12 +6905,12 @@
     </row>
     <row r="152" spans="1:35" ht="12" customHeight="1">
       <c r="A152" s="6"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
       <c r="H152" s="7" t="s">
         <v>3</v>
       </c>
@@ -6944,12 +6944,12 @@
     </row>
     <row r="153" spans="1:35" ht="13" customHeight="1">
       <c r="A153" s="6"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
       <c r="H153" s="7" t="s">
         <v>2</v>
       </c>
@@ -6983,12 +6983,12 @@
     </row>
     <row r="154" spans="1:35" ht="12" customHeight="1">
       <c r="A154" s="6"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
       <c r="H154" s="7" t="s">
         <v>3</v>
       </c>
@@ -7022,12 +7022,12 @@
     </row>
     <row r="155" spans="1:35" ht="13" customHeight="1">
       <c r="A155" s="6"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
       <c r="H155" s="7" t="s">
         <v>2</v>
       </c>
@@ -7061,12 +7061,12 @@
     </row>
     <row r="156" spans="1:35" ht="12" customHeight="1">
       <c r="A156" s="6"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
       <c r="H156" s="7" t="s">
         <v>3</v>
       </c>
@@ -7100,12 +7100,12 @@
     </row>
     <row r="157" spans="1:35" ht="13" customHeight="1">
       <c r="A157" s="6"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
       <c r="H157" s="7" t="s">
         <v>2</v>
       </c>
@@ -7139,12 +7139,12 @@
     </row>
     <row r="158" spans="1:35" ht="12" customHeight="1">
       <c r="A158" s="6"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
       <c r="H158" s="7" t="s">
         <v>3</v>
       </c>
@@ -7178,12 +7178,12 @@
     </row>
     <row r="159" spans="1:35" ht="13" customHeight="1">
       <c r="A159" s="6"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
       <c r="H159" s="7" t="s">
         <v>2</v>
       </c>
@@ -7217,12 +7217,12 @@
     </row>
     <row r="160" spans="1:35" ht="12" customHeight="1">
       <c r="A160" s="6"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
       <c r="H160" s="7" t="s">
         <v>3</v>
       </c>
@@ -7256,12 +7256,12 @@
     </row>
     <row r="161" spans="1:35" ht="13" customHeight="1">
       <c r="A161" s="6"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
       <c r="H161" s="7" t="s">
         <v>2</v>
       </c>
@@ -7295,12 +7295,12 @@
     </row>
     <row r="162" spans="1:35" ht="12" customHeight="1">
       <c r="A162" s="6"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
       <c r="H162" s="7" t="s">
         <v>3</v>
       </c>
@@ -7334,12 +7334,12 @@
     </row>
     <row r="163" spans="1:35" ht="13" customHeight="1">
       <c r="A163" s="6"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
       <c r="H163" s="7" t="s">
         <v>2</v>
       </c>
@@ -7373,12 +7373,12 @@
     </row>
     <row r="164" spans="1:35" ht="12" customHeight="1">
       <c r="A164" s="6"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
       <c r="H164" s="7" t="s">
         <v>3</v>
       </c>
@@ -7412,12 +7412,12 @@
     </row>
     <row r="165" spans="1:35" ht="13" customHeight="1">
       <c r="A165" s="6"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
       <c r="H165" s="7" t="s">
         <v>2</v>
       </c>
@@ -7451,12 +7451,12 @@
     </row>
     <row r="166" spans="1:35" ht="12" customHeight="1">
       <c r="A166" s="6"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="28"/>
       <c r="H166" s="7" t="s">
         <v>3</v>
       </c>
@@ -7490,12 +7490,12 @@
     </row>
     <row r="167" spans="1:35" ht="13" customHeight="1">
       <c r="A167" s="6"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="28"/>
       <c r="H167" s="7" t="s">
         <v>2</v>
       </c>
@@ -7529,12 +7529,12 @@
     </row>
     <row r="168" spans="1:35" ht="12" customHeight="1">
       <c r="A168" s="6"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
       <c r="H168" s="7" t="s">
         <v>3</v>
       </c>
@@ -7568,12 +7568,12 @@
     </row>
     <row r="169" spans="1:35" ht="13" customHeight="1">
       <c r="A169" s="6"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
       <c r="H169" s="7" t="s">
         <v>2</v>
       </c>
@@ -7607,12 +7607,12 @@
     </row>
     <row r="170" spans="1:35" ht="12" customHeight="1">
       <c r="A170" s="6"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
       <c r="H170" s="7" t="s">
         <v>3</v>
       </c>
@@ -7646,12 +7646,12 @@
     </row>
     <row r="171" spans="1:35" ht="13" customHeight="1">
       <c r="A171" s="6"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
       <c r="H171" s="7" t="s">
         <v>2</v>
       </c>
@@ -7685,12 +7685,12 @@
     </row>
     <row r="172" spans="1:35" ht="12" customHeight="1">
       <c r="A172" s="6"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
       <c r="H172" s="7" t="s">
         <v>3</v>
       </c>
@@ -7724,12 +7724,12 @@
     </row>
     <row r="173" spans="1:35" ht="13" customHeight="1">
       <c r="A173" s="6"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
       <c r="H173" s="7" t="s">
         <v>2</v>
       </c>
@@ -7763,12 +7763,12 @@
     </row>
     <row r="174" spans="1:35" ht="12" customHeight="1">
       <c r="A174" s="6"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
       <c r="H174" s="7" t="s">
         <v>3</v>
       </c>
@@ -7802,12 +7802,12 @@
     </row>
     <row r="175" spans="1:35" ht="13" customHeight="1">
       <c r="A175" s="6"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
       <c r="H175" s="7" t="s">
         <v>2</v>
       </c>
@@ -7841,12 +7841,12 @@
     </row>
     <row r="176" spans="1:35" ht="12" customHeight="1">
       <c r="A176" s="6"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
       <c r="H176" s="7" t="s">
         <v>3</v>
       </c>
@@ -7880,12 +7880,12 @@
     </row>
     <row r="177" spans="1:35" ht="13" customHeight="1">
       <c r="A177" s="6"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
       <c r="H177" s="7" t="s">
         <v>2</v>
       </c>
@@ -7919,12 +7919,12 @@
     </row>
     <row r="178" spans="1:35" ht="12" customHeight="1">
       <c r="A178" s="6"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
       <c r="H178" s="7" t="s">
         <v>3</v>
       </c>
@@ -7958,12 +7958,12 @@
     </row>
     <row r="179" spans="1:35" ht="13" customHeight="1">
       <c r="A179" s="6"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
       <c r="H179" s="7" t="s">
         <v>2</v>
       </c>
@@ -7997,12 +7997,12 @@
     </row>
     <row r="180" spans="1:35" ht="12" customHeight="1">
       <c r="A180" s="6"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
       <c r="H180" s="7" t="s">
         <v>3</v>
       </c>
@@ -8036,12 +8036,12 @@
     </row>
     <row r="181" spans="1:35" ht="13" customHeight="1">
       <c r="A181" s="6"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
       <c r="H181" s="7" t="s">
         <v>2</v>
       </c>
@@ -8075,12 +8075,12 @@
     </row>
     <row r="182" spans="1:35" ht="12" customHeight="1">
       <c r="A182" s="6"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
       <c r="H182" s="7" t="s">
         <v>3</v>
       </c>
@@ -8114,12 +8114,12 @@
     </row>
     <row r="183" spans="1:35" ht="13" customHeight="1">
       <c r="A183" s="6"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
       <c r="H183" s="7" t="s">
         <v>2</v>
       </c>
@@ -8153,12 +8153,12 @@
     </row>
     <row r="184" spans="1:35" ht="12" customHeight="1">
       <c r="A184" s="6"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
       <c r="H184" s="7" t="s">
         <v>3</v>
       </c>
@@ -8192,12 +8192,12 @@
     </row>
     <row r="185" spans="1:35" ht="13" customHeight="1">
       <c r="A185" s="6"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
       <c r="H185" s="7" t="s">
         <v>2</v>
       </c>
@@ -8231,12 +8231,12 @@
     </row>
     <row r="186" spans="1:35" ht="12" customHeight="1">
       <c r="A186" s="6"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
       <c r="H186" s="7" t="s">
         <v>3</v>
       </c>
@@ -8270,12 +8270,12 @@
     </row>
     <row r="187" spans="1:35" ht="13" customHeight="1">
       <c r="A187" s="6"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
       <c r="H187" s="7" t="s">
         <v>2</v>
       </c>
@@ -8309,12 +8309,12 @@
     </row>
     <row r="188" spans="1:35" ht="12" customHeight="1">
       <c r="A188" s="6"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
       <c r="H188" s="7" t="s">
         <v>3</v>
       </c>
@@ -8348,12 +8348,12 @@
     </row>
     <row r="189" spans="1:35" ht="13" customHeight="1">
       <c r="A189" s="6"/>
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
       <c r="H189" s="7" t="s">
         <v>2</v>
       </c>
@@ -8387,12 +8387,12 @@
     </row>
     <row r="190" spans="1:35" ht="12" customHeight="1">
       <c r="A190" s="6"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
       <c r="H190" s="7" t="s">
         <v>3</v>
       </c>
@@ -8426,12 +8426,12 @@
     </row>
     <row r="191" spans="1:35" ht="13" customHeight="1">
       <c r="A191" s="6"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
       <c r="H191" s="7" t="s">
         <v>2</v>
       </c>
@@ -8465,12 +8465,12 @@
     </row>
     <row r="192" spans="1:35" ht="12" customHeight="1">
       <c r="A192" s="6"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
       <c r="H192" s="7" t="s">
         <v>3</v>
       </c>
@@ -8504,12 +8504,12 @@
     </row>
     <row r="193" spans="1:35" ht="13" customHeight="1">
       <c r="A193" s="6"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
       <c r="H193" s="7" t="s">
         <v>2</v>
       </c>
@@ -8543,12 +8543,12 @@
     </row>
     <row r="194" spans="1:35" ht="12" customHeight="1">
       <c r="A194" s="6"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
       <c r="H194" s="7" t="s">
         <v>3</v>
       </c>
@@ -8582,12 +8582,12 @@
     </row>
     <row r="195" spans="1:35" ht="13" customHeight="1">
       <c r="A195" s="6"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
       <c r="H195" s="7" t="s">
         <v>2</v>
       </c>
@@ -8621,12 +8621,12 @@
     </row>
     <row r="196" spans="1:35" ht="12" customHeight="1">
       <c r="A196" s="6"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
       <c r="H196" s="7" t="s">
         <v>3</v>
       </c>
@@ -8660,12 +8660,12 @@
     </row>
     <row r="197" spans="1:35" ht="13" customHeight="1">
       <c r="A197" s="6"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28"/>
       <c r="H197" s="7" t="s">
         <v>2</v>
       </c>
@@ -8699,12 +8699,12 @@
     </row>
     <row r="198" spans="1:35" ht="12" customHeight="1">
       <c r="A198" s="6"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
       <c r="H198" s="7" t="s">
         <v>3</v>
       </c>
@@ -8738,12 +8738,12 @@
     </row>
     <row r="199" spans="1:35" ht="13" customHeight="1">
       <c r="A199" s="6"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
       <c r="H199" s="7" t="s">
         <v>2</v>
       </c>
@@ -8777,12 +8777,12 @@
     </row>
     <row r="200" spans="1:35" ht="12" customHeight="1">
       <c r="A200" s="6"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="28"/>
       <c r="H200" s="7" t="s">
         <v>3</v>
       </c>
@@ -8816,12 +8816,12 @@
     </row>
     <row r="201" spans="1:35" ht="13" customHeight="1">
       <c r="A201" s="6"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="28"/>
       <c r="H201" s="7" t="s">
         <v>2</v>
       </c>
@@ -8855,12 +8855,12 @@
     </row>
     <row r="202" spans="1:35" ht="12" customHeight="1">
       <c r="A202" s="6"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="28"/>
+      <c r="E202" s="28"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
       <c r="H202" s="7" t="s">
         <v>3</v>
       </c>
@@ -8894,12 +8894,12 @@
     </row>
     <row r="203" spans="1:35" ht="13" customHeight="1">
       <c r="A203" s="6"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
       <c r="H203" s="7" t="s">
         <v>2</v>
       </c>
@@ -8933,12 +8933,12 @@
     </row>
     <row r="204" spans="1:35" ht="12" customHeight="1">
       <c r="A204" s="6"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
       <c r="H204" s="7" t="s">
         <v>3</v>
       </c>
@@ -8972,12 +8972,12 @@
     </row>
     <row r="205" spans="1:35" ht="13" customHeight="1">
       <c r="A205" s="6"/>
-      <c r="B205" s="18"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
       <c r="H205" s="7" t="s">
         <v>2</v>
       </c>
@@ -9011,12 +9011,12 @@
     </row>
     <row r="206" spans="1:35" ht="12" customHeight="1">
       <c r="A206" s="6"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="28"/>
       <c r="H206" s="7" t="s">
         <v>3</v>
       </c>
@@ -9050,12 +9050,12 @@
     </row>
     <row r="207" spans="1:35" ht="13" customHeight="1">
       <c r="A207" s="6"/>
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28"/>
       <c r="H207" s="7" t="s">
         <v>2</v>
       </c>
@@ -9089,12 +9089,12 @@
     </row>
     <row r="208" spans="1:35" ht="12" customHeight="1">
       <c r="A208" s="6"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="28"/>
       <c r="H208" s="7" t="s">
         <v>3</v>
       </c>
@@ -9128,12 +9128,12 @@
     </row>
     <row r="209" spans="1:35" ht="13" customHeight="1">
       <c r="A209" s="6"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
+      <c r="B209" s="28"/>
+      <c r="C209" s="28"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="28"/>
       <c r="H209" s="7" t="s">
         <v>2</v>
       </c>
@@ -9167,12 +9167,12 @@
     </row>
     <row r="210" spans="1:35" ht="12" customHeight="1">
       <c r="A210" s="6"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
-      <c r="G210" s="18"/>
+      <c r="B210" s="28"/>
+      <c r="C210" s="28"/>
+      <c r="D210" s="28"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="28"/>
       <c r="H210" s="7" t="s">
         <v>3</v>
       </c>
@@ -9206,12 +9206,12 @@
     </row>
     <row r="211" spans="1:35" ht="13" customHeight="1">
       <c r="A211" s="6"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="28"/>
       <c r="H211" s="7" t="s">
         <v>2</v>
       </c>
@@ -9245,12 +9245,12 @@
     </row>
     <row r="212" spans="1:35" ht="12" customHeight="1">
       <c r="A212" s="6"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="18"/>
-      <c r="G212" s="18"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="28"/>
       <c r="H212" s="7" t="s">
         <v>3</v>
       </c>
@@ -9284,12 +9284,12 @@
     </row>
     <row r="213" spans="1:35" ht="13" customHeight="1">
       <c r="A213" s="6"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="18"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
       <c r="H213" s="7" t="s">
         <v>2</v>
       </c>
@@ -9323,12 +9323,12 @@
     </row>
     <row r="214" spans="1:35" ht="12" customHeight="1">
       <c r="A214" s="6"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="18"/>
-      <c r="G214" s="18"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="28"/>
+      <c r="F214" s="28"/>
+      <c r="G214" s="28"/>
       <c r="H214" s="7" t="s">
         <v>3</v>
       </c>
@@ -9362,12 +9362,12 @@
     </row>
     <row r="215" spans="1:35" ht="13" customHeight="1">
       <c r="A215" s="6"/>
-      <c r="B215" s="18"/>
-      <c r="C215" s="18"/>
-      <c r="D215" s="18"/>
-      <c r="E215" s="18"/>
-      <c r="F215" s="18"/>
-      <c r="G215" s="18"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="28"/>
+      <c r="F215" s="28"/>
+      <c r="G215" s="28"/>
       <c r="H215" s="7" t="s">
         <v>2</v>
       </c>
@@ -9401,12 +9401,12 @@
     </row>
     <row r="216" spans="1:35" ht="12" customHeight="1">
       <c r="A216" s="6"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="18"/>
-      <c r="G216" s="18"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="28"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="28"/>
       <c r="H216" s="7" t="s">
         <v>3</v>
       </c>
@@ -9440,12 +9440,12 @@
     </row>
     <row r="217" spans="1:35" ht="13" customHeight="1">
       <c r="A217" s="6"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="18"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="28"/>
       <c r="H217" s="7" t="s">
         <v>2</v>
       </c>
@@ -9479,12 +9479,12 @@
     </row>
     <row r="218" spans="1:35" ht="12" customHeight="1">
       <c r="A218" s="6"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="18"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="28"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="28"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="28"/>
       <c r="H218" s="7" t="s">
         <v>3</v>
       </c>
@@ -9518,12 +9518,12 @@
     </row>
     <row r="219" spans="1:35" ht="13" customHeight="1">
       <c r="A219" s="6"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="18"/>
-      <c r="G219" s="18"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="28"/>
       <c r="H219" s="7" t="s">
         <v>2</v>
       </c>
@@ -9557,12 +9557,12 @@
     </row>
     <row r="220" spans="1:35" ht="12" customHeight="1">
       <c r="A220" s="6"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
-      <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
-      <c r="F220" s="18"/>
-      <c r="G220" s="18"/>
+      <c r="B220" s="28"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="28"/>
       <c r="H220" s="7" t="s">
         <v>3</v>
       </c>
@@ -9596,12 +9596,12 @@
     </row>
     <row r="221" spans="1:35" ht="13" customHeight="1">
       <c r="A221" s="6"/>
-      <c r="B221" s="18"/>
-      <c r="C221" s="18"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="18"/>
-      <c r="G221" s="18"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
       <c r="H221" s="7" t="s">
         <v>2</v>
       </c>
@@ -9635,12 +9635,12 @@
     </row>
     <row r="222" spans="1:35" ht="12" customHeight="1">
       <c r="A222" s="6"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
-      <c r="E222" s="18"/>
-      <c r="F222" s="18"/>
-      <c r="G222" s="18"/>
+      <c r="B222" s="28"/>
+      <c r="C222" s="28"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="28"/>
+      <c r="F222" s="28"/>
+      <c r="G222" s="28"/>
       <c r="H222" s="7" t="s">
         <v>3</v>
       </c>
@@ -9674,12 +9674,12 @@
     </row>
     <row r="223" spans="1:35" ht="13" customHeight="1">
       <c r="A223" s="6"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
-      <c r="G223" s="18"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28"/>
       <c r="H223" s="7" t="s">
         <v>2</v>
       </c>
@@ -9713,12 +9713,12 @@
     </row>
     <row r="224" spans="1:35" ht="12" customHeight="1">
       <c r="A224" s="6"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
-      <c r="F224" s="18"/>
-      <c r="G224" s="18"/>
+      <c r="B224" s="28"/>
+      <c r="C224" s="28"/>
+      <c r="D224" s="28"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="28"/>
       <c r="H224" s="7" t="s">
         <v>3</v>
       </c>
@@ -9752,12 +9752,12 @@
     </row>
     <row r="225" spans="1:35" ht="13" customHeight="1">
       <c r="A225" s="6"/>
-      <c r="B225" s="18"/>
-      <c r="C225" s="18"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="18"/>
-      <c r="F225" s="18"/>
-      <c r="G225" s="18"/>
+      <c r="B225" s="28"/>
+      <c r="C225" s="28"/>
+      <c r="D225" s="28"/>
+      <c r="E225" s="28"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="28"/>
       <c r="H225" s="7" t="s">
         <v>2</v>
       </c>
@@ -9791,12 +9791,12 @@
     </row>
     <row r="226" spans="1:35" ht="12" customHeight="1">
       <c r="A226" s="6"/>
-      <c r="B226" s="18"/>
-      <c r="C226" s="18"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="18"/>
-      <c r="G226" s="18"/>
+      <c r="B226" s="28"/>
+      <c r="C226" s="28"/>
+      <c r="D226" s="28"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="28"/>
       <c r="H226" s="7" t="s">
         <v>3</v>
       </c>
@@ -9830,12 +9830,12 @@
     </row>
     <row r="227" spans="1:35" ht="13" customHeight="1">
       <c r="A227" s="6"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="18"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="18"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="18"/>
+      <c r="B227" s="28"/>
+      <c r="C227" s="28"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="28"/>
+      <c r="F227" s="28"/>
+      <c r="G227" s="28"/>
       <c r="H227" s="7" t="s">
         <v>2</v>
       </c>
@@ -9869,12 +9869,12 @@
     </row>
     <row r="228" spans="1:35" ht="12" customHeight="1">
       <c r="A228" s="6"/>
-      <c r="B228" s="18"/>
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
-      <c r="E228" s="18"/>
-      <c r="F228" s="18"/>
-      <c r="G228" s="18"/>
+      <c r="B228" s="28"/>
+      <c r="C228" s="28"/>
+      <c r="D228" s="28"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="28"/>
       <c r="H228" s="7" t="s">
         <v>3</v>
       </c>
@@ -9908,12 +9908,12 @@
     </row>
     <row r="229" spans="1:35" ht="13" customHeight="1">
       <c r="A229" s="6"/>
-      <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-      <c r="G229" s="18"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="28"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="28"/>
       <c r="H229" s="7" t="s">
         <v>2</v>
       </c>
@@ -9947,12 +9947,12 @@
     </row>
     <row r="230" spans="1:35" ht="12" customHeight="1">
       <c r="A230" s="6"/>
-      <c r="B230" s="18"/>
-      <c r="C230" s="18"/>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="18"/>
-      <c r="G230" s="18"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28"/>
       <c r="H230" s="7" t="s">
         <v>3</v>
       </c>
@@ -9986,12 +9986,12 @@
     </row>
     <row r="231" spans="1:35" ht="13" customHeight="1">
       <c r="A231" s="6"/>
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
-      <c r="F231" s="18"/>
-      <c r="G231" s="18"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
       <c r="H231" s="7" t="s">
         <v>2</v>
       </c>
@@ -10025,12 +10025,12 @@
     </row>
     <row r="232" spans="1:35" ht="12" customHeight="1">
       <c r="A232" s="6"/>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
-      <c r="D232" s="18"/>
-      <c r="E232" s="18"/>
-      <c r="F232" s="18"/>
-      <c r="G232" s="18"/>
+      <c r="B232" s="28"/>
+      <c r="C232" s="28"/>
+      <c r="D232" s="28"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="28"/>
       <c r="H232" s="7" t="s">
         <v>3</v>
       </c>
@@ -10064,12 +10064,12 @@
     </row>
     <row r="233" spans="1:35" ht="13" customHeight="1">
       <c r="A233" s="6"/>
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
-      <c r="F233" s="18"/>
-      <c r="G233" s="18"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="28"/>
+      <c r="D233" s="28"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="28"/>
       <c r="H233" s="7" t="s">
         <v>2</v>
       </c>
@@ -10103,12 +10103,12 @@
     </row>
     <row r="234" spans="1:35" ht="12" customHeight="1">
       <c r="A234" s="6"/>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="18"/>
+      <c r="B234" s="28"/>
+      <c r="C234" s="28"/>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
       <c r="H234" s="7" t="s">
         <v>3</v>
       </c>
@@ -10142,12 +10142,12 @@
     </row>
     <row r="235" spans="1:35" ht="13" customHeight="1">
       <c r="A235" s="6"/>
-      <c r="B235" s="18"/>
-      <c r="C235" s="18"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
-      <c r="F235" s="18"/>
-      <c r="G235" s="18"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="28"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="28"/>
       <c r="H235" s="7" t="s">
         <v>2</v>
       </c>
@@ -10181,12 +10181,12 @@
     </row>
     <row r="236" spans="1:35" ht="12" customHeight="1">
       <c r="A236" s="6"/>
-      <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
-      <c r="G236" s="18"/>
+      <c r="B236" s="28"/>
+      <c r="C236" s="28"/>
+      <c r="D236" s="28"/>
+      <c r="E236" s="28"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="28"/>
       <c r="H236" s="7" t="s">
         <v>3</v>
       </c>
@@ -10220,12 +10220,12 @@
     </row>
     <row r="237" spans="1:35" ht="13" customHeight="1">
       <c r="A237" s="6"/>
-      <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
-      <c r="F237" s="18"/>
-      <c r="G237" s="18"/>
+      <c r="B237" s="28"/>
+      <c r="C237" s="28"/>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
       <c r="H237" s="7" t="s">
         <v>2</v>
       </c>
@@ -10259,12 +10259,12 @@
     </row>
     <row r="238" spans="1:35" ht="12" customHeight="1">
       <c r="A238" s="6"/>
-      <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
-      <c r="D238" s="18"/>
-      <c r="E238" s="18"/>
-      <c r="F238" s="18"/>
-      <c r="G238" s="18"/>
+      <c r="B238" s="28"/>
+      <c r="C238" s="28"/>
+      <c r="D238" s="28"/>
+      <c r="E238" s="28"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="28"/>
       <c r="H238" s="7" t="s">
         <v>3</v>
       </c>
@@ -10298,12 +10298,12 @@
     </row>
     <row r="239" spans="1:35" ht="13" customHeight="1">
       <c r="A239" s="6"/>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18"/>
-      <c r="E239" s="18"/>
-      <c r="F239" s="18"/>
-      <c r="G239" s="18"/>
+      <c r="B239" s="28"/>
+      <c r="C239" s="28"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28"/>
       <c r="H239" s="7" t="s">
         <v>2</v>
       </c>
@@ -10337,12 +10337,12 @@
     </row>
     <row r="240" spans="1:35" ht="12" customHeight="1">
       <c r="A240" s="6"/>
-      <c r="B240" s="18"/>
-      <c r="C240" s="18"/>
-      <c r="D240" s="18"/>
-      <c r="E240" s="18"/>
-      <c r="F240" s="18"/>
-      <c r="G240" s="18"/>
+      <c r="B240" s="28"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="28"/>
+      <c r="E240" s="28"/>
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
       <c r="H240" s="7" t="s">
         <v>3</v>
       </c>
@@ -10376,12 +10376,12 @@
     </row>
     <row r="241" spans="1:35" ht="13" customHeight="1">
       <c r="A241" s="6"/>
-      <c r="B241" s="18"/>
-      <c r="C241" s="18"/>
-      <c r="D241" s="18"/>
-      <c r="E241" s="18"/>
-      <c r="F241" s="18"/>
-      <c r="G241" s="18"/>
+      <c r="B241" s="28"/>
+      <c r="C241" s="28"/>
+      <c r="D241" s="28"/>
+      <c r="E241" s="28"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="28"/>
       <c r="H241" s="7" t="s">
         <v>2</v>
       </c>
@@ -10415,12 +10415,12 @@
     </row>
     <row r="242" spans="1:35" ht="12" customHeight="1">
       <c r="A242" s="6"/>
-      <c r="B242" s="18"/>
-      <c r="C242" s="18"/>
-      <c r="D242" s="18"/>
-      <c r="E242" s="18"/>
-      <c r="F242" s="18"/>
-      <c r="G242" s="18"/>
+      <c r="B242" s="28"/>
+      <c r="C242" s="28"/>
+      <c r="D242" s="28"/>
+      <c r="E242" s="28"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="28"/>
       <c r="H242" s="7" t="s">
         <v>3</v>
       </c>
@@ -10454,12 +10454,12 @@
     </row>
     <row r="243" spans="1:35" ht="13" customHeight="1">
       <c r="A243" s="6"/>
-      <c r="B243" s="18"/>
-      <c r="C243" s="18"/>
-      <c r="D243" s="18"/>
-      <c r="E243" s="18"/>
-      <c r="F243" s="18"/>
-      <c r="G243" s="18"/>
+      <c r="B243" s="28"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="28"/>
+      <c r="F243" s="28"/>
+      <c r="G243" s="28"/>
       <c r="H243" s="7" t="s">
         <v>2</v>
       </c>
@@ -10493,12 +10493,12 @@
     </row>
     <row r="244" spans="1:35" ht="12" customHeight="1">
       <c r="A244" s="6"/>
-      <c r="B244" s="18"/>
-      <c r="C244" s="18"/>
-      <c r="D244" s="18"/>
-      <c r="E244" s="18"/>
-      <c r="F244" s="18"/>
-      <c r="G244" s="18"/>
+      <c r="B244" s="28"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28"/>
       <c r="H244" s="7" t="s">
         <v>3</v>
       </c>
@@ -10532,12 +10532,12 @@
     </row>
     <row r="245" spans="1:35" ht="13" customHeight="1">
       <c r="A245" s="6"/>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18"/>
-      <c r="G245" s="18"/>
+      <c r="B245" s="28"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="28"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="28"/>
       <c r="H245" s="7" t="s">
         <v>2</v>
       </c>
@@ -10571,12 +10571,12 @@
     </row>
     <row r="246" spans="1:35" ht="12" customHeight="1">
       <c r="A246" s="6"/>
-      <c r="B246" s="18"/>
-      <c r="C246" s="18"/>
-      <c r="D246" s="18"/>
-      <c r="E246" s="18"/>
-      <c r="F246" s="18"/>
-      <c r="G246" s="18"/>
+      <c r="B246" s="28"/>
+      <c r="C246" s="28"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="28"/>
       <c r="H246" s="7" t="s">
         <v>3</v>
       </c>
@@ -10610,12 +10610,12 @@
     </row>
     <row r="247" spans="1:35" ht="13" customHeight="1">
       <c r="A247" s="6"/>
-      <c r="B247" s="18"/>
-      <c r="C247" s="18"/>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18"/>
-      <c r="G247" s="18"/>
+      <c r="B247" s="28"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="28"/>
+      <c r="F247" s="28"/>
+      <c r="G247" s="28"/>
       <c r="H247" s="7" t="s">
         <v>2</v>
       </c>
@@ -10649,12 +10649,12 @@
     </row>
     <row r="248" spans="1:35" ht="12" customHeight="1">
       <c r="A248" s="6"/>
-      <c r="B248" s="18"/>
-      <c r="C248" s="18"/>
-      <c r="D248" s="18"/>
-      <c r="E248" s="18"/>
-      <c r="F248" s="18"/>
-      <c r="G248" s="18"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="28"/>
       <c r="H248" s="7" t="s">
         <v>3</v>
       </c>
@@ -10688,12 +10688,12 @@
     </row>
     <row r="249" spans="1:35" ht="13" customHeight="1">
       <c r="A249" s="6"/>
-      <c r="B249" s="18"/>
-      <c r="C249" s="18"/>
-      <c r="D249" s="18"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="18"/>
-      <c r="G249" s="18"/>
+      <c r="B249" s="28"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="28"/>
       <c r="H249" s="7" t="s">
         <v>2</v>
       </c>
@@ -10727,12 +10727,12 @@
     </row>
     <row r="250" spans="1:35" ht="12" customHeight="1">
       <c r="A250" s="6"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="18"/>
-      <c r="E250" s="18"/>
-      <c r="F250" s="18"/>
-      <c r="G250" s="18"/>
+      <c r="B250" s="28"/>
+      <c r="C250" s="28"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="28"/>
       <c r="H250" s="7" t="s">
         <v>3</v>
       </c>
@@ -10766,12 +10766,12 @@
     </row>
     <row r="251" spans="1:35" ht="13" customHeight="1">
       <c r="A251" s="6"/>
-      <c r="B251" s="18"/>
-      <c r="C251" s="18"/>
-      <c r="D251" s="18"/>
-      <c r="E251" s="18"/>
-      <c r="F251" s="18"/>
-      <c r="G251" s="18"/>
+      <c r="B251" s="28"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="28"/>
+      <c r="F251" s="28"/>
+      <c r="G251" s="28"/>
       <c r="H251" s="7" t="s">
         <v>2</v>
       </c>
@@ -10805,12 +10805,12 @@
     </row>
     <row r="252" spans="1:35" ht="12" customHeight="1">
       <c r="A252" s="6"/>
-      <c r="B252" s="18"/>
-      <c r="C252" s="18"/>
-      <c r="D252" s="18"/>
-      <c r="E252" s="18"/>
-      <c r="F252" s="18"/>
-      <c r="G252" s="18"/>
+      <c r="B252" s="28"/>
+      <c r="C252" s="28"/>
+      <c r="D252" s="28"/>
+      <c r="E252" s="28"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="28"/>
       <c r="H252" s="7" t="s">
         <v>3</v>
       </c>
@@ -10844,12 +10844,12 @@
     </row>
     <row r="253" spans="1:35" ht="13" customHeight="1">
       <c r="A253" s="6"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="18"/>
-      <c r="F253" s="18"/>
-      <c r="G253" s="18"/>
+      <c r="B253" s="28"/>
+      <c r="C253" s="28"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="28"/>
       <c r="H253" s="7" t="s">
         <v>2</v>
       </c>
@@ -10883,12 +10883,12 @@
     </row>
     <row r="254" spans="1:35" ht="12" customHeight="1">
       <c r="A254" s="6"/>
-      <c r="B254" s="18"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
-      <c r="F254" s="18"/>
-      <c r="G254" s="18"/>
+      <c r="B254" s="28"/>
+      <c r="C254" s="28"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="28"/>
+      <c r="F254" s="28"/>
+      <c r="G254" s="28"/>
       <c r="H254" s="7" t="s">
         <v>3</v>
       </c>
@@ -10922,12 +10922,12 @@
     </row>
     <row r="255" spans="1:35" ht="13" customHeight="1">
       <c r="A255" s="6"/>
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="18"/>
-      <c r="G255" s="18"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="28"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="28"/>
       <c r="H255" s="7" t="s">
         <v>2</v>
       </c>
@@ -10961,12 +10961,12 @@
     </row>
     <row r="256" spans="1:35" ht="12" customHeight="1">
       <c r="A256" s="6"/>
-      <c r="B256" s="18"/>
-      <c r="C256" s="18"/>
-      <c r="D256" s="18"/>
-      <c r="E256" s="18"/>
-      <c r="F256" s="18"/>
-      <c r="G256" s="18"/>
+      <c r="B256" s="28"/>
+      <c r="C256" s="28"/>
+      <c r="D256" s="28"/>
+      <c r="E256" s="28"/>
+      <c r="F256" s="28"/>
+      <c r="G256" s="28"/>
       <c r="H256" s="7" t="s">
         <v>3</v>
       </c>
@@ -11000,12 +11000,12 @@
     </row>
     <row r="257" spans="1:35" ht="13" customHeight="1">
       <c r="A257" s="6"/>
-      <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="18"/>
-      <c r="E257" s="18"/>
-      <c r="F257" s="18"/>
-      <c r="G257" s="18"/>
+      <c r="B257" s="28"/>
+      <c r="C257" s="28"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="28"/>
+      <c r="F257" s="28"/>
+      <c r="G257" s="28"/>
       <c r="H257" s="7" t="s">
         <v>2</v>
       </c>
@@ -11039,12 +11039,12 @@
     </row>
     <row r="258" spans="1:35" ht="12" customHeight="1">
       <c r="A258" s="6"/>
-      <c r="B258" s="18"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18"/>
-      <c r="E258" s="18"/>
-      <c r="F258" s="18"/>
-      <c r="G258" s="18"/>
+      <c r="B258" s="28"/>
+      <c r="C258" s="28"/>
+      <c r="D258" s="28"/>
+      <c r="E258" s="28"/>
+      <c r="F258" s="28"/>
+      <c r="G258" s="28"/>
       <c r="H258" s="7" t="s">
         <v>3</v>
       </c>
@@ -11078,12 +11078,12 @@
     </row>
     <row r="259" spans="1:35" ht="13" customHeight="1">
       <c r="A259" s="6"/>
-      <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="18"/>
-      <c r="E259" s="18"/>
-      <c r="F259" s="18"/>
-      <c r="G259" s="18"/>
+      <c r="B259" s="28"/>
+      <c r="C259" s="28"/>
+      <c r="D259" s="28"/>
+      <c r="E259" s="28"/>
+      <c r="F259" s="28"/>
+      <c r="G259" s="28"/>
       <c r="H259" s="7" t="s">
         <v>2</v>
       </c>
@@ -11117,12 +11117,12 @@
     </row>
     <row r="260" spans="1:35" ht="12" customHeight="1">
       <c r="A260" s="6"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="18"/>
-      <c r="E260" s="18"/>
-      <c r="F260" s="18"/>
-      <c r="G260" s="18"/>
+      <c r="B260" s="28"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="28"/>
+      <c r="F260" s="28"/>
+      <c r="G260" s="28"/>
       <c r="H260" s="7" t="s">
         <v>3</v>
       </c>
@@ -11156,12 +11156,12 @@
     </row>
     <row r="261" spans="1:35" ht="13" customHeight="1">
       <c r="A261" s="6"/>
-      <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
-      <c r="D261" s="18"/>
-      <c r="E261" s="18"/>
-      <c r="F261" s="18"/>
-      <c r="G261" s="18"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="28"/>
+      <c r="E261" s="28"/>
+      <c r="F261" s="28"/>
+      <c r="G261" s="28"/>
       <c r="H261" s="7" t="s">
         <v>2</v>
       </c>
@@ -11195,12 +11195,12 @@
     </row>
     <row r="262" spans="1:35" ht="12" customHeight="1">
       <c r="A262" s="6"/>
-      <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
-      <c r="F262" s="18"/>
-      <c r="G262" s="18"/>
+      <c r="B262" s="28"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="28"/>
+      <c r="E262" s="28"/>
+      <c r="F262" s="28"/>
+      <c r="G262" s="28"/>
       <c r="H262" s="7" t="s">
         <v>3</v>
       </c>
@@ -11234,12 +11234,12 @@
     </row>
     <row r="263" spans="1:35" ht="13" customHeight="1">
       <c r="A263" s="6"/>
-      <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
-      <c r="D263" s="18"/>
-      <c r="E263" s="18"/>
-      <c r="F263" s="18"/>
-      <c r="G263" s="18"/>
+      <c r="B263" s="28"/>
+      <c r="C263" s="28"/>
+      <c r="D263" s="28"/>
+      <c r="E263" s="28"/>
+      <c r="F263" s="28"/>
+      <c r="G263" s="28"/>
       <c r="H263" s="7" t="s">
         <v>2</v>
       </c>
@@ -11273,12 +11273,12 @@
     </row>
     <row r="264" spans="1:35" ht="12" customHeight="1">
       <c r="A264" s="6"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="18"/>
-      <c r="E264" s="18"/>
-      <c r="F264" s="18"/>
-      <c r="G264" s="18"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="28"/>
+      <c r="E264" s="28"/>
+      <c r="F264" s="28"/>
+      <c r="G264" s="28"/>
       <c r="H264" s="7" t="s">
         <v>3</v>
       </c>
@@ -11312,12 +11312,12 @@
     </row>
     <row r="265" spans="1:35" ht="13" customHeight="1">
       <c r="A265" s="6"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
-      <c r="D265" s="18"/>
-      <c r="E265" s="18"/>
-      <c r="F265" s="18"/>
-      <c r="G265" s="18"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="28"/>
+      <c r="D265" s="28"/>
+      <c r="E265" s="28"/>
+      <c r="F265" s="28"/>
+      <c r="G265" s="28"/>
       <c r="H265" s="7" t="s">
         <v>2</v>
       </c>
@@ -11351,12 +11351,12 @@
     </row>
     <row r="266" spans="1:35" ht="12" customHeight="1">
       <c r="A266" s="6"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="18"/>
-      <c r="D266" s="18"/>
-      <c r="E266" s="18"/>
-      <c r="F266" s="18"/>
-      <c r="G266" s="18"/>
+      <c r="B266" s="28"/>
+      <c r="C266" s="28"/>
+      <c r="D266" s="28"/>
+      <c r="E266" s="28"/>
+      <c r="F266" s="28"/>
+      <c r="G266" s="28"/>
       <c r="H266" s="7" t="s">
         <v>3</v>
       </c>
@@ -11390,12 +11390,12 @@
     </row>
     <row r="267" spans="1:35" ht="13" customHeight="1">
       <c r="A267" s="6"/>
-      <c r="B267" s="18"/>
-      <c r="C267" s="18"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="18"/>
-      <c r="F267" s="18"/>
-      <c r="G267" s="18"/>
+      <c r="B267" s="28"/>
+      <c r="C267" s="28"/>
+      <c r="D267" s="28"/>
+      <c r="E267" s="28"/>
+      <c r="F267" s="28"/>
+      <c r="G267" s="28"/>
       <c r="H267" s="7" t="s">
         <v>2</v>
       </c>
@@ -11429,12 +11429,12 @@
     </row>
     <row r="268" spans="1:35" ht="12" customHeight="1">
       <c r="A268" s="6"/>
-      <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="18"/>
-      <c r="F268" s="18"/>
-      <c r="G268" s="18"/>
+      <c r="B268" s="28"/>
+      <c r="C268" s="28"/>
+      <c r="D268" s="28"/>
+      <c r="E268" s="28"/>
+      <c r="F268" s="28"/>
+      <c r="G268" s="28"/>
       <c r="H268" s="7" t="s">
         <v>3</v>
       </c>
@@ -11468,12 +11468,12 @@
     </row>
     <row r="269" spans="1:35" ht="13" customHeight="1">
       <c r="A269" s="6"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="18"/>
-      <c r="F269" s="18"/>
-      <c r="G269" s="18"/>
+      <c r="B269" s="28"/>
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="28"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="28"/>
       <c r="H269" s="7" t="s">
         <v>2</v>
       </c>
@@ -11507,12 +11507,12 @@
     </row>
     <row r="270" spans="1:35" ht="12" customHeight="1">
       <c r="A270" s="6"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
-      <c r="F270" s="18"/>
-      <c r="G270" s="18"/>
+      <c r="B270" s="28"/>
+      <c r="C270" s="28"/>
+      <c r="D270" s="28"/>
+      <c r="E270" s="28"/>
+      <c r="F270" s="28"/>
+      <c r="G270" s="28"/>
       <c r="H270" s="7" t="s">
         <v>3</v>
       </c>
@@ -11546,12 +11546,12 @@
     </row>
     <row r="271" spans="1:35" ht="13" customHeight="1">
       <c r="A271" s="6"/>
-      <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="18"/>
-      <c r="E271" s="18"/>
-      <c r="F271" s="18"/>
-      <c r="G271" s="18"/>
+      <c r="B271" s="28"/>
+      <c r="C271" s="28"/>
+      <c r="D271" s="28"/>
+      <c r="E271" s="28"/>
+      <c r="F271" s="28"/>
+      <c r="G271" s="28"/>
       <c r="H271" s="7" t="s">
         <v>2</v>
       </c>
@@ -11585,12 +11585,12 @@
     </row>
     <row r="272" spans="1:35" ht="12" customHeight="1">
       <c r="A272" s="6"/>
-      <c r="B272" s="18"/>
-      <c r="C272" s="18"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
-      <c r="F272" s="18"/>
-      <c r="G272" s="18"/>
+      <c r="B272" s="28"/>
+      <c r="C272" s="28"/>
+      <c r="D272" s="28"/>
+      <c r="E272" s="28"/>
+      <c r="F272" s="28"/>
+      <c r="G272" s="28"/>
       <c r="H272" s="7" t="s">
         <v>3</v>
       </c>
@@ -11624,12 +11624,12 @@
     </row>
     <row r="273" spans="1:35" ht="13" customHeight="1">
       <c r="A273" s="6"/>
-      <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
-      <c r="D273" s="18"/>
-      <c r="E273" s="18"/>
-      <c r="F273" s="18"/>
-      <c r="G273" s="18"/>
+      <c r="B273" s="28"/>
+      <c r="C273" s="28"/>
+      <c r="D273" s="28"/>
+      <c r="E273" s="28"/>
+      <c r="F273" s="28"/>
+      <c r="G273" s="28"/>
       <c r="H273" s="7" t="s">
         <v>2</v>
       </c>
@@ -11663,12 +11663,12 @@
     </row>
     <row r="274" spans="1:35" ht="12" customHeight="1">
       <c r="A274" s="6"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="18"/>
-      <c r="E274" s="18"/>
-      <c r="F274" s="18"/>
-      <c r="G274" s="18"/>
+      <c r="B274" s="28"/>
+      <c r="C274" s="28"/>
+      <c r="D274" s="28"/>
+      <c r="E274" s="28"/>
+      <c r="F274" s="28"/>
+      <c r="G274" s="28"/>
       <c r="H274" s="7" t="s">
         <v>3</v>
       </c>
@@ -11702,12 +11702,12 @@
     </row>
     <row r="275" spans="1:35" ht="13" customHeight="1">
       <c r="A275" s="6"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="18"/>
-      <c r="E275" s="18"/>
-      <c r="F275" s="18"/>
-      <c r="G275" s="18"/>
+      <c r="B275" s="28"/>
+      <c r="C275" s="28"/>
+      <c r="D275" s="28"/>
+      <c r="E275" s="28"/>
+      <c r="F275" s="28"/>
+      <c r="G275" s="28"/>
       <c r="H275" s="7" t="s">
         <v>2</v>
       </c>
@@ -11741,12 +11741,12 @@
     </row>
     <row r="276" spans="1:35" ht="12" customHeight="1">
       <c r="A276" s="6"/>
-      <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="18"/>
-      <c r="E276" s="18"/>
-      <c r="F276" s="18"/>
-      <c r="G276" s="18"/>
+      <c r="B276" s="28"/>
+      <c r="C276" s="28"/>
+      <c r="D276" s="28"/>
+      <c r="E276" s="28"/>
+      <c r="F276" s="28"/>
+      <c r="G276" s="28"/>
       <c r="H276" s="7" t="s">
         <v>3</v>
       </c>
@@ -11780,12 +11780,12 @@
     </row>
     <row r="277" spans="1:35" ht="13" customHeight="1">
       <c r="A277" s="6"/>
-      <c r="B277" s="18"/>
-      <c r="C277" s="18"/>
-      <c r="D277" s="18"/>
-      <c r="E277" s="18"/>
-      <c r="F277" s="18"/>
-      <c r="G277" s="18"/>
+      <c r="B277" s="28"/>
+      <c r="C277" s="28"/>
+      <c r="D277" s="28"/>
+      <c r="E277" s="28"/>
+      <c r="F277" s="28"/>
+      <c r="G277" s="28"/>
       <c r="H277" s="7" t="s">
         <v>2</v>
       </c>
@@ -11819,12 +11819,12 @@
     </row>
     <row r="278" spans="1:35" ht="12" customHeight="1">
       <c r="A278" s="6"/>
-      <c r="B278" s="18"/>
-      <c r="C278" s="18"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="18"/>
-      <c r="F278" s="18"/>
-      <c r="G278" s="18"/>
+      <c r="B278" s="28"/>
+      <c r="C278" s="28"/>
+      <c r="D278" s="28"/>
+      <c r="E278" s="28"/>
+      <c r="F278" s="28"/>
+      <c r="G278" s="28"/>
       <c r="H278" s="7" t="s">
         <v>3</v>
       </c>
@@ -11858,12 +11858,12 @@
     </row>
     <row r="279" spans="1:35" ht="13" customHeight="1">
       <c r="A279" s="6"/>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="18"/>
-      <c r="E279" s="18"/>
-      <c r="F279" s="18"/>
-      <c r="G279" s="18"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="28"/>
+      <c r="D279" s="28"/>
+      <c r="E279" s="28"/>
+      <c r="F279" s="28"/>
+      <c r="G279" s="28"/>
       <c r="H279" s="7" t="s">
         <v>2</v>
       </c>
@@ -11897,12 +11897,12 @@
     </row>
     <row r="280" spans="1:35" ht="12" customHeight="1">
       <c r="A280" s="6"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="18"/>
-      <c r="E280" s="18"/>
-      <c r="F280" s="18"/>
-      <c r="G280" s="18"/>
+      <c r="B280" s="28"/>
+      <c r="C280" s="28"/>
+      <c r="D280" s="28"/>
+      <c r="E280" s="28"/>
+      <c r="F280" s="28"/>
+      <c r="G280" s="28"/>
       <c r="H280" s="7" t="s">
         <v>3</v>
       </c>
@@ -11936,12 +11936,12 @@
     </row>
     <row r="281" spans="1:35" ht="13" customHeight="1">
       <c r="A281" s="6"/>
-      <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
-      <c r="D281" s="18"/>
-      <c r="E281" s="18"/>
-      <c r="F281" s="18"/>
-      <c r="G281" s="18"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="28"/>
+      <c r="D281" s="28"/>
+      <c r="E281" s="28"/>
+      <c r="F281" s="28"/>
+      <c r="G281" s="28"/>
       <c r="H281" s="7" t="s">
         <v>2</v>
       </c>
@@ -11975,12 +11975,12 @@
     </row>
     <row r="282" spans="1:35" ht="12" customHeight="1">
       <c r="A282" s="6"/>
-      <c r="B282" s="18"/>
-      <c r="C282" s="18"/>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
-      <c r="F282" s="18"/>
-      <c r="G282" s="18"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="28"/>
+      <c r="D282" s="28"/>
+      <c r="E282" s="28"/>
+      <c r="F282" s="28"/>
+      <c r="G282" s="28"/>
       <c r="H282" s="7" t="s">
         <v>3</v>
       </c>
@@ -12014,12 +12014,12 @@
     </row>
     <row r="283" spans="1:35" ht="13" customHeight="1">
       <c r="A283" s="6"/>
-      <c r="B283" s="18"/>
-      <c r="C283" s="18"/>
-      <c r="D283" s="18"/>
-      <c r="E283" s="18"/>
-      <c r="F283" s="18"/>
-      <c r="G283" s="18"/>
+      <c r="B283" s="28"/>
+      <c r="C283" s="28"/>
+      <c r="D283" s="28"/>
+      <c r="E283" s="28"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="28"/>
       <c r="H283" s="7" t="s">
         <v>2</v>
       </c>
@@ -12053,12 +12053,12 @@
     </row>
     <row r="284" spans="1:35" ht="12" customHeight="1">
       <c r="A284" s="6"/>
-      <c r="B284" s="18"/>
-      <c r="C284" s="18"/>
-      <c r="D284" s="18"/>
-      <c r="E284" s="18"/>
-      <c r="F284" s="18"/>
-      <c r="G284" s="18"/>
+      <c r="B284" s="28"/>
+      <c r="C284" s="28"/>
+      <c r="D284" s="28"/>
+      <c r="E284" s="28"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="28"/>
       <c r="H284" s="7" t="s">
         <v>3</v>
       </c>
@@ -12092,12 +12092,12 @@
     </row>
     <row r="285" spans="1:35" ht="13" customHeight="1">
       <c r="A285" s="6"/>
-      <c r="B285" s="18"/>
-      <c r="C285" s="18"/>
-      <c r="D285" s="18"/>
-      <c r="E285" s="18"/>
-      <c r="F285" s="18"/>
-      <c r="G285" s="18"/>
+      <c r="B285" s="28"/>
+      <c r="C285" s="28"/>
+      <c r="D285" s="28"/>
+      <c r="E285" s="28"/>
+      <c r="F285" s="28"/>
+      <c r="G285" s="28"/>
       <c r="H285" s="7" t="s">
         <v>2</v>
       </c>
@@ -12131,12 +12131,12 @@
     </row>
     <row r="286" spans="1:35" ht="12" customHeight="1">
       <c r="A286" s="6"/>
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="18"/>
-      <c r="E286" s="18"/>
-      <c r="F286" s="18"/>
-      <c r="G286" s="18"/>
+      <c r="B286" s="28"/>
+      <c r="C286" s="28"/>
+      <c r="D286" s="28"/>
+      <c r="E286" s="28"/>
+      <c r="F286" s="28"/>
+      <c r="G286" s="28"/>
       <c r="H286" s="7" t="s">
         <v>3</v>
       </c>
@@ -12170,12 +12170,12 @@
     </row>
     <row r="287" spans="1:35" ht="13" customHeight="1">
       <c r="A287" s="6"/>
-      <c r="B287" s="18"/>
-      <c r="C287" s="18"/>
-      <c r="D287" s="18"/>
-      <c r="E287" s="18"/>
-      <c r="F287" s="18"/>
-      <c r="G287" s="18"/>
+      <c r="B287" s="28"/>
+      <c r="C287" s="28"/>
+      <c r="D287" s="28"/>
+      <c r="E287" s="28"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="28"/>
       <c r="H287" s="7" t="s">
         <v>2</v>
       </c>
@@ -12209,12 +12209,12 @@
     </row>
     <row r="288" spans="1:35" ht="12" customHeight="1">
       <c r="A288" s="6"/>
-      <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
-      <c r="F288" s="18"/>
-      <c r="G288" s="18"/>
+      <c r="B288" s="28"/>
+      <c r="C288" s="28"/>
+      <c r="D288" s="28"/>
+      <c r="E288" s="28"/>
+      <c r="F288" s="28"/>
+      <c r="G288" s="28"/>
       <c r="H288" s="7" t="s">
         <v>3</v>
       </c>
@@ -12248,12 +12248,12 @@
     </row>
     <row r="289" spans="1:35" ht="13" customHeight="1">
       <c r="A289" s="6"/>
-      <c r="B289" s="18"/>
-      <c r="C289" s="18"/>
-      <c r="D289" s="18"/>
-      <c r="E289" s="18"/>
-      <c r="F289" s="18"/>
-      <c r="G289" s="18"/>
+      <c r="B289" s="28"/>
+      <c r="C289" s="28"/>
+      <c r="D289" s="28"/>
+      <c r="E289" s="28"/>
+      <c r="F289" s="28"/>
+      <c r="G289" s="28"/>
       <c r="H289" s="7" t="s">
         <v>2</v>
       </c>
@@ -12287,12 +12287,12 @@
     </row>
     <row r="290" spans="1:35" ht="12" customHeight="1">
       <c r="A290" s="6"/>
-      <c r="B290" s="18"/>
-      <c r="C290" s="18"/>
-      <c r="D290" s="18"/>
-      <c r="E290" s="18"/>
-      <c r="F290" s="18"/>
-      <c r="G290" s="18"/>
+      <c r="B290" s="28"/>
+      <c r="C290" s="28"/>
+      <c r="D290" s="28"/>
+      <c r="E290" s="28"/>
+      <c r="F290" s="28"/>
+      <c r="G290" s="28"/>
       <c r="H290" s="7" t="s">
         <v>3</v>
       </c>
@@ -12326,12 +12326,12 @@
     </row>
     <row r="291" spans="1:35" ht="13" customHeight="1">
       <c r="A291" s="6"/>
-      <c r="B291" s="18"/>
-      <c r="C291" s="18"/>
-      <c r="D291" s="18"/>
-      <c r="E291" s="18"/>
-      <c r="F291" s="18"/>
-      <c r="G291" s="18"/>
+      <c r="B291" s="28"/>
+      <c r="C291" s="28"/>
+      <c r="D291" s="28"/>
+      <c r="E291" s="28"/>
+      <c r="F291" s="28"/>
+      <c r="G291" s="28"/>
       <c r="H291" s="7" t="s">
         <v>2</v>
       </c>
@@ -12365,12 +12365,12 @@
     </row>
     <row r="292" spans="1:35" ht="12" customHeight="1">
       <c r="A292" s="6"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="18"/>
-      <c r="D292" s="18"/>
-      <c r="E292" s="18"/>
-      <c r="F292" s="18"/>
-      <c r="G292" s="18"/>
+      <c r="B292" s="28"/>
+      <c r="C292" s="28"/>
+      <c r="D292" s="28"/>
+      <c r="E292" s="28"/>
+      <c r="F292" s="28"/>
+      <c r="G292" s="28"/>
       <c r="H292" s="7" t="s">
         <v>3</v>
       </c>
@@ -12404,12 +12404,12 @@
     </row>
     <row r="293" spans="1:35" ht="13" customHeight="1">
       <c r="A293" s="6"/>
-      <c r="B293" s="18"/>
-      <c r="C293" s="18"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="18"/>
-      <c r="F293" s="18"/>
-      <c r="G293" s="18"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="28"/>
+      <c r="D293" s="28"/>
+      <c r="E293" s="28"/>
+      <c r="F293" s="28"/>
+      <c r="G293" s="28"/>
       <c r="H293" s="7" t="s">
         <v>2</v>
       </c>
@@ -12443,12 +12443,12 @@
     </row>
     <row r="294" spans="1:35" ht="12" customHeight="1">
       <c r="A294" s="6"/>
-      <c r="B294" s="18"/>
-      <c r="C294" s="18"/>
-      <c r="D294" s="18"/>
-      <c r="E294" s="18"/>
-      <c r="F294" s="18"/>
-      <c r="G294" s="18"/>
+      <c r="B294" s="28"/>
+      <c r="C294" s="28"/>
+      <c r="D294" s="28"/>
+      <c r="E294" s="28"/>
+      <c r="F294" s="28"/>
+      <c r="G294" s="28"/>
       <c r="H294" s="7" t="s">
         <v>3</v>
       </c>
@@ -12482,12 +12482,12 @@
     </row>
     <row r="295" spans="1:35" ht="13" customHeight="1">
       <c r="A295" s="6"/>
-      <c r="B295" s="18"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
-      <c r="F295" s="18"/>
-      <c r="G295" s="18"/>
+      <c r="B295" s="28"/>
+      <c r="C295" s="28"/>
+      <c r="D295" s="28"/>
+      <c r="E295" s="28"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="28"/>
       <c r="H295" s="7" t="s">
         <v>2</v>
       </c>
@@ -12521,12 +12521,12 @@
     </row>
     <row r="296" spans="1:35" ht="12" customHeight="1">
       <c r="A296" s="6"/>
-      <c r="B296" s="18"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="18"/>
-      <c r="E296" s="18"/>
-      <c r="F296" s="18"/>
-      <c r="G296" s="18"/>
+      <c r="B296" s="28"/>
+      <c r="C296" s="28"/>
+      <c r="D296" s="28"/>
+      <c r="E296" s="28"/>
+      <c r="F296" s="28"/>
+      <c r="G296" s="28"/>
       <c r="H296" s="7" t="s">
         <v>3</v>
       </c>
@@ -12560,12 +12560,12 @@
     </row>
     <row r="297" spans="1:35" ht="13" customHeight="1">
       <c r="A297" s="6"/>
-      <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="18"/>
-      <c r="E297" s="18"/>
-      <c r="F297" s="18"/>
-      <c r="G297" s="18"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="28"/>
+      <c r="D297" s="28"/>
+      <c r="E297" s="28"/>
+      <c r="F297" s="28"/>
+      <c r="G297" s="28"/>
       <c r="H297" s="7" t="s">
         <v>2</v>
       </c>
@@ -12599,12 +12599,12 @@
     </row>
     <row r="298" spans="1:35" ht="12" customHeight="1">
       <c r="A298" s="6"/>
-      <c r="B298" s="18"/>
-      <c r="C298" s="18"/>
-      <c r="D298" s="18"/>
-      <c r="E298" s="18"/>
-      <c r="F298" s="18"/>
-      <c r="G298" s="18"/>
+      <c r="B298" s="28"/>
+      <c r="C298" s="28"/>
+      <c r="D298" s="28"/>
+      <c r="E298" s="28"/>
+      <c r="F298" s="28"/>
+      <c r="G298" s="28"/>
       <c r="H298" s="7" t="s">
         <v>3</v>
       </c>
@@ -12638,12 +12638,12 @@
     </row>
     <row r="299" spans="1:35" ht="13" customHeight="1">
       <c r="A299" s="6"/>
-      <c r="B299" s="18"/>
-      <c r="C299" s="18"/>
-      <c r="D299" s="18"/>
-      <c r="E299" s="18"/>
-      <c r="F299" s="18"/>
-      <c r="G299" s="18"/>
+      <c r="B299" s="28"/>
+      <c r="C299" s="28"/>
+      <c r="D299" s="28"/>
+      <c r="E299" s="28"/>
+      <c r="F299" s="28"/>
+      <c r="G299" s="28"/>
       <c r="H299" s="7" t="s">
         <v>2</v>
       </c>
@@ -12677,12 +12677,12 @@
     </row>
     <row r="300" spans="1:35" ht="12" customHeight="1">
       <c r="A300" s="6"/>
-      <c r="B300" s="18"/>
-      <c r="C300" s="18"/>
-      <c r="D300" s="18"/>
-      <c r="E300" s="18"/>
-      <c r="F300" s="18"/>
-      <c r="G300" s="18"/>
+      <c r="B300" s="28"/>
+      <c r="C300" s="28"/>
+      <c r="D300" s="28"/>
+      <c r="E300" s="28"/>
+      <c r="F300" s="28"/>
+      <c r="G300" s="28"/>
       <c r="H300" s="7" t="s">
         <v>3</v>
       </c>
@@ -12716,12 +12716,12 @@
     </row>
     <row r="301" spans="1:35" ht="13" customHeight="1">
       <c r="A301" s="6"/>
-      <c r="B301" s="18"/>
-      <c r="C301" s="18"/>
-      <c r="D301" s="18"/>
-      <c r="E301" s="18"/>
-      <c r="F301" s="18"/>
-      <c r="G301" s="18"/>
+      <c r="B301" s="28"/>
+      <c r="C301" s="28"/>
+      <c r="D301" s="28"/>
+      <c r="E301" s="28"/>
+      <c r="F301" s="28"/>
+      <c r="G301" s="28"/>
       <c r="H301" s="7" t="s">
         <v>2</v>
       </c>
@@ -12755,12 +12755,12 @@
     </row>
     <row r="302" spans="1:35" ht="12" customHeight="1">
       <c r="A302" s="6"/>
-      <c r="B302" s="18"/>
-      <c r="C302" s="18"/>
-      <c r="D302" s="18"/>
-      <c r="E302" s="18"/>
-      <c r="F302" s="18"/>
-      <c r="G302" s="18"/>
+      <c r="B302" s="28"/>
+      <c r="C302" s="28"/>
+      <c r="D302" s="28"/>
+      <c r="E302" s="28"/>
+      <c r="F302" s="28"/>
+      <c r="G302" s="28"/>
       <c r="H302" s="7" t="s">
         <v>3</v>
       </c>
@@ -12794,12 +12794,12 @@
     </row>
     <row r="303" spans="1:35" ht="13" customHeight="1">
       <c r="A303" s="6"/>
-      <c r="B303" s="18"/>
-      <c r="C303" s="18"/>
-      <c r="D303" s="18"/>
-      <c r="E303" s="18"/>
-      <c r="F303" s="18"/>
-      <c r="G303" s="18"/>
+      <c r="B303" s="28"/>
+      <c r="C303" s="28"/>
+      <c r="D303" s="28"/>
+      <c r="E303" s="28"/>
+      <c r="F303" s="28"/>
+      <c r="G303" s="28"/>
       <c r="H303" s="7" t="s">
         <v>2</v>
       </c>
@@ -12833,12 +12833,12 @@
     </row>
     <row r="304" spans="1:35" ht="12" customHeight="1">
       <c r="A304" s="6"/>
-      <c r="B304" s="18"/>
-      <c r="C304" s="18"/>
-      <c r="D304" s="18"/>
-      <c r="E304" s="18"/>
-      <c r="F304" s="18"/>
-      <c r="G304" s="18"/>
+      <c r="B304" s="28"/>
+      <c r="C304" s="28"/>
+      <c r="D304" s="28"/>
+      <c r="E304" s="28"/>
+      <c r="F304" s="28"/>
+      <c r="G304" s="28"/>
       <c r="H304" s="7" t="s">
         <v>3</v>
       </c>
@@ -12872,12 +12872,12 @@
     </row>
     <row r="305" spans="1:35" ht="13" customHeight="1">
       <c r="A305" s="6"/>
-      <c r="B305" s="18"/>
-      <c r="C305" s="18"/>
-      <c r="D305" s="18"/>
-      <c r="E305" s="18"/>
-      <c r="F305" s="18"/>
-      <c r="G305" s="18"/>
+      <c r="B305" s="28"/>
+      <c r="C305" s="28"/>
+      <c r="D305" s="28"/>
+      <c r="E305" s="28"/>
+      <c r="F305" s="28"/>
+      <c r="G305" s="28"/>
       <c r="H305" s="7" t="s">
         <v>2</v>
       </c>
@@ -12911,12 +12911,12 @@
     </row>
     <row r="306" spans="1:35" ht="12" customHeight="1">
       <c r="A306" s="6"/>
-      <c r="B306" s="18"/>
-      <c r="C306" s="18"/>
-      <c r="D306" s="18"/>
-      <c r="E306" s="18"/>
-      <c r="F306" s="18"/>
-      <c r="G306" s="18"/>
+      <c r="B306" s="28"/>
+      <c r="C306" s="28"/>
+      <c r="D306" s="28"/>
+      <c r="E306" s="28"/>
+      <c r="F306" s="28"/>
+      <c r="G306" s="28"/>
       <c r="H306" s="7" t="s">
         <v>3</v>
       </c>
@@ -12950,12 +12950,12 @@
     </row>
     <row r="307" spans="1:35" ht="13" customHeight="1">
       <c r="A307" s="6"/>
-      <c r="B307" s="18"/>
-      <c r="C307" s="18"/>
-      <c r="D307" s="18"/>
-      <c r="E307" s="18"/>
-      <c r="F307" s="18"/>
-      <c r="G307" s="18"/>
+      <c r="B307" s="28"/>
+      <c r="C307" s="28"/>
+      <c r="D307" s="28"/>
+      <c r="E307" s="28"/>
+      <c r="F307" s="28"/>
+      <c r="G307" s="28"/>
       <c r="H307" s="7" t="s">
         <v>2</v>
       </c>
@@ -12989,12 +12989,12 @@
     </row>
     <row r="308" spans="1:35" ht="12" customHeight="1">
       <c r="A308" s="6"/>
-      <c r="B308" s="18"/>
-      <c r="C308" s="18"/>
-      <c r="D308" s="18"/>
-      <c r="E308" s="18"/>
-      <c r="F308" s="18"/>
-      <c r="G308" s="18"/>
+      <c r="B308" s="28"/>
+      <c r="C308" s="28"/>
+      <c r="D308" s="28"/>
+      <c r="E308" s="28"/>
+      <c r="F308" s="28"/>
+      <c r="G308" s="28"/>
       <c r="H308" s="7" t="s">
         <v>3</v>
       </c>
@@ -13028,12 +13028,12 @@
     </row>
     <row r="309" spans="1:35" ht="13" customHeight="1">
       <c r="A309" s="6"/>
-      <c r="B309" s="18"/>
-      <c r="C309" s="18"/>
-      <c r="D309" s="18"/>
-      <c r="E309" s="18"/>
-      <c r="F309" s="18"/>
-      <c r="G309" s="18"/>
+      <c r="B309" s="28"/>
+      <c r="C309" s="28"/>
+      <c r="D309" s="28"/>
+      <c r="E309" s="28"/>
+      <c r="F309" s="28"/>
+      <c r="G309" s="28"/>
       <c r="H309" s="7" t="s">
         <v>2</v>
       </c>
@@ -13067,12 +13067,12 @@
     </row>
     <row r="310" spans="1:35" ht="12" customHeight="1">
       <c r="A310" s="6"/>
-      <c r="B310" s="18"/>
-      <c r="C310" s="18"/>
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
-      <c r="F310" s="18"/>
-      <c r="G310" s="18"/>
+      <c r="B310" s="28"/>
+      <c r="C310" s="28"/>
+      <c r="D310" s="28"/>
+      <c r="E310" s="28"/>
+      <c r="F310" s="28"/>
+      <c r="G310" s="28"/>
       <c r="H310" s="7" t="s">
         <v>3</v>
       </c>
@@ -13106,12 +13106,12 @@
     </row>
     <row r="311" spans="1:35" ht="13" customHeight="1">
       <c r="A311" s="6"/>
-      <c r="B311" s="18"/>
-      <c r="C311" s="18"/>
-      <c r="D311" s="18"/>
-      <c r="E311" s="18"/>
-      <c r="F311" s="18"/>
-      <c r="G311" s="18"/>
+      <c r="B311" s="28"/>
+      <c r="C311" s="28"/>
+      <c r="D311" s="28"/>
+      <c r="E311" s="28"/>
+      <c r="F311" s="28"/>
+      <c r="G311" s="28"/>
       <c r="H311" s="7" t="s">
         <v>2</v>
       </c>
@@ -13145,12 +13145,12 @@
     </row>
     <row r="312" spans="1:35" ht="12" customHeight="1">
       <c r="A312" s="6"/>
-      <c r="B312" s="18"/>
-      <c r="C312" s="18"/>
-      <c r="D312" s="18"/>
-      <c r="E312" s="18"/>
-      <c r="F312" s="18"/>
-      <c r="G312" s="18"/>
+      <c r="B312" s="28"/>
+      <c r="C312" s="28"/>
+      <c r="D312" s="28"/>
+      <c r="E312" s="28"/>
+      <c r="F312" s="28"/>
+      <c r="G312" s="28"/>
       <c r="H312" s="7" t="s">
         <v>3</v>
       </c>
@@ -13184,12 +13184,12 @@
     </row>
     <row r="313" spans="1:35" ht="13" customHeight="1">
       <c r="A313" s="6"/>
-      <c r="B313" s="18"/>
-      <c r="C313" s="18"/>
-      <c r="D313" s="18"/>
-      <c r="E313" s="18"/>
-      <c r="F313" s="18"/>
-      <c r="G313" s="18"/>
+      <c r="B313" s="28"/>
+      <c r="C313" s="28"/>
+      <c r="D313" s="28"/>
+      <c r="E313" s="28"/>
+      <c r="F313" s="28"/>
+      <c r="G313" s="28"/>
       <c r="H313" s="7" t="s">
         <v>2</v>
       </c>
@@ -13223,12 +13223,12 @@
     </row>
     <row r="314" spans="1:35" ht="12" customHeight="1">
       <c r="A314" s="6"/>
-      <c r="B314" s="18"/>
-      <c r="C314" s="18"/>
-      <c r="D314" s="18"/>
-      <c r="E314" s="18"/>
-      <c r="F314" s="18"/>
-      <c r="G314" s="18"/>
+      <c r="B314" s="28"/>
+      <c r="C314" s="28"/>
+      <c r="D314" s="28"/>
+      <c r="E314" s="28"/>
+      <c r="F314" s="28"/>
+      <c r="G314" s="28"/>
       <c r="H314" s="7" t="s">
         <v>3</v>
       </c>
@@ -13262,12 +13262,12 @@
     </row>
     <row r="315" spans="1:35" ht="13" customHeight="1">
       <c r="A315" s="6"/>
-      <c r="B315" s="18"/>
-      <c r="C315" s="18"/>
-      <c r="D315" s="18"/>
-      <c r="E315" s="18"/>
-      <c r="F315" s="18"/>
-      <c r="G315" s="18"/>
+      <c r="B315" s="28"/>
+      <c r="C315" s="28"/>
+      <c r="D315" s="28"/>
+      <c r="E315" s="28"/>
+      <c r="F315" s="28"/>
+      <c r="G315" s="28"/>
       <c r="H315" s="7" t="s">
         <v>2</v>
       </c>
@@ -13301,12 +13301,12 @@
     </row>
     <row r="316" spans="1:35" ht="12" customHeight="1">
       <c r="A316" s="6"/>
-      <c r="B316" s="18"/>
-      <c r="C316" s="18"/>
-      <c r="D316" s="18"/>
-      <c r="E316" s="18"/>
-      <c r="F316" s="18"/>
-      <c r="G316" s="18"/>
+      <c r="B316" s="28"/>
+      <c r="C316" s="28"/>
+      <c r="D316" s="28"/>
+      <c r="E316" s="28"/>
+      <c r="F316" s="28"/>
+      <c r="G316" s="28"/>
       <c r="H316" s="7" t="s">
         <v>3</v>
       </c>
@@ -13340,12 +13340,12 @@
     </row>
     <row r="317" spans="1:35" ht="13" customHeight="1">
       <c r="A317" s="6"/>
-      <c r="B317" s="18"/>
-      <c r="C317" s="18"/>
-      <c r="D317" s="18"/>
-      <c r="E317" s="18"/>
-      <c r="F317" s="18"/>
-      <c r="G317" s="18"/>
+      <c r="B317" s="28"/>
+      <c r="C317" s="28"/>
+      <c r="D317" s="28"/>
+      <c r="E317" s="28"/>
+      <c r="F317" s="28"/>
+      <c r="G317" s="28"/>
       <c r="H317" s="7" t="s">
         <v>2</v>
       </c>
@@ -13379,12 +13379,12 @@
     </row>
     <row r="318" spans="1:35" ht="12" customHeight="1">
       <c r="A318" s="6"/>
-      <c r="B318" s="18"/>
-      <c r="C318" s="18"/>
-      <c r="D318" s="18"/>
-      <c r="E318" s="18"/>
-      <c r="F318" s="18"/>
-      <c r="G318" s="18"/>
+      <c r="B318" s="28"/>
+      <c r="C318" s="28"/>
+      <c r="D318" s="28"/>
+      <c r="E318" s="28"/>
+      <c r="F318" s="28"/>
+      <c r="G318" s="28"/>
       <c r="H318" s="7" t="s">
         <v>3</v>
       </c>
@@ -13418,12 +13418,12 @@
     </row>
     <row r="319" spans="1:35" ht="13" customHeight="1">
       <c r="A319" s="6"/>
-      <c r="B319" s="18"/>
-      <c r="C319" s="18"/>
-      <c r="D319" s="18"/>
-      <c r="E319" s="18"/>
-      <c r="F319" s="18"/>
-      <c r="G319" s="18"/>
+      <c r="B319" s="28"/>
+      <c r="C319" s="28"/>
+      <c r="D319" s="28"/>
+      <c r="E319" s="28"/>
+      <c r="F319" s="28"/>
+      <c r="G319" s="28"/>
       <c r="H319" s="7" t="s">
         <v>2</v>
       </c>
@@ -13457,12 +13457,12 @@
     </row>
     <row r="320" spans="1:35" ht="12" customHeight="1">
       <c r="A320" s="6"/>
-      <c r="B320" s="18"/>
-      <c r="C320" s="18"/>
-      <c r="D320" s="18"/>
-      <c r="E320" s="18"/>
-      <c r="F320" s="18"/>
-      <c r="G320" s="18"/>
+      <c r="B320" s="28"/>
+      <c r="C320" s="28"/>
+      <c r="D320" s="28"/>
+      <c r="E320" s="28"/>
+      <c r="F320" s="28"/>
+      <c r="G320" s="28"/>
       <c r="H320" s="7" t="s">
         <v>3</v>
       </c>
@@ -13496,12 +13496,12 @@
     </row>
     <row r="321" spans="1:35" ht="13" customHeight="1">
       <c r="A321" s="6"/>
-      <c r="B321" s="18"/>
-      <c r="C321" s="18"/>
-      <c r="D321" s="18"/>
-      <c r="E321" s="18"/>
-      <c r="F321" s="18"/>
-      <c r="G321" s="18"/>
+      <c r="B321" s="28"/>
+      <c r="C321" s="28"/>
+      <c r="D321" s="28"/>
+      <c r="E321" s="28"/>
+      <c r="F321" s="28"/>
+      <c r="G321" s="28"/>
       <c r="H321" s="7" t="s">
         <v>2</v>
       </c>
@@ -13535,12 +13535,12 @@
     </row>
     <row r="322" spans="1:35" ht="12" customHeight="1">
       <c r="A322" s="6"/>
-      <c r="B322" s="18"/>
-      <c r="C322" s="18"/>
-      <c r="D322" s="18"/>
-      <c r="E322" s="18"/>
-      <c r="F322" s="18"/>
-      <c r="G322" s="18"/>
+      <c r="B322" s="28"/>
+      <c r="C322" s="28"/>
+      <c r="D322" s="28"/>
+      <c r="E322" s="28"/>
+      <c r="F322" s="28"/>
+      <c r="G322" s="28"/>
       <c r="H322" s="7" t="s">
         <v>3</v>
       </c>
@@ -13574,12 +13574,12 @@
     </row>
     <row r="323" spans="1:35" ht="13" customHeight="1">
       <c r="A323" s="6"/>
-      <c r="B323" s="18"/>
-      <c r="C323" s="18"/>
-      <c r="D323" s="18"/>
-      <c r="E323" s="18"/>
-      <c r="F323" s="18"/>
-      <c r="G323" s="18"/>
+      <c r="B323" s="28"/>
+      <c r="C323" s="28"/>
+      <c r="D323" s="28"/>
+      <c r="E323" s="28"/>
+      <c r="F323" s="28"/>
+      <c r="G323" s="28"/>
       <c r="H323" s="7" t="s">
         <v>2</v>
       </c>
@@ -13613,12 +13613,12 @@
     </row>
     <row r="324" spans="1:35" ht="12" customHeight="1">
       <c r="A324" s="6"/>
-      <c r="B324" s="18"/>
-      <c r="C324" s="18"/>
-      <c r="D324" s="18"/>
-      <c r="E324" s="18"/>
-      <c r="F324" s="18"/>
-      <c r="G324" s="18"/>
+      <c r="B324" s="28"/>
+      <c r="C324" s="28"/>
+      <c r="D324" s="28"/>
+      <c r="E324" s="28"/>
+      <c r="F324" s="28"/>
+      <c r="G324" s="28"/>
       <c r="H324" s="7" t="s">
         <v>3</v>
       </c>
@@ -13652,12 +13652,12 @@
     </row>
     <row r="325" spans="1:35" ht="13" customHeight="1">
       <c r="A325" s="6"/>
-      <c r="B325" s="18"/>
-      <c r="C325" s="18"/>
-      <c r="D325" s="18"/>
-      <c r="E325" s="18"/>
-      <c r="F325" s="18"/>
-      <c r="G325" s="18"/>
+      <c r="B325" s="28"/>
+      <c r="C325" s="28"/>
+      <c r="D325" s="28"/>
+      <c r="E325" s="28"/>
+      <c r="F325" s="28"/>
+      <c r="G325" s="28"/>
       <c r="H325" s="7" t="s">
         <v>2</v>
       </c>
@@ -13691,12 +13691,12 @@
     </row>
     <row r="326" spans="1:35" ht="12" customHeight="1">
       <c r="A326" s="6"/>
-      <c r="B326" s="18"/>
-      <c r="C326" s="18"/>
-      <c r="D326" s="18"/>
-      <c r="E326" s="18"/>
-      <c r="F326" s="18"/>
-      <c r="G326" s="18"/>
+      <c r="B326" s="28"/>
+      <c r="C326" s="28"/>
+      <c r="D326" s="28"/>
+      <c r="E326" s="28"/>
+      <c r="F326" s="28"/>
+      <c r="G326" s="28"/>
       <c r="H326" s="7" t="s">
         <v>3</v>
       </c>
@@ -13730,12 +13730,12 @@
     </row>
     <row r="327" spans="1:35" ht="13" customHeight="1">
       <c r="A327" s="6"/>
-      <c r="B327" s="18"/>
-      <c r="C327" s="18"/>
-      <c r="D327" s="18"/>
-      <c r="E327" s="18"/>
-      <c r="F327" s="18"/>
-      <c r="G327" s="18"/>
+      <c r="B327" s="28"/>
+      <c r="C327" s="28"/>
+      <c r="D327" s="28"/>
+      <c r="E327" s="28"/>
+      <c r="F327" s="28"/>
+      <c r="G327" s="28"/>
       <c r="H327" s="7" t="s">
         <v>2</v>
       </c>
@@ -13769,12 +13769,12 @@
     </row>
     <row r="328" spans="1:35" ht="12" customHeight="1">
       <c r="A328" s="6"/>
-      <c r="B328" s="18"/>
-      <c r="C328" s="18"/>
-      <c r="D328" s="18"/>
-      <c r="E328" s="18"/>
-      <c r="F328" s="18"/>
-      <c r="G328" s="18"/>
+      <c r="B328" s="28"/>
+      <c r="C328" s="28"/>
+      <c r="D328" s="28"/>
+      <c r="E328" s="28"/>
+      <c r="F328" s="28"/>
+      <c r="G328" s="28"/>
       <c r="H328" s="7" t="s">
         <v>3</v>
       </c>
@@ -13808,12 +13808,12 @@
     </row>
     <row r="329" spans="1:35" ht="13" customHeight="1">
       <c r="A329" s="6"/>
-      <c r="B329" s="18"/>
-      <c r="C329" s="18"/>
-      <c r="D329" s="18"/>
-      <c r="E329" s="18"/>
-      <c r="F329" s="18"/>
-      <c r="G329" s="18"/>
+      <c r="B329" s="28"/>
+      <c r="C329" s="28"/>
+      <c r="D329" s="28"/>
+      <c r="E329" s="28"/>
+      <c r="F329" s="28"/>
+      <c r="G329" s="28"/>
       <c r="H329" s="7" t="s">
         <v>2</v>
       </c>
@@ -13847,12 +13847,12 @@
     </row>
     <row r="330" spans="1:35" ht="12" customHeight="1">
       <c r="A330" s="6"/>
-      <c r="B330" s="18"/>
-      <c r="C330" s="18"/>
-      <c r="D330" s="18"/>
-      <c r="E330" s="18"/>
-      <c r="F330" s="18"/>
-      <c r="G330" s="18"/>
+      <c r="B330" s="28"/>
+      <c r="C330" s="28"/>
+      <c r="D330" s="28"/>
+      <c r="E330" s="28"/>
+      <c r="F330" s="28"/>
+      <c r="G330" s="28"/>
       <c r="H330" s="7" t="s">
         <v>3</v>
       </c>
@@ -13886,12 +13886,12 @@
     </row>
     <row r="331" spans="1:35" ht="13" customHeight="1">
       <c r="A331" s="6"/>
-      <c r="B331" s="18"/>
-      <c r="C331" s="18"/>
-      <c r="D331" s="18"/>
-      <c r="E331" s="18"/>
-      <c r="F331" s="18"/>
-      <c r="G331" s="18"/>
+      <c r="B331" s="28"/>
+      <c r="C331" s="28"/>
+      <c r="D331" s="28"/>
+      <c r="E331" s="28"/>
+      <c r="F331" s="28"/>
+      <c r="G331" s="28"/>
       <c r="H331" s="7" t="s">
         <v>2</v>
       </c>
@@ -13925,12 +13925,12 @@
     </row>
     <row r="332" spans="1:35" ht="12" customHeight="1">
       <c r="A332" s="6"/>
-      <c r="B332" s="18"/>
-      <c r="C332" s="18"/>
-      <c r="D332" s="18"/>
-      <c r="E332" s="18"/>
-      <c r="F332" s="18"/>
-      <c r="G332" s="18"/>
+      <c r="B332" s="28"/>
+      <c r="C332" s="28"/>
+      <c r="D332" s="28"/>
+      <c r="E332" s="28"/>
+      <c r="F332" s="28"/>
+      <c r="G332" s="28"/>
       <c r="H332" s="7" t="s">
         <v>3</v>
       </c>
@@ -13964,12 +13964,12 @@
     </row>
     <row r="333" spans="1:35" ht="13" customHeight="1">
       <c r="A333" s="6"/>
-      <c r="B333" s="18"/>
-      <c r="C333" s="18"/>
-      <c r="D333" s="18"/>
-      <c r="E333" s="18"/>
-      <c r="F333" s="18"/>
-      <c r="G333" s="18"/>
+      <c r="B333" s="28"/>
+      <c r="C333" s="28"/>
+      <c r="D333" s="28"/>
+      <c r="E333" s="28"/>
+      <c r="F333" s="28"/>
+      <c r="G333" s="28"/>
       <c r="H333" s="7" t="s">
         <v>2</v>
       </c>
@@ -14003,12 +14003,12 @@
     </row>
     <row r="334" spans="1:35" ht="12" customHeight="1">
       <c r="A334" s="6"/>
-      <c r="B334" s="18"/>
-      <c r="C334" s="18"/>
-      <c r="D334" s="18"/>
-      <c r="E334" s="18"/>
-      <c r="F334" s="18"/>
-      <c r="G334" s="18"/>
+      <c r="B334" s="28"/>
+      <c r="C334" s="28"/>
+      <c r="D334" s="28"/>
+      <c r="E334" s="28"/>
+      <c r="F334" s="28"/>
+      <c r="G334" s="28"/>
       <c r="H334" s="7" t="s">
         <v>3</v>
       </c>
@@ -14042,12 +14042,12 @@
     </row>
     <row r="335" spans="1:35" ht="13" customHeight="1">
       <c r="A335" s="6"/>
-      <c r="B335" s="18"/>
-      <c r="C335" s="18"/>
-      <c r="D335" s="18"/>
-      <c r="E335" s="18"/>
-      <c r="F335" s="18"/>
-      <c r="G335" s="18"/>
+      <c r="B335" s="28"/>
+      <c r="C335" s="28"/>
+      <c r="D335" s="28"/>
+      <c r="E335" s="28"/>
+      <c r="F335" s="28"/>
+      <c r="G335" s="28"/>
       <c r="H335" s="7" t="s">
         <v>2</v>
       </c>
@@ -14081,12 +14081,12 @@
     </row>
     <row r="336" spans="1:35" ht="12" customHeight="1">
       <c r="A336" s="6"/>
-      <c r="B336" s="18"/>
-      <c r="C336" s="18"/>
-      <c r="D336" s="18"/>
-      <c r="E336" s="18"/>
-      <c r="F336" s="18"/>
-      <c r="G336" s="18"/>
+      <c r="B336" s="28"/>
+      <c r="C336" s="28"/>
+      <c r="D336" s="28"/>
+      <c r="E336" s="28"/>
+      <c r="F336" s="28"/>
+      <c r="G336" s="28"/>
       <c r="H336" s="7" t="s">
         <v>3</v>
       </c>
@@ -14120,12 +14120,12 @@
     </row>
     <row r="337" spans="1:35" ht="13" customHeight="1">
       <c r="A337" s="6"/>
-      <c r="B337" s="18"/>
-      <c r="C337" s="18"/>
-      <c r="D337" s="18"/>
-      <c r="E337" s="18"/>
-      <c r="F337" s="18"/>
-      <c r="G337" s="18"/>
+      <c r="B337" s="28"/>
+      <c r="C337" s="28"/>
+      <c r="D337" s="28"/>
+      <c r="E337" s="28"/>
+      <c r="F337" s="28"/>
+      <c r="G337" s="28"/>
       <c r="H337" s="7" t="s">
         <v>2</v>
       </c>
@@ -14159,12 +14159,12 @@
     </row>
     <row r="338" spans="1:35" ht="12" customHeight="1">
       <c r="A338" s="6"/>
-      <c r="B338" s="18"/>
-      <c r="C338" s="18"/>
-      <c r="D338" s="18"/>
-      <c r="E338" s="18"/>
-      <c r="F338" s="18"/>
-      <c r="G338" s="18"/>
+      <c r="B338" s="28"/>
+      <c r="C338" s="28"/>
+      <c r="D338" s="28"/>
+      <c r="E338" s="28"/>
+      <c r="F338" s="28"/>
+      <c r="G338" s="28"/>
       <c r="H338" s="7" t="s">
         <v>3</v>
       </c>
@@ -14198,12 +14198,12 @@
     </row>
     <row r="339" spans="1:35" ht="13" customHeight="1">
       <c r="A339" s="6"/>
-      <c r="B339" s="18"/>
-      <c r="C339" s="18"/>
-      <c r="D339" s="18"/>
-      <c r="E339" s="18"/>
-      <c r="F339" s="18"/>
-      <c r="G339" s="18"/>
+      <c r="B339" s="28"/>
+      <c r="C339" s="28"/>
+      <c r="D339" s="28"/>
+      <c r="E339" s="28"/>
+      <c r="F339" s="28"/>
+      <c r="G339" s="28"/>
       <c r="H339" s="7" t="s">
         <v>2</v>
       </c>
@@ -14237,12 +14237,12 @@
     </row>
     <row r="340" spans="1:35" ht="12" customHeight="1">
       <c r="A340" s="6"/>
-      <c r="B340" s="18"/>
-      <c r="C340" s="18"/>
-      <c r="D340" s="18"/>
-      <c r="E340" s="18"/>
-      <c r="F340" s="18"/>
-      <c r="G340" s="18"/>
+      <c r="B340" s="28"/>
+      <c r="C340" s="28"/>
+      <c r="D340" s="28"/>
+      <c r="E340" s="28"/>
+      <c r="F340" s="28"/>
+      <c r="G340" s="28"/>
       <c r="H340" s="7" t="s">
         <v>3</v>
       </c>
@@ -14276,12 +14276,12 @@
     </row>
     <row r="341" spans="1:35" ht="13" customHeight="1">
       <c r="A341" s="6"/>
-      <c r="B341" s="18"/>
-      <c r="C341" s="18"/>
-      <c r="D341" s="18"/>
-      <c r="E341" s="18"/>
-      <c r="F341" s="18"/>
-      <c r="G341" s="18"/>
+      <c r="B341" s="28"/>
+      <c r="C341" s="28"/>
+      <c r="D341" s="28"/>
+      <c r="E341" s="28"/>
+      <c r="F341" s="28"/>
+      <c r="G341" s="28"/>
       <c r="H341" s="7" t="s">
         <v>2</v>
       </c>
@@ -14315,12 +14315,12 @@
     </row>
     <row r="342" spans="1:35" ht="12" customHeight="1">
       <c r="A342" s="6"/>
-      <c r="B342" s="18"/>
-      <c r="C342" s="18"/>
-      <c r="D342" s="18"/>
-      <c r="E342" s="18"/>
-      <c r="F342" s="18"/>
-      <c r="G342" s="18"/>
+      <c r="B342" s="28"/>
+      <c r="C342" s="28"/>
+      <c r="D342" s="28"/>
+      <c r="E342" s="28"/>
+      <c r="F342" s="28"/>
+      <c r="G342" s="28"/>
       <c r="H342" s="7" t="s">
         <v>3</v>
       </c>
@@ -14354,12 +14354,12 @@
     </row>
     <row r="343" spans="1:35" ht="13" customHeight="1">
       <c r="A343" s="6"/>
-      <c r="B343" s="18"/>
-      <c r="C343" s="18"/>
-      <c r="D343" s="18"/>
-      <c r="E343" s="18"/>
-      <c r="F343" s="18"/>
-      <c r="G343" s="18"/>
+      <c r="B343" s="28"/>
+      <c r="C343" s="28"/>
+      <c r="D343" s="28"/>
+      <c r="E343" s="28"/>
+      <c r="F343" s="28"/>
+      <c r="G343" s="28"/>
       <c r="H343" s="7" t="s">
         <v>2</v>
       </c>
@@ -14393,12 +14393,12 @@
     </row>
     <row r="344" spans="1:35" ht="12" customHeight="1">
       <c r="A344" s="6"/>
-      <c r="B344" s="18"/>
-      <c r="C344" s="18"/>
-      <c r="D344" s="18"/>
-      <c r="E344" s="18"/>
-      <c r="F344" s="18"/>
-      <c r="G344" s="18"/>
+      <c r="B344" s="28"/>
+      <c r="C344" s="28"/>
+      <c r="D344" s="28"/>
+      <c r="E344" s="28"/>
+      <c r="F344" s="28"/>
+      <c r="G344" s="28"/>
       <c r="H344" s="7" t="s">
         <v>3</v>
       </c>
@@ -14432,12 +14432,12 @@
     </row>
     <row r="345" spans="1:35" ht="13" customHeight="1">
       <c r="A345" s="6"/>
-      <c r="B345" s="18"/>
-      <c r="C345" s="18"/>
-      <c r="D345" s="18"/>
-      <c r="E345" s="18"/>
-      <c r="F345" s="18"/>
-      <c r="G345" s="18"/>
+      <c r="B345" s="28"/>
+      <c r="C345" s="28"/>
+      <c r="D345" s="28"/>
+      <c r="E345" s="28"/>
+      <c r="F345" s="28"/>
+      <c r="G345" s="28"/>
       <c r="H345" s="7" t="s">
         <v>2</v>
       </c>
@@ -14471,12 +14471,12 @@
     </row>
     <row r="346" spans="1:35" ht="12" customHeight="1">
       <c r="A346" s="6"/>
-      <c r="B346" s="18"/>
-      <c r="C346" s="18"/>
-      <c r="D346" s="18"/>
-      <c r="E346" s="18"/>
-      <c r="F346" s="18"/>
-      <c r="G346" s="18"/>
+      <c r="B346" s="28"/>
+      <c r="C346" s="28"/>
+      <c r="D346" s="28"/>
+      <c r="E346" s="28"/>
+      <c r="F346" s="28"/>
+      <c r="G346" s="28"/>
       <c r="H346" s="7" t="s">
         <v>3</v>
       </c>
@@ -14510,12 +14510,12 @@
     </row>
     <row r="347" spans="1:35" ht="13" customHeight="1">
       <c r="A347" s="6"/>
-      <c r="B347" s="18"/>
-      <c r="C347" s="18"/>
-      <c r="D347" s="18"/>
-      <c r="E347" s="18"/>
-      <c r="F347" s="18"/>
-      <c r="G347" s="18"/>
+      <c r="B347" s="28"/>
+      <c r="C347" s="28"/>
+      <c r="D347" s="28"/>
+      <c r="E347" s="28"/>
+      <c r="F347" s="28"/>
+      <c r="G347" s="28"/>
       <c r="H347" s="7" t="s">
         <v>2</v>
       </c>
@@ -14549,12 +14549,12 @@
     </row>
     <row r="348" spans="1:35" ht="12" customHeight="1">
       <c r="A348" s="6"/>
-      <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
-      <c r="D348" s="18"/>
-      <c r="E348" s="18"/>
-      <c r="F348" s="18"/>
-      <c r="G348" s="18"/>
+      <c r="B348" s="28"/>
+      <c r="C348" s="28"/>
+      <c r="D348" s="28"/>
+      <c r="E348" s="28"/>
+      <c r="F348" s="28"/>
+      <c r="G348" s="28"/>
       <c r="H348" s="7" t="s">
         <v>3</v>
       </c>
@@ -14588,12 +14588,12 @@
     </row>
     <row r="349" spans="1:35" ht="13" customHeight="1">
       <c r="A349" s="6"/>
-      <c r="B349" s="18"/>
-      <c r="C349" s="18"/>
-      <c r="D349" s="18"/>
-      <c r="E349" s="18"/>
-      <c r="F349" s="18"/>
-      <c r="G349" s="18"/>
+      <c r="B349" s="28"/>
+      <c r="C349" s="28"/>
+      <c r="D349" s="28"/>
+      <c r="E349" s="28"/>
+      <c r="F349" s="28"/>
+      <c r="G349" s="28"/>
       <c r="H349" s="7" t="s">
         <v>2</v>
       </c>
@@ -14627,12 +14627,12 @@
     </row>
     <row r="350" spans="1:35" ht="12" customHeight="1">
       <c r="A350" s="6"/>
-      <c r="B350" s="18"/>
-      <c r="C350" s="18"/>
-      <c r="D350" s="18"/>
-      <c r="E350" s="18"/>
-      <c r="F350" s="18"/>
-      <c r="G350" s="18"/>
+      <c r="B350" s="28"/>
+      <c r="C350" s="28"/>
+      <c r="D350" s="28"/>
+      <c r="E350" s="28"/>
+      <c r="F350" s="28"/>
+      <c r="G350" s="28"/>
       <c r="H350" s="7" t="s">
         <v>3</v>
       </c>
@@ -14666,12 +14666,12 @@
     </row>
     <row r="351" spans="1:35" ht="13" customHeight="1">
       <c r="A351" s="6"/>
-      <c r="B351" s="18"/>
-      <c r="C351" s="18"/>
-      <c r="D351" s="18"/>
-      <c r="E351" s="18"/>
-      <c r="F351" s="18"/>
-      <c r="G351" s="18"/>
+      <c r="B351" s="28"/>
+      <c r="C351" s="28"/>
+      <c r="D351" s="28"/>
+      <c r="E351" s="28"/>
+      <c r="F351" s="28"/>
+      <c r="G351" s="28"/>
       <c r="H351" s="7" t="s">
         <v>2</v>
       </c>
@@ -14705,12 +14705,12 @@
     </row>
     <row r="352" spans="1:35" ht="12" customHeight="1">
       <c r="A352" s="6"/>
-      <c r="B352" s="18"/>
-      <c r="C352" s="18"/>
-      <c r="D352" s="18"/>
-      <c r="E352" s="18"/>
-      <c r="F352" s="18"/>
-      <c r="G352" s="18"/>
+      <c r="B352" s="28"/>
+      <c r="C352" s="28"/>
+      <c r="D352" s="28"/>
+      <c r="E352" s="28"/>
+      <c r="F352" s="28"/>
+      <c r="G352" s="28"/>
       <c r="H352" s="7" t="s">
         <v>3</v>
       </c>
@@ -14744,12 +14744,12 @@
     </row>
     <row r="353" spans="1:35" ht="13" customHeight="1">
       <c r="A353" s="6"/>
-      <c r="B353" s="18"/>
-      <c r="C353" s="18"/>
-      <c r="D353" s="18"/>
-      <c r="E353" s="18"/>
-      <c r="F353" s="18"/>
-      <c r="G353" s="18"/>
+      <c r="B353" s="28"/>
+      <c r="C353" s="28"/>
+      <c r="D353" s="28"/>
+      <c r="E353" s="28"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="28"/>
       <c r="H353" s="7" t="s">
         <v>2</v>
       </c>
@@ -14783,12 +14783,12 @@
     </row>
     <row r="354" spans="1:35" ht="12" customHeight="1">
       <c r="A354" s="6"/>
-      <c r="B354" s="18"/>
-      <c r="C354" s="18"/>
-      <c r="D354" s="18"/>
-      <c r="E354" s="18"/>
-      <c r="F354" s="18"/>
-      <c r="G354" s="18"/>
+      <c r="B354" s="28"/>
+      <c r="C354" s="28"/>
+      <c r="D354" s="28"/>
+      <c r="E354" s="28"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="28"/>
       <c r="H354" s="7" t="s">
         <v>3</v>
       </c>
@@ -14822,12 +14822,12 @@
     </row>
     <row r="355" spans="1:35" ht="13" customHeight="1">
       <c r="A355" s="6"/>
-      <c r="B355" s="18"/>
-      <c r="C355" s="18"/>
-      <c r="D355" s="18"/>
-      <c r="E355" s="18"/>
-      <c r="F355" s="18"/>
-      <c r="G355" s="18"/>
+      <c r="B355" s="28"/>
+      <c r="C355" s="28"/>
+      <c r="D355" s="28"/>
+      <c r="E355" s="28"/>
+      <c r="F355" s="28"/>
+      <c r="G355" s="28"/>
       <c r="H355" s="7" t="s">
         <v>2</v>
       </c>
@@ -14861,12 +14861,12 @@
     </row>
     <row r="356" spans="1:35" ht="12" customHeight="1">
       <c r="A356" s="6"/>
-      <c r="B356" s="18"/>
-      <c r="C356" s="18"/>
-      <c r="D356" s="18"/>
-      <c r="E356" s="18"/>
-      <c r="F356" s="18"/>
-      <c r="G356" s="18"/>
+      <c r="B356" s="28"/>
+      <c r="C356" s="28"/>
+      <c r="D356" s="28"/>
+      <c r="E356" s="28"/>
+      <c r="F356" s="28"/>
+      <c r="G356" s="28"/>
       <c r="H356" s="7" t="s">
         <v>3</v>
       </c>
@@ -14900,12 +14900,12 @@
     </row>
     <row r="357" spans="1:35" ht="13" customHeight="1">
       <c r="A357" s="6"/>
-      <c r="B357" s="18"/>
-      <c r="C357" s="18"/>
-      <c r="D357" s="18"/>
-      <c r="E357" s="18"/>
-      <c r="F357" s="18"/>
-      <c r="G357" s="18"/>
+      <c r="B357" s="28"/>
+      <c r="C357" s="28"/>
+      <c r="D357" s="28"/>
+      <c r="E357" s="28"/>
+      <c r="F357" s="28"/>
+      <c r="G357" s="28"/>
       <c r="H357" s="7" t="s">
         <v>2</v>
       </c>
@@ -14939,12 +14939,12 @@
     </row>
     <row r="358" spans="1:35" ht="12" customHeight="1">
       <c r="A358" s="6"/>
-      <c r="B358" s="18"/>
-      <c r="C358" s="18"/>
-      <c r="D358" s="18"/>
-      <c r="E358" s="18"/>
-      <c r="F358" s="18"/>
-      <c r="G358" s="18"/>
+      <c r="B358" s="28"/>
+      <c r="C358" s="28"/>
+      <c r="D358" s="28"/>
+      <c r="E358" s="28"/>
+      <c r="F358" s="28"/>
+      <c r="G358" s="28"/>
       <c r="H358" s="7" t="s">
         <v>3</v>
       </c>
@@ -14978,12 +14978,12 @@
     </row>
     <row r="359" spans="1:35" ht="13" customHeight="1">
       <c r="A359" s="6"/>
-      <c r="B359" s="18"/>
-      <c r="C359" s="18"/>
-      <c r="D359" s="18"/>
-      <c r="E359" s="18"/>
-      <c r="F359" s="18"/>
-      <c r="G359" s="18"/>
+      <c r="B359" s="28"/>
+      <c r="C359" s="28"/>
+      <c r="D359" s="28"/>
+      <c r="E359" s="28"/>
+      <c r="F359" s="28"/>
+      <c r="G359" s="28"/>
       <c r="H359" s="7" t="s">
         <v>2</v>
       </c>
@@ -15017,12 +15017,12 @@
     </row>
     <row r="360" spans="1:35" ht="12" customHeight="1">
       <c r="A360" s="6"/>
-      <c r="B360" s="18"/>
-      <c r="C360" s="18"/>
-      <c r="D360" s="18"/>
-      <c r="E360" s="18"/>
-      <c r="F360" s="18"/>
-      <c r="G360" s="18"/>
+      <c r="B360" s="28"/>
+      <c r="C360" s="28"/>
+      <c r="D360" s="28"/>
+      <c r="E360" s="28"/>
+      <c r="F360" s="28"/>
+      <c r="G360" s="28"/>
       <c r="H360" s="7" t="s">
         <v>3</v>
       </c>
@@ -15056,12 +15056,12 @@
     </row>
     <row r="361" spans="1:35" ht="13" customHeight="1">
       <c r="A361" s="6"/>
-      <c r="B361" s="18"/>
-      <c r="C361" s="18"/>
-      <c r="D361" s="18"/>
-      <c r="E361" s="18"/>
-      <c r="F361" s="18"/>
-      <c r="G361" s="18"/>
+      <c r="B361" s="28"/>
+      <c r="C361" s="28"/>
+      <c r="D361" s="28"/>
+      <c r="E361" s="28"/>
+      <c r="F361" s="28"/>
+      <c r="G361" s="28"/>
       <c r="H361" s="7" t="s">
         <v>2</v>
       </c>
@@ -15095,12 +15095,12 @@
     </row>
     <row r="362" spans="1:35" ht="12" customHeight="1">
       <c r="A362" s="6"/>
-      <c r="B362" s="18"/>
-      <c r="C362" s="18"/>
-      <c r="D362" s="18"/>
-      <c r="E362" s="18"/>
-      <c r="F362" s="18"/>
-      <c r="G362" s="18"/>
+      <c r="B362" s="28"/>
+      <c r="C362" s="28"/>
+      <c r="D362" s="28"/>
+      <c r="E362" s="28"/>
+      <c r="F362" s="28"/>
+      <c r="G362" s="28"/>
       <c r="H362" s="7" t="s">
         <v>3</v>
       </c>
@@ -15134,12 +15134,12 @@
     </row>
     <row r="363" spans="1:35" ht="13" customHeight="1">
       <c r="A363" s="6"/>
-      <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
-      <c r="D363" s="18"/>
-      <c r="E363" s="18"/>
-      <c r="F363" s="18"/>
-      <c r="G363" s="18"/>
+      <c r="B363" s="28"/>
+      <c r="C363" s="28"/>
+      <c r="D363" s="28"/>
+      <c r="E363" s="28"/>
+      <c r="F363" s="28"/>
+      <c r="G363" s="28"/>
       <c r="H363" s="7" t="s">
         <v>2</v>
       </c>
@@ -15173,12 +15173,12 @@
     </row>
     <row r="364" spans="1:35" ht="12" customHeight="1">
       <c r="A364" s="6"/>
-      <c r="B364" s="18"/>
-      <c r="C364" s="18"/>
-      <c r="D364" s="18"/>
-      <c r="E364" s="18"/>
-      <c r="F364" s="18"/>
-      <c r="G364" s="18"/>
+      <c r="B364" s="28"/>
+      <c r="C364" s="28"/>
+      <c r="D364" s="28"/>
+      <c r="E364" s="28"/>
+      <c r="F364" s="28"/>
+      <c r="G364" s="28"/>
       <c r="H364" s="7" t="s">
         <v>3</v>
       </c>
@@ -15212,12 +15212,12 @@
     </row>
     <row r="365" spans="1:35" ht="13" customHeight="1">
       <c r="A365" s="6"/>
-      <c r="B365" s="18"/>
-      <c r="C365" s="18"/>
-      <c r="D365" s="18"/>
-      <c r="E365" s="18"/>
-      <c r="F365" s="18"/>
-      <c r="G365" s="18"/>
+      <c r="B365" s="28"/>
+      <c r="C365" s="28"/>
+      <c r="D365" s="28"/>
+      <c r="E365" s="28"/>
+      <c r="F365" s="28"/>
+      <c r="G365" s="28"/>
       <c r="H365" s="7" t="s">
         <v>2</v>
       </c>
@@ -15251,12 +15251,12 @@
     </row>
     <row r="366" spans="1:35" ht="12" customHeight="1">
       <c r="A366" s="6"/>
-      <c r="B366" s="18"/>
-      <c r="C366" s="18"/>
-      <c r="D366" s="18"/>
-      <c r="E366" s="18"/>
-      <c r="F366" s="18"/>
-      <c r="G366" s="18"/>
+      <c r="B366" s="28"/>
+      <c r="C366" s="28"/>
+      <c r="D366" s="28"/>
+      <c r="E366" s="28"/>
+      <c r="F366" s="28"/>
+      <c r="G366" s="28"/>
       <c r="H366" s="7" t="s">
         <v>3</v>
       </c>
@@ -15290,12 +15290,12 @@
     </row>
     <row r="367" spans="1:35" ht="13" customHeight="1">
       <c r="A367" s="6"/>
-      <c r="B367" s="18"/>
-      <c r="C367" s="18"/>
-      <c r="D367" s="18"/>
-      <c r="E367" s="18"/>
-      <c r="F367" s="18"/>
-      <c r="G367" s="18"/>
+      <c r="B367" s="28"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="28"/>
+      <c r="E367" s="28"/>
+      <c r="F367" s="28"/>
+      <c r="G367" s="28"/>
       <c r="H367" s="7" t="s">
         <v>2</v>
       </c>
@@ -15329,12 +15329,12 @@
     </row>
     <row r="368" spans="1:35" ht="12" customHeight="1">
       <c r="A368" s="6"/>
-      <c r="B368" s="18"/>
-      <c r="C368" s="18"/>
-      <c r="D368" s="18"/>
-      <c r="E368" s="18"/>
-      <c r="F368" s="18"/>
-      <c r="G368" s="18"/>
+      <c r="B368" s="28"/>
+      <c r="C368" s="28"/>
+      <c r="D368" s="28"/>
+      <c r="E368" s="28"/>
+      <c r="F368" s="28"/>
+      <c r="G368" s="28"/>
       <c r="H368" s="7" t="s">
         <v>3</v>
       </c>
@@ -15368,12 +15368,12 @@
     </row>
     <row r="369" spans="1:35" ht="13" customHeight="1">
       <c r="A369" s="6"/>
-      <c r="B369" s="18"/>
-      <c r="C369" s="18"/>
-      <c r="D369" s="18"/>
-      <c r="E369" s="18"/>
-      <c r="F369" s="18"/>
-      <c r="G369" s="18"/>
+      <c r="B369" s="28"/>
+      <c r="C369" s="28"/>
+      <c r="D369" s="28"/>
+      <c r="E369" s="28"/>
+      <c r="F369" s="28"/>
+      <c r="G369" s="28"/>
       <c r="H369" s="7" t="s">
         <v>2</v>
       </c>
@@ -15407,12 +15407,12 @@
     </row>
     <row r="370" spans="1:35" ht="12" customHeight="1">
       <c r="A370" s="6"/>
-      <c r="B370" s="18"/>
-      <c r="C370" s="18"/>
-      <c r="D370" s="18"/>
-      <c r="E370" s="18"/>
-      <c r="F370" s="18"/>
-      <c r="G370" s="18"/>
+      <c r="B370" s="28"/>
+      <c r="C370" s="28"/>
+      <c r="D370" s="28"/>
+      <c r="E370" s="28"/>
+      <c r="F370" s="28"/>
+      <c r="G370" s="28"/>
       <c r="H370" s="7" t="s">
         <v>3</v>
       </c>
@@ -15446,12 +15446,12 @@
     </row>
     <row r="371" spans="1:35" ht="13" customHeight="1">
       <c r="A371" s="6"/>
-      <c r="B371" s="18"/>
-      <c r="C371" s="18"/>
-      <c r="D371" s="18"/>
-      <c r="E371" s="18"/>
-      <c r="F371" s="18"/>
-      <c r="G371" s="18"/>
+      <c r="B371" s="28"/>
+      <c r="C371" s="28"/>
+      <c r="D371" s="28"/>
+      <c r="E371" s="28"/>
+      <c r="F371" s="28"/>
+      <c r="G371" s="28"/>
       <c r="H371" s="7" t="s">
         <v>2</v>
       </c>
@@ -15485,12 +15485,12 @@
     </row>
     <row r="372" spans="1:35" ht="12" customHeight="1">
       <c r="A372" s="6"/>
-      <c r="B372" s="18"/>
-      <c r="C372" s="18"/>
-      <c r="D372" s="18"/>
-      <c r="E372" s="18"/>
-      <c r="F372" s="18"/>
-      <c r="G372" s="18"/>
+      <c r="B372" s="28"/>
+      <c r="C372" s="28"/>
+      <c r="D372" s="28"/>
+      <c r="E372" s="28"/>
+      <c r="F372" s="28"/>
+      <c r="G372" s="28"/>
       <c r="H372" s="7" t="s">
         <v>3</v>
       </c>
@@ -15524,12 +15524,12 @@
     </row>
     <row r="373" spans="1:35" ht="13" customHeight="1">
       <c r="A373" s="6"/>
-      <c r="B373" s="18"/>
-      <c r="C373" s="18"/>
-      <c r="D373" s="18"/>
-      <c r="E373" s="18"/>
-      <c r="F373" s="18"/>
-      <c r="G373" s="18"/>
+      <c r="B373" s="28"/>
+      <c r="C373" s="28"/>
+      <c r="D373" s="28"/>
+      <c r="E373" s="28"/>
+      <c r="F373" s="28"/>
+      <c r="G373" s="28"/>
       <c r="H373" s="7" t="s">
         <v>2</v>
       </c>
@@ -15563,12 +15563,12 @@
     </row>
     <row r="374" spans="1:35" ht="12" customHeight="1">
       <c r="A374" s="6"/>
-      <c r="B374" s="18"/>
-      <c r="C374" s="18"/>
-      <c r="D374" s="18"/>
-      <c r="E374" s="18"/>
-      <c r="F374" s="18"/>
-      <c r="G374" s="18"/>
+      <c r="B374" s="28"/>
+      <c r="C374" s="28"/>
+      <c r="D374" s="28"/>
+      <c r="E374" s="28"/>
+      <c r="F374" s="28"/>
+      <c r="G374" s="28"/>
       <c r="H374" s="7" t="s">
         <v>3</v>
       </c>
@@ -15602,12 +15602,12 @@
     </row>
     <row r="375" spans="1:35" ht="13" customHeight="1">
       <c r="A375" s="6"/>
-      <c r="B375" s="18"/>
-      <c r="C375" s="18"/>
-      <c r="D375" s="18"/>
-      <c r="E375" s="18"/>
-      <c r="F375" s="18"/>
-      <c r="G375" s="18"/>
+      <c r="B375" s="28"/>
+      <c r="C375" s="28"/>
+      <c r="D375" s="28"/>
+      <c r="E375" s="28"/>
+      <c r="F375" s="28"/>
+      <c r="G375" s="28"/>
       <c r="H375" s="7" t="s">
         <v>2</v>
       </c>
@@ -15641,12 +15641,12 @@
     </row>
     <row r="376" spans="1:35" ht="12" customHeight="1">
       <c r="A376" s="6"/>
-      <c r="B376" s="18"/>
-      <c r="C376" s="18"/>
-      <c r="D376" s="18"/>
-      <c r="E376" s="18"/>
-      <c r="F376" s="18"/>
-      <c r="G376" s="18"/>
+      <c r="B376" s="28"/>
+      <c r="C376" s="28"/>
+      <c r="D376" s="28"/>
+      <c r="E376" s="28"/>
+      <c r="F376" s="28"/>
+      <c r="G376" s="28"/>
       <c r="H376" s="7" t="s">
         <v>3</v>
       </c>
@@ -15680,12 +15680,12 @@
     </row>
     <row r="377" spans="1:35" ht="13" customHeight="1">
       <c r="A377" s="6"/>
-      <c r="B377" s="18"/>
-      <c r="C377" s="18"/>
-      <c r="D377" s="18"/>
-      <c r="E377" s="18"/>
-      <c r="F377" s="18"/>
-      <c r="G377" s="18"/>
+      <c r="B377" s="28"/>
+      <c r="C377" s="28"/>
+      <c r="D377" s="28"/>
+      <c r="E377" s="28"/>
+      <c r="F377" s="28"/>
+      <c r="G377" s="28"/>
       <c r="H377" s="7" t="s">
         <v>2</v>
       </c>
@@ -15719,12 +15719,12 @@
     </row>
     <row r="378" spans="1:35" ht="12" customHeight="1">
       <c r="A378" s="6"/>
-      <c r="B378" s="18"/>
-      <c r="C378" s="18"/>
-      <c r="D378" s="18"/>
-      <c r="E378" s="18"/>
-      <c r="F378" s="18"/>
-      <c r="G378" s="18"/>
+      <c r="B378" s="28"/>
+      <c r="C378" s="28"/>
+      <c r="D378" s="28"/>
+      <c r="E378" s="28"/>
+      <c r="F378" s="28"/>
+      <c r="G378" s="28"/>
       <c r="H378" s="7" t="s">
         <v>3</v>
       </c>
@@ -15758,12 +15758,12 @@
     </row>
     <row r="379" spans="1:35" ht="13" customHeight="1">
       <c r="A379" s="6"/>
-      <c r="B379" s="18"/>
-      <c r="C379" s="18"/>
-      <c r="D379" s="18"/>
-      <c r="E379" s="18"/>
-      <c r="F379" s="18"/>
-      <c r="G379" s="18"/>
+      <c r="B379" s="28"/>
+      <c r="C379" s="28"/>
+      <c r="D379" s="28"/>
+      <c r="E379" s="28"/>
+      <c r="F379" s="28"/>
+      <c r="G379" s="28"/>
       <c r="H379" s="7" t="s">
         <v>2</v>
       </c>
@@ -15797,12 +15797,12 @@
     </row>
     <row r="380" spans="1:35" ht="12" customHeight="1">
       <c r="A380" s="6"/>
-      <c r="B380" s="18"/>
-      <c r="C380" s="18"/>
-      <c r="D380" s="18"/>
-      <c r="E380" s="18"/>
-      <c r="F380" s="18"/>
-      <c r="G380" s="18"/>
+      <c r="B380" s="28"/>
+      <c r="C380" s="28"/>
+      <c r="D380" s="28"/>
+      <c r="E380" s="28"/>
+      <c r="F380" s="28"/>
+      <c r="G380" s="28"/>
       <c r="H380" s="7" t="s">
         <v>3</v>
       </c>
@@ -15836,12 +15836,12 @@
     </row>
     <row r="381" spans="1:35" ht="13" customHeight="1">
       <c r="A381" s="6"/>
-      <c r="B381" s="18"/>
-      <c r="C381" s="18"/>
-      <c r="D381" s="18"/>
-      <c r="E381" s="18"/>
-      <c r="F381" s="18"/>
-      <c r="G381" s="18"/>
+      <c r="B381" s="28"/>
+      <c r="C381" s="28"/>
+      <c r="D381" s="28"/>
+      <c r="E381" s="28"/>
+      <c r="F381" s="28"/>
+      <c r="G381" s="28"/>
       <c r="H381" s="7" t="s">
         <v>2</v>
       </c>
@@ -15875,12 +15875,12 @@
     </row>
     <row r="382" spans="1:35" ht="12" customHeight="1">
       <c r="A382" s="6"/>
-      <c r="B382" s="18"/>
-      <c r="C382" s="18"/>
-      <c r="D382" s="18"/>
-      <c r="E382" s="18"/>
-      <c r="F382" s="18"/>
-      <c r="G382" s="18"/>
+      <c r="B382" s="28"/>
+      <c r="C382" s="28"/>
+      <c r="D382" s="28"/>
+      <c r="E382" s="28"/>
+      <c r="F382" s="28"/>
+      <c r="G382" s="28"/>
       <c r="H382" s="7" t="s">
         <v>3</v>
       </c>
@@ -15914,12 +15914,12 @@
     </row>
     <row r="383" spans="1:35" ht="13" customHeight="1">
       <c r="A383" s="6"/>
-      <c r="B383" s="18"/>
-      <c r="C383" s="18"/>
-      <c r="D383" s="18"/>
-      <c r="E383" s="18"/>
-      <c r="F383" s="18"/>
-      <c r="G383" s="18"/>
+      <c r="B383" s="28"/>
+      <c r="C383" s="28"/>
+      <c r="D383" s="28"/>
+      <c r="E383" s="28"/>
+      <c r="F383" s="28"/>
+      <c r="G383" s="28"/>
       <c r="H383" s="7" t="s">
         <v>2</v>
       </c>
@@ -15953,12 +15953,12 @@
     </row>
     <row r="384" spans="1:35" ht="12" customHeight="1">
       <c r="A384" s="6"/>
-      <c r="B384" s="18"/>
-      <c r="C384" s="18"/>
-      <c r="D384" s="18"/>
-      <c r="E384" s="18"/>
-      <c r="F384" s="18"/>
-      <c r="G384" s="18"/>
+      <c r="B384" s="28"/>
+      <c r="C384" s="28"/>
+      <c r="D384" s="28"/>
+      <c r="E384" s="28"/>
+      <c r="F384" s="28"/>
+      <c r="G384" s="28"/>
       <c r="H384" s="7" t="s">
         <v>3</v>
       </c>
@@ -15992,12 +15992,12 @@
     </row>
     <row r="385" spans="1:35" ht="13" customHeight="1">
       <c r="A385" s="6"/>
-      <c r="B385" s="18"/>
-      <c r="C385" s="18"/>
-      <c r="D385" s="18"/>
-      <c r="E385" s="18"/>
-      <c r="F385" s="18"/>
-      <c r="G385" s="18"/>
+      <c r="B385" s="28"/>
+      <c r="C385" s="28"/>
+      <c r="D385" s="28"/>
+      <c r="E385" s="28"/>
+      <c r="F385" s="28"/>
+      <c r="G385" s="28"/>
       <c r="H385" s="7" t="s">
         <v>2</v>
       </c>
@@ -16031,12 +16031,12 @@
     </row>
     <row r="386" spans="1:35" ht="12" customHeight="1">
       <c r="A386" s="6"/>
-      <c r="B386" s="18"/>
-      <c r="C386" s="18"/>
-      <c r="D386" s="18"/>
-      <c r="E386" s="18"/>
-      <c r="F386" s="18"/>
-      <c r="G386" s="18"/>
+      <c r="B386" s="28"/>
+      <c r="C386" s="28"/>
+      <c r="D386" s="28"/>
+      <c r="E386" s="28"/>
+      <c r="F386" s="28"/>
+      <c r="G386" s="28"/>
       <c r="H386" s="7" t="s">
         <v>3</v>
       </c>
@@ -16070,12 +16070,12 @@
     </row>
     <row r="387" spans="1:35" ht="13" customHeight="1">
       <c r="A387" s="6"/>
-      <c r="B387" s="18"/>
-      <c r="C387" s="18"/>
-      <c r="D387" s="18"/>
-      <c r="E387" s="18"/>
-      <c r="F387" s="18"/>
-      <c r="G387" s="18"/>
+      <c r="B387" s="28"/>
+      <c r="C387" s="28"/>
+      <c r="D387" s="28"/>
+      <c r="E387" s="28"/>
+      <c r="F387" s="28"/>
+      <c r="G387" s="28"/>
       <c r="H387" s="7" t="s">
         <v>2</v>
       </c>
@@ -16109,12 +16109,12 @@
     </row>
     <row r="388" spans="1:35" ht="12" customHeight="1">
       <c r="A388" s="6"/>
-      <c r="B388" s="18"/>
-      <c r="C388" s="18"/>
-      <c r="D388" s="18"/>
-      <c r="E388" s="18"/>
-      <c r="F388" s="18"/>
-      <c r="G388" s="18"/>
+      <c r="B388" s="28"/>
+      <c r="C388" s="28"/>
+      <c r="D388" s="28"/>
+      <c r="E388" s="28"/>
+      <c r="F388" s="28"/>
+      <c r="G388" s="28"/>
       <c r="H388" s="7" t="s">
         <v>3</v>
       </c>
@@ -16148,12 +16148,12 @@
     </row>
     <row r="389" spans="1:35" ht="13" customHeight="1">
       <c r="A389" s="6"/>
-      <c r="B389" s="18"/>
-      <c r="C389" s="18"/>
-      <c r="D389" s="18"/>
-      <c r="E389" s="18"/>
-      <c r="F389" s="18"/>
-      <c r="G389" s="18"/>
+      <c r="B389" s="28"/>
+      <c r="C389" s="28"/>
+      <c r="D389" s="28"/>
+      <c r="E389" s="28"/>
+      <c r="F389" s="28"/>
+      <c r="G389" s="28"/>
       <c r="H389" s="7" t="s">
         <v>2</v>
       </c>
@@ -16187,12 +16187,12 @@
     </row>
     <row r="390" spans="1:35" ht="12" customHeight="1">
       <c r="A390" s="6"/>
-      <c r="B390" s="18"/>
-      <c r="C390" s="18"/>
-      <c r="D390" s="18"/>
-      <c r="E390" s="18"/>
-      <c r="F390" s="18"/>
-      <c r="G390" s="18"/>
+      <c r="B390" s="28"/>
+      <c r="C390" s="28"/>
+      <c r="D390" s="28"/>
+      <c r="E390" s="28"/>
+      <c r="F390" s="28"/>
+      <c r="G390" s="28"/>
       <c r="H390" s="7" t="s">
         <v>3</v>
       </c>
@@ -16226,12 +16226,12 @@
     </row>
     <row r="391" spans="1:35" ht="13" customHeight="1">
       <c r="A391" s="6"/>
-      <c r="B391" s="18"/>
-      <c r="C391" s="18"/>
-      <c r="D391" s="18"/>
-      <c r="E391" s="18"/>
-      <c r="F391" s="18"/>
-      <c r="G391" s="18"/>
+      <c r="B391" s="28"/>
+      <c r="C391" s="28"/>
+      <c r="D391" s="28"/>
+      <c r="E391" s="28"/>
+      <c r="F391" s="28"/>
+      <c r="G391" s="28"/>
       <c r="H391" s="7" t="s">
         <v>2</v>
       </c>
@@ -16265,12 +16265,12 @@
     </row>
     <row r="392" spans="1:35" ht="12" customHeight="1">
       <c r="A392" s="6"/>
-      <c r="B392" s="18"/>
-      <c r="C392" s="18"/>
-      <c r="D392" s="18"/>
-      <c r="E392" s="18"/>
-      <c r="F392" s="18"/>
-      <c r="G392" s="18"/>
+      <c r="B392" s="28"/>
+      <c r="C392" s="28"/>
+      <c r="D392" s="28"/>
+      <c r="E392" s="28"/>
+      <c r="F392" s="28"/>
+      <c r="G392" s="28"/>
       <c r="H392" s="7" t="s">
         <v>3</v>
       </c>
@@ -16304,12 +16304,12 @@
     </row>
     <row r="393" spans="1:35" ht="13" customHeight="1">
       <c r="A393" s="6"/>
-      <c r="B393" s="18"/>
-      <c r="C393" s="18"/>
-      <c r="D393" s="18"/>
-      <c r="E393" s="18"/>
-      <c r="F393" s="18"/>
-      <c r="G393" s="18"/>
+      <c r="B393" s="28"/>
+      <c r="C393" s="28"/>
+      <c r="D393" s="28"/>
+      <c r="E393" s="28"/>
+      <c r="F393" s="28"/>
+      <c r="G393" s="28"/>
       <c r="H393" s="7" t="s">
         <v>2</v>
       </c>
@@ -16343,12 +16343,12 @@
     </row>
     <row r="394" spans="1:35" ht="12" customHeight="1">
       <c r="A394" s="6"/>
-      <c r="B394" s="18"/>
-      <c r="C394" s="18"/>
-      <c r="D394" s="18"/>
-      <c r="E394" s="18"/>
-      <c r="F394" s="18"/>
-      <c r="G394" s="18"/>
+      <c r="B394" s="28"/>
+      <c r="C394" s="28"/>
+      <c r="D394" s="28"/>
+      <c r="E394" s="28"/>
+      <c r="F394" s="28"/>
+      <c r="G394" s="28"/>
       <c r="H394" s="7" t="s">
         <v>3</v>
       </c>
@@ -16382,12 +16382,12 @@
     </row>
     <row r="395" spans="1:35" ht="13" customHeight="1">
       <c r="A395" s="6"/>
-      <c r="B395" s="18"/>
-      <c r="C395" s="18"/>
-      <c r="D395" s="18"/>
-      <c r="E395" s="18"/>
-      <c r="F395" s="18"/>
-      <c r="G395" s="18"/>
+      <c r="B395" s="28"/>
+      <c r="C395" s="28"/>
+      <c r="D395" s="28"/>
+      <c r="E395" s="28"/>
+      <c r="F395" s="28"/>
+      <c r="G395" s="28"/>
       <c r="H395" s="7" t="s">
         <v>2</v>
       </c>
@@ -16421,12 +16421,12 @@
     </row>
     <row r="396" spans="1:35" ht="12" customHeight="1">
       <c r="A396" s="6"/>
-      <c r="B396" s="18"/>
-      <c r="C396" s="18"/>
-      <c r="D396" s="18"/>
-      <c r="E396" s="18"/>
-      <c r="F396" s="18"/>
-      <c r="G396" s="18"/>
+      <c r="B396" s="28"/>
+      <c r="C396" s="28"/>
+      <c r="D396" s="28"/>
+      <c r="E396" s="28"/>
+      <c r="F396" s="28"/>
+      <c r="G396" s="28"/>
       <c r="H396" s="7" t="s">
         <v>3</v>
       </c>
@@ -16460,12 +16460,12 @@
     </row>
     <row r="397" spans="1:35" ht="13" customHeight="1">
       <c r="A397" s="6"/>
-      <c r="B397" s="18"/>
-      <c r="C397" s="18"/>
-      <c r="D397" s="18"/>
-      <c r="E397" s="18"/>
-      <c r="F397" s="18"/>
-      <c r="G397" s="18"/>
+      <c r="B397" s="28"/>
+      <c r="C397" s="28"/>
+      <c r="D397" s="28"/>
+      <c r="E397" s="28"/>
+      <c r="F397" s="28"/>
+      <c r="G397" s="28"/>
       <c r="H397" s="7" t="s">
         <v>2</v>
       </c>
@@ -16499,12 +16499,12 @@
     </row>
     <row r="398" spans="1:35" ht="12" customHeight="1">
       <c r="A398" s="6"/>
-      <c r="B398" s="18"/>
-      <c r="C398" s="18"/>
-      <c r="D398" s="18"/>
-      <c r="E398" s="18"/>
-      <c r="F398" s="18"/>
-      <c r="G398" s="18"/>
+      <c r="B398" s="28"/>
+      <c r="C398" s="28"/>
+      <c r="D398" s="28"/>
+      <c r="E398" s="28"/>
+      <c r="F398" s="28"/>
+      <c r="G398" s="28"/>
       <c r="H398" s="7" t="s">
         <v>3</v>
       </c>
@@ -16538,12 +16538,12 @@
     </row>
     <row r="399" spans="1:35" ht="13" customHeight="1">
       <c r="A399" s="6"/>
-      <c r="B399" s="18"/>
-      <c r="C399" s="18"/>
-      <c r="D399" s="18"/>
-      <c r="E399" s="18"/>
-      <c r="F399" s="18"/>
-      <c r="G399" s="18"/>
+      <c r="B399" s="28"/>
+      <c r="C399" s="28"/>
+      <c r="D399" s="28"/>
+      <c r="E399" s="28"/>
+      <c r="F399" s="28"/>
+      <c r="G399" s="28"/>
       <c r="H399" s="7" t="s">
         <v>2</v>
       </c>
@@ -16577,12 +16577,12 @@
     </row>
     <row r="400" spans="1:35" ht="12" customHeight="1">
       <c r="A400" s="6"/>
-      <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
-      <c r="D400" s="18"/>
-      <c r="E400" s="18"/>
-      <c r="F400" s="18"/>
-      <c r="G400" s="18"/>
+      <c r="B400" s="28"/>
+      <c r="C400" s="28"/>
+      <c r="D400" s="28"/>
+      <c r="E400" s="28"/>
+      <c r="F400" s="28"/>
+      <c r="G400" s="28"/>
       <c r="H400" s="7" t="s">
         <v>3</v>
       </c>
@@ -16616,12 +16616,12 @@
     </row>
     <row r="401" spans="1:35" ht="13" customHeight="1">
       <c r="A401" s="6"/>
-      <c r="B401" s="18"/>
-      <c r="C401" s="18"/>
-      <c r="D401" s="18"/>
-      <c r="E401" s="18"/>
-      <c r="F401" s="18"/>
-      <c r="G401" s="18"/>
+      <c r="B401" s="28"/>
+      <c r="C401" s="28"/>
+      <c r="D401" s="28"/>
+      <c r="E401" s="28"/>
+      <c r="F401" s="28"/>
+      <c r="G401" s="28"/>
       <c r="H401" s="7" t="s">
         <v>2</v>
       </c>
@@ -16655,12 +16655,12 @@
     </row>
     <row r="402" spans="1:35" ht="12" customHeight="1">
       <c r="A402" s="6"/>
-      <c r="B402" s="18"/>
-      <c r="C402" s="18"/>
-      <c r="D402" s="18"/>
-      <c r="E402" s="18"/>
-      <c r="F402" s="18"/>
-      <c r="G402" s="18"/>
+      <c r="B402" s="28"/>
+      <c r="C402" s="28"/>
+      <c r="D402" s="28"/>
+      <c r="E402" s="28"/>
+      <c r="F402" s="28"/>
+      <c r="G402" s="28"/>
       <c r="H402" s="7" t="s">
         <v>3</v>
       </c>
@@ -16694,12 +16694,12 @@
     </row>
     <row r="403" spans="1:35" ht="13" customHeight="1">
       <c r="A403" s="6"/>
-      <c r="B403" s="18"/>
-      <c r="C403" s="18"/>
-      <c r="D403" s="18"/>
-      <c r="E403" s="18"/>
-      <c r="F403" s="18"/>
-      <c r="G403" s="18"/>
+      <c r="B403" s="28"/>
+      <c r="C403" s="28"/>
+      <c r="D403" s="28"/>
+      <c r="E403" s="28"/>
+      <c r="F403" s="28"/>
+      <c r="G403" s="28"/>
       <c r="H403" s="7" t="s">
         <v>2</v>
       </c>
@@ -16733,12 +16733,12 @@
     </row>
     <row r="404" spans="1:35" ht="12" customHeight="1">
       <c r="A404" s="6"/>
-      <c r="B404" s="18"/>
-      <c r="C404" s="18"/>
-      <c r="D404" s="18"/>
-      <c r="E404" s="18"/>
-      <c r="F404" s="18"/>
-      <c r="G404" s="18"/>
+      <c r="B404" s="28"/>
+      <c r="C404" s="28"/>
+      <c r="D404" s="28"/>
+      <c r="E404" s="28"/>
+      <c r="F404" s="28"/>
+      <c r="G404" s="28"/>
       <c r="H404" s="7" t="s">
         <v>3</v>
       </c>
@@ -16772,12 +16772,12 @@
     </row>
     <row r="405" spans="1:35" ht="13" customHeight="1">
       <c r="A405" s="6"/>
-      <c r="B405" s="18"/>
-      <c r="C405" s="18"/>
-      <c r="D405" s="18"/>
-      <c r="E405" s="18"/>
-      <c r="F405" s="18"/>
-      <c r="G405" s="18"/>
+      <c r="B405" s="28"/>
+      <c r="C405" s="28"/>
+      <c r="D405" s="28"/>
+      <c r="E405" s="28"/>
+      <c r="F405" s="28"/>
+      <c r="G405" s="28"/>
       <c r="H405" s="7" t="s">
         <v>2</v>
       </c>
@@ -16811,12 +16811,12 @@
     </row>
     <row r="406" spans="1:35" ht="12" customHeight="1">
       <c r="A406" s="6"/>
-      <c r="B406" s="18"/>
-      <c r="C406" s="18"/>
-      <c r="D406" s="18"/>
-      <c r="E406" s="18"/>
-      <c r="F406" s="18"/>
-      <c r="G406" s="18"/>
+      <c r="B406" s="28"/>
+      <c r="C406" s="28"/>
+      <c r="D406" s="28"/>
+      <c r="E406" s="28"/>
+      <c r="F406" s="28"/>
+      <c r="G406" s="28"/>
       <c r="H406" s="7" t="s">
         <v>3</v>
       </c>
@@ -16850,12 +16850,12 @@
     </row>
     <row r="407" spans="1:35" ht="13" customHeight="1">
       <c r="A407" s="6"/>
-      <c r="B407" s="18"/>
-      <c r="C407" s="18"/>
-      <c r="D407" s="18"/>
-      <c r="E407" s="18"/>
-      <c r="F407" s="18"/>
-      <c r="G407" s="18"/>
+      <c r="B407" s="28"/>
+      <c r="C407" s="28"/>
+      <c r="D407" s="28"/>
+      <c r="E407" s="28"/>
+      <c r="F407" s="28"/>
+      <c r="G407" s="28"/>
       <c r="H407" s="7" t="s">
         <v>2</v>
       </c>
@@ -16889,12 +16889,12 @@
     </row>
     <row r="408" spans="1:35" ht="12" customHeight="1">
       <c r="A408" s="6"/>
-      <c r="B408" s="18"/>
-      <c r="C408" s="18"/>
-      <c r="D408" s="18"/>
-      <c r="E408" s="18"/>
-      <c r="F408" s="18"/>
-      <c r="G408" s="18"/>
+      <c r="B408" s="28"/>
+      <c r="C408" s="28"/>
+      <c r="D408" s="28"/>
+      <c r="E408" s="28"/>
+      <c r="F408" s="28"/>
+      <c r="G408" s="28"/>
       <c r="H408" s="7" t="s">
         <v>3</v>
       </c>
@@ -16928,12 +16928,12 @@
     </row>
     <row r="409" spans="1:35" ht="13" customHeight="1">
       <c r="A409" s="6"/>
-      <c r="B409" s="18"/>
-      <c r="C409" s="18"/>
-      <c r="D409" s="18"/>
-      <c r="E409" s="18"/>
-      <c r="F409" s="18"/>
-      <c r="G409" s="18"/>
+      <c r="B409" s="28"/>
+      <c r="C409" s="28"/>
+      <c r="D409" s="28"/>
+      <c r="E409" s="28"/>
+      <c r="F409" s="28"/>
+      <c r="G409" s="28"/>
       <c r="H409" s="7" t="s">
         <v>2</v>
       </c>
@@ -16967,12 +16967,12 @@
     </row>
     <row r="410" spans="1:35" ht="12" customHeight="1">
       <c r="A410" s="6"/>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
-      <c r="D410" s="18"/>
-      <c r="E410" s="18"/>
-      <c r="F410" s="18"/>
-      <c r="G410" s="18"/>
+      <c r="B410" s="28"/>
+      <c r="C410" s="28"/>
+      <c r="D410" s="28"/>
+      <c r="E410" s="28"/>
+      <c r="F410" s="28"/>
+      <c r="G410" s="28"/>
       <c r="H410" s="7" t="s">
         <v>3</v>
       </c>
@@ -17006,12 +17006,12 @@
     </row>
     <row r="411" spans="1:35" ht="13" customHeight="1">
       <c r="A411" s="6"/>
-      <c r="B411" s="18"/>
-      <c r="C411" s="18"/>
-      <c r="D411" s="18"/>
-      <c r="E411" s="18"/>
-      <c r="F411" s="18"/>
-      <c r="G411" s="18"/>
+      <c r="B411" s="28"/>
+      <c r="C411" s="28"/>
+      <c r="D411" s="28"/>
+      <c r="E411" s="28"/>
+      <c r="F411" s="28"/>
+      <c r="G411" s="28"/>
       <c r="H411" s="7" t="s">
         <v>2</v>
       </c>
@@ -17045,12 +17045,12 @@
     </row>
     <row r="412" spans="1:35" ht="12" customHeight="1">
       <c r="A412" s="6"/>
-      <c r="B412" s="18"/>
-      <c r="C412" s="18"/>
-      <c r="D412" s="18"/>
-      <c r="E412" s="18"/>
-      <c r="F412" s="18"/>
-      <c r="G412" s="18"/>
+      <c r="B412" s="28"/>
+      <c r="C412" s="28"/>
+      <c r="D412" s="28"/>
+      <c r="E412" s="28"/>
+      <c r="F412" s="28"/>
+      <c r="G412" s="28"/>
       <c r="H412" s="7" t="s">
         <v>3</v>
       </c>
@@ -17084,12 +17084,12 @@
     </row>
     <row r="413" spans="1:35" ht="13" customHeight="1">
       <c r="A413" s="6"/>
-      <c r="B413" s="18"/>
-      <c r="C413" s="18"/>
-      <c r="D413" s="18"/>
-      <c r="E413" s="18"/>
-      <c r="F413" s="18"/>
-      <c r="G413" s="18"/>
+      <c r="B413" s="28"/>
+      <c r="C413" s="28"/>
+      <c r="D413" s="28"/>
+      <c r="E413" s="28"/>
+      <c r="F413" s="28"/>
+      <c r="G413" s="28"/>
       <c r="H413" s="7" t="s">
         <v>2</v>
       </c>
@@ -17123,12 +17123,12 @@
     </row>
     <row r="414" spans="1:35" ht="12" customHeight="1">
       <c r="A414" s="6"/>
-      <c r="B414" s="18"/>
-      <c r="C414" s="18"/>
-      <c r="D414" s="18"/>
-      <c r="E414" s="18"/>
-      <c r="F414" s="18"/>
-      <c r="G414" s="18"/>
+      <c r="B414" s="28"/>
+      <c r="C414" s="28"/>
+      <c r="D414" s="28"/>
+      <c r="E414" s="28"/>
+      <c r="F414" s="28"/>
+      <c r="G414" s="28"/>
       <c r="H414" s="7" t="s">
         <v>3</v>
       </c>
@@ -17162,12 +17162,12 @@
     </row>
     <row r="415" spans="1:35" ht="13" customHeight="1">
       <c r="A415" s="6"/>
-      <c r="B415" s="18"/>
-      <c r="C415" s="18"/>
-      <c r="D415" s="18"/>
-      <c r="E415" s="18"/>
-      <c r="F415" s="18"/>
-      <c r="G415" s="18"/>
+      <c r="B415" s="28"/>
+      <c r="C415" s="28"/>
+      <c r="D415" s="28"/>
+      <c r="E415" s="28"/>
+      <c r="F415" s="28"/>
+      <c r="G415" s="28"/>
       <c r="H415" s="7" t="s">
         <v>2</v>
       </c>
@@ -17201,12 +17201,12 @@
     </row>
     <row r="416" spans="1:35" ht="12" customHeight="1">
       <c r="A416" s="6"/>
-      <c r="B416" s="18"/>
-      <c r="C416" s="18"/>
-      <c r="D416" s="18"/>
-      <c r="E416" s="18"/>
-      <c r="F416" s="18"/>
-      <c r="G416" s="18"/>
+      <c r="B416" s="28"/>
+      <c r="C416" s="28"/>
+      <c r="D416" s="28"/>
+      <c r="E416" s="28"/>
+      <c r="F416" s="28"/>
+      <c r="G416" s="28"/>
       <c r="H416" s="7" t="s">
         <v>3</v>
       </c>
@@ -17240,12 +17240,12 @@
     </row>
     <row r="417" spans="1:35" ht="13" customHeight="1">
       <c r="A417" s="6"/>
-      <c r="B417" s="18"/>
-      <c r="C417" s="18"/>
-      <c r="D417" s="18"/>
-      <c r="E417" s="18"/>
-      <c r="F417" s="18"/>
-      <c r="G417" s="18"/>
+      <c r="B417" s="28"/>
+      <c r="C417" s="28"/>
+      <c r="D417" s="28"/>
+      <c r="E417" s="28"/>
+      <c r="F417" s="28"/>
+      <c r="G417" s="28"/>
       <c r="H417" s="7" t="s">
         <v>2</v>
       </c>
@@ -17279,12 +17279,12 @@
     </row>
     <row r="418" spans="1:35" ht="12" customHeight="1">
       <c r="A418" s="6"/>
-      <c r="B418" s="18"/>
-      <c r="C418" s="18"/>
-      <c r="D418" s="18"/>
-      <c r="E418" s="18"/>
-      <c r="F418" s="18"/>
-      <c r="G418" s="18"/>
+      <c r="B418" s="28"/>
+      <c r="C418" s="28"/>
+      <c r="D418" s="28"/>
+      <c r="E418" s="28"/>
+      <c r="F418" s="28"/>
+      <c r="G418" s="28"/>
       <c r="H418" s="7" t="s">
         <v>3</v>
       </c>
@@ -17318,12 +17318,12 @@
     </row>
     <row r="419" spans="1:35" ht="13" customHeight="1">
       <c r="A419" s="6"/>
-      <c r="B419" s="18"/>
-      <c r="C419" s="18"/>
-      <c r="D419" s="18"/>
-      <c r="E419" s="18"/>
-      <c r="F419" s="18"/>
-      <c r="G419" s="18"/>
+      <c r="B419" s="28"/>
+      <c r="C419" s="28"/>
+      <c r="D419" s="28"/>
+      <c r="E419" s="28"/>
+      <c r="F419" s="28"/>
+      <c r="G419" s="28"/>
       <c r="H419" s="7" t="s">
         <v>2</v>
       </c>
@@ -17357,12 +17357,12 @@
     </row>
     <row r="420" spans="1:35" ht="12" customHeight="1">
       <c r="A420" s="6"/>
-      <c r="B420" s="18"/>
-      <c r="C420" s="18"/>
-      <c r="D420" s="18"/>
-      <c r="E420" s="18"/>
-      <c r="F420" s="18"/>
-      <c r="G420" s="18"/>
+      <c r="B420" s="28"/>
+      <c r="C420" s="28"/>
+      <c r="D420" s="28"/>
+      <c r="E420" s="28"/>
+      <c r="F420" s="28"/>
+      <c r="G420" s="28"/>
       <c r="H420" s="7" t="s">
         <v>3</v>
       </c>
@@ -17396,12 +17396,12 @@
     </row>
     <row r="421" spans="1:35" ht="13" customHeight="1">
       <c r="A421" s="6"/>
-      <c r="B421" s="18"/>
-      <c r="C421" s="18"/>
-      <c r="D421" s="18"/>
-      <c r="E421" s="18"/>
-      <c r="F421" s="18"/>
-      <c r="G421" s="18"/>
+      <c r="B421" s="28"/>
+      <c r="C421" s="28"/>
+      <c r="D421" s="28"/>
+      <c r="E421" s="28"/>
+      <c r="F421" s="28"/>
+      <c r="G421" s="28"/>
       <c r="H421" s="7" t="s">
         <v>2</v>
       </c>
@@ -17435,12 +17435,12 @@
     </row>
     <row r="422" spans="1:35" ht="12" customHeight="1">
       <c r="A422" s="6"/>
-      <c r="B422" s="18"/>
-      <c r="C422" s="18"/>
-      <c r="D422" s="18"/>
-      <c r="E422" s="18"/>
-      <c r="F422" s="18"/>
-      <c r="G422" s="18"/>
+      <c r="B422" s="28"/>
+      <c r="C422" s="28"/>
+      <c r="D422" s="28"/>
+      <c r="E422" s="28"/>
+      <c r="F422" s="28"/>
+      <c r="G422" s="28"/>
       <c r="H422" s="7" t="s">
         <v>3</v>
       </c>
@@ -17474,12 +17474,12 @@
     </row>
     <row r="423" spans="1:35" ht="13" customHeight="1">
       <c r="A423" s="6"/>
-      <c r="B423" s="18"/>
-      <c r="C423" s="18"/>
-      <c r="D423" s="18"/>
-      <c r="E423" s="18"/>
-      <c r="F423" s="18"/>
-      <c r="G423" s="18"/>
+      <c r="B423" s="28"/>
+      <c r="C423" s="28"/>
+      <c r="D423" s="28"/>
+      <c r="E423" s="28"/>
+      <c r="F423" s="28"/>
+      <c r="G423" s="28"/>
       <c r="H423" s="7" t="s">
         <v>2</v>
       </c>
@@ -17513,12 +17513,12 @@
     </row>
     <row r="424" spans="1:35" ht="12" customHeight="1">
       <c r="A424" s="6"/>
-      <c r="B424" s="18"/>
-      <c r="C424" s="18"/>
-      <c r="D424" s="18"/>
-      <c r="E424" s="18"/>
-      <c r="F424" s="18"/>
-      <c r="G424" s="18"/>
+      <c r="B424" s="28"/>
+      <c r="C424" s="28"/>
+      <c r="D424" s="28"/>
+      <c r="E424" s="28"/>
+      <c r="F424" s="28"/>
+      <c r="G424" s="28"/>
       <c r="H424" s="7" t="s">
         <v>3</v>
       </c>
@@ -17552,12 +17552,12 @@
     </row>
     <row r="425" spans="1:35" ht="13" customHeight="1">
       <c r="A425" s="6"/>
-      <c r="B425" s="18"/>
-      <c r="C425" s="18"/>
-      <c r="D425" s="18"/>
-      <c r="E425" s="18"/>
-      <c r="F425" s="18"/>
-      <c r="G425" s="18"/>
+      <c r="B425" s="28"/>
+      <c r="C425" s="28"/>
+      <c r="D425" s="28"/>
+      <c r="E425" s="28"/>
+      <c r="F425" s="28"/>
+      <c r="G425" s="28"/>
       <c r="H425" s="7" t="s">
         <v>2</v>
       </c>
@@ -17591,12 +17591,12 @@
     </row>
     <row r="426" spans="1:35" ht="12" customHeight="1">
       <c r="A426" s="6"/>
-      <c r="B426" s="18"/>
-      <c r="C426" s="18"/>
-      <c r="D426" s="18"/>
-      <c r="E426" s="18"/>
-      <c r="F426" s="18"/>
-      <c r="G426" s="18"/>
+      <c r="B426" s="28"/>
+      <c r="C426" s="28"/>
+      <c r="D426" s="28"/>
+      <c r="E426" s="28"/>
+      <c r="F426" s="28"/>
+      <c r="G426" s="28"/>
       <c r="H426" s="7" t="s">
         <v>3</v>
       </c>
@@ -17630,12 +17630,12 @@
     </row>
     <row r="427" spans="1:35" ht="13" customHeight="1">
       <c r="A427" s="6"/>
-      <c r="B427" s="18"/>
-      <c r="C427" s="18"/>
-      <c r="D427" s="18"/>
-      <c r="E427" s="18"/>
-      <c r="F427" s="18"/>
-      <c r="G427" s="18"/>
+      <c r="B427" s="28"/>
+      <c r="C427" s="28"/>
+      <c r="D427" s="28"/>
+      <c r="E427" s="28"/>
+      <c r="F427" s="28"/>
+      <c r="G427" s="28"/>
       <c r="H427" s="7" t="s">
         <v>2</v>
       </c>
@@ -17669,12 +17669,12 @@
     </row>
     <row r="428" spans="1:35" ht="12" customHeight="1">
       <c r="A428" s="6"/>
-      <c r="B428" s="18"/>
-      <c r="C428" s="18"/>
-      <c r="D428" s="18"/>
-      <c r="E428" s="18"/>
-      <c r="F428" s="18"/>
-      <c r="G428" s="18"/>
+      <c r="B428" s="28"/>
+      <c r="C428" s="28"/>
+      <c r="D428" s="28"/>
+      <c r="E428" s="28"/>
+      <c r="F428" s="28"/>
+      <c r="G428" s="28"/>
       <c r="H428" s="7" t="s">
         <v>3</v>
       </c>
@@ -17708,12 +17708,12 @@
     </row>
     <row r="429" spans="1:35" ht="13" customHeight="1">
       <c r="A429" s="6"/>
-      <c r="B429" s="18"/>
-      <c r="C429" s="18"/>
-      <c r="D429" s="18"/>
-      <c r="E429" s="18"/>
-      <c r="F429" s="18"/>
-      <c r="G429" s="18"/>
+      <c r="B429" s="28"/>
+      <c r="C429" s="28"/>
+      <c r="D429" s="28"/>
+      <c r="E429" s="28"/>
+      <c r="F429" s="28"/>
+      <c r="G429" s="28"/>
       <c r="H429" s="7" t="s">
         <v>2</v>
       </c>
@@ -17747,12 +17747,12 @@
     </row>
     <row r="430" spans="1:35" ht="12" customHeight="1">
       <c r="A430" s="6"/>
-      <c r="B430" s="18"/>
-      <c r="C430" s="18"/>
-      <c r="D430" s="18"/>
-      <c r="E430" s="18"/>
-      <c r="F430" s="18"/>
-      <c r="G430" s="18"/>
+      <c r="B430" s="28"/>
+      <c r="C430" s="28"/>
+      <c r="D430" s="28"/>
+      <c r="E430" s="28"/>
+      <c r="F430" s="28"/>
+      <c r="G430" s="28"/>
       <c r="H430" s="7" t="s">
         <v>3</v>
       </c>
@@ -17786,12 +17786,12 @@
     </row>
     <row r="431" spans="1:35" ht="13" customHeight="1">
       <c r="A431" s="6"/>
-      <c r="B431" s="18"/>
-      <c r="C431" s="18"/>
-      <c r="D431" s="18"/>
-      <c r="E431" s="18"/>
-      <c r="F431" s="18"/>
-      <c r="G431" s="18"/>
+      <c r="B431" s="28"/>
+      <c r="C431" s="28"/>
+      <c r="D431" s="28"/>
+      <c r="E431" s="28"/>
+      <c r="F431" s="28"/>
+      <c r="G431" s="28"/>
       <c r="H431" s="7" t="s">
         <v>2</v>
       </c>
@@ -17825,12 +17825,12 @@
     </row>
     <row r="432" spans="1:35" ht="12" customHeight="1">
       <c r="A432" s="6"/>
-      <c r="B432" s="18"/>
-      <c r="C432" s="18"/>
-      <c r="D432" s="18"/>
-      <c r="E432" s="18"/>
-      <c r="F432" s="18"/>
-      <c r="G432" s="18"/>
+      <c r="B432" s="28"/>
+      <c r="C432" s="28"/>
+      <c r="D432" s="28"/>
+      <c r="E432" s="28"/>
+      <c r="F432" s="28"/>
+      <c r="G432" s="28"/>
       <c r="H432" s="7" t="s">
         <v>3</v>
       </c>
@@ -17864,12 +17864,12 @@
     </row>
     <row r="433" spans="1:35" ht="13" customHeight="1">
       <c r="A433" s="6"/>
-      <c r="B433" s="18"/>
-      <c r="C433" s="18"/>
-      <c r="D433" s="18"/>
-      <c r="E433" s="18"/>
-      <c r="F433" s="18"/>
-      <c r="G433" s="18"/>
+      <c r="B433" s="28"/>
+      <c r="C433" s="28"/>
+      <c r="D433" s="28"/>
+      <c r="E433" s="28"/>
+      <c r="F433" s="28"/>
+      <c r="G433" s="28"/>
       <c r="H433" s="7" t="s">
         <v>2</v>
       </c>
@@ -17903,12 +17903,12 @@
     </row>
     <row r="434" spans="1:35" ht="12" customHeight="1">
       <c r="A434" s="6"/>
-      <c r="B434" s="18"/>
-      <c r="C434" s="18"/>
-      <c r="D434" s="18"/>
-      <c r="E434" s="18"/>
-      <c r="F434" s="18"/>
-      <c r="G434" s="18"/>
+      <c r="B434" s="28"/>
+      <c r="C434" s="28"/>
+      <c r="D434" s="28"/>
+      <c r="E434" s="28"/>
+      <c r="F434" s="28"/>
+      <c r="G434" s="28"/>
       <c r="H434" s="7" t="s">
         <v>3</v>
       </c>
@@ -17942,12 +17942,12 @@
     </row>
     <row r="435" spans="1:35" ht="13" customHeight="1">
       <c r="A435" s="6"/>
-      <c r="B435" s="18"/>
-      <c r="C435" s="18"/>
-      <c r="D435" s="18"/>
-      <c r="E435" s="18"/>
-      <c r="F435" s="18"/>
-      <c r="G435" s="18"/>
+      <c r="B435" s="28"/>
+      <c r="C435" s="28"/>
+      <c r="D435" s="28"/>
+      <c r="E435" s="28"/>
+      <c r="F435" s="28"/>
+      <c r="G435" s="28"/>
       <c r="H435" s="7" t="s">
         <v>2</v>
       </c>
@@ -17981,12 +17981,12 @@
     </row>
     <row r="436" spans="1:35" ht="12" customHeight="1">
       <c r="A436" s="6"/>
-      <c r="B436" s="18"/>
-      <c r="C436" s="18"/>
-      <c r="D436" s="18"/>
-      <c r="E436" s="18"/>
-      <c r="F436" s="18"/>
-      <c r="G436" s="18"/>
+      <c r="B436" s="28"/>
+      <c r="C436" s="28"/>
+      <c r="D436" s="28"/>
+      <c r="E436" s="28"/>
+      <c r="F436" s="28"/>
+      <c r="G436" s="28"/>
       <c r="H436" s="7" t="s">
         <v>3</v>
       </c>
@@ -18020,12 +18020,12 @@
     </row>
     <row r="437" spans="1:35" ht="13" customHeight="1">
       <c r="A437" s="6"/>
-      <c r="B437" s="18"/>
-      <c r="C437" s="18"/>
-      <c r="D437" s="18"/>
-      <c r="E437" s="18"/>
-      <c r="F437" s="18"/>
-      <c r="G437" s="18"/>
+      <c r="B437" s="28"/>
+      <c r="C437" s="28"/>
+      <c r="D437" s="28"/>
+      <c r="E437" s="28"/>
+      <c r="F437" s="28"/>
+      <c r="G437" s="28"/>
       <c r="H437" s="7" t="s">
         <v>2</v>
       </c>
@@ -18059,12 +18059,12 @@
     </row>
     <row r="438" spans="1:35" ht="12" customHeight="1">
       <c r="A438" s="6"/>
-      <c r="B438" s="18"/>
-      <c r="C438" s="18"/>
-      <c r="D438" s="18"/>
-      <c r="E438" s="18"/>
-      <c r="F438" s="18"/>
-      <c r="G438" s="18"/>
+      <c r="B438" s="28"/>
+      <c r="C438" s="28"/>
+      <c r="D438" s="28"/>
+      <c r="E438" s="28"/>
+      <c r="F438" s="28"/>
+      <c r="G438" s="28"/>
       <c r="H438" s="7" t="s">
         <v>3</v>
       </c>
@@ -18098,12 +18098,12 @@
     </row>
     <row r="439" spans="1:35" ht="13" customHeight="1">
       <c r="A439" s="6"/>
-      <c r="B439" s="18"/>
-      <c r="C439" s="18"/>
-      <c r="D439" s="18"/>
-      <c r="E439" s="18"/>
-      <c r="F439" s="18"/>
-      <c r="G439" s="18"/>
+      <c r="B439" s="28"/>
+      <c r="C439" s="28"/>
+      <c r="D439" s="28"/>
+      <c r="E439" s="28"/>
+      <c r="F439" s="28"/>
+      <c r="G439" s="28"/>
       <c r="H439" s="7" t="s">
         <v>2</v>
       </c>
@@ -18137,12 +18137,12 @@
     </row>
     <row r="440" spans="1:35" ht="12" customHeight="1">
       <c r="A440" s="6"/>
-      <c r="B440" s="18"/>
-      <c r="C440" s="18"/>
-      <c r="D440" s="18"/>
-      <c r="E440" s="18"/>
-      <c r="F440" s="18"/>
-      <c r="G440" s="18"/>
+      <c r="B440" s="28"/>
+      <c r="C440" s="28"/>
+      <c r="D440" s="28"/>
+      <c r="E440" s="28"/>
+      <c r="F440" s="28"/>
+      <c r="G440" s="28"/>
       <c r="H440" s="7" t="s">
         <v>3</v>
       </c>
@@ -18176,12 +18176,12 @@
     </row>
     <row r="441" spans="1:35" ht="13" customHeight="1">
       <c r="A441" s="6"/>
-      <c r="B441" s="18"/>
-      <c r="C441" s="18"/>
-      <c r="D441" s="18"/>
-      <c r="E441" s="18"/>
-      <c r="F441" s="18"/>
-      <c r="G441" s="18"/>
+      <c r="B441" s="28"/>
+      <c r="C441" s="28"/>
+      <c r="D441" s="28"/>
+      <c r="E441" s="28"/>
+      <c r="F441" s="28"/>
+      <c r="G441" s="28"/>
       <c r="H441" s="7" t="s">
         <v>2</v>
       </c>
@@ -18215,12 +18215,12 @@
     </row>
     <row r="442" spans="1:35" ht="12" customHeight="1">
       <c r="A442" s="6"/>
-      <c r="B442" s="18"/>
-      <c r="C442" s="18"/>
-      <c r="D442" s="18"/>
-      <c r="E442" s="18"/>
-      <c r="F442" s="18"/>
-      <c r="G442" s="18"/>
+      <c r="B442" s="28"/>
+      <c r="C442" s="28"/>
+      <c r="D442" s="28"/>
+      <c r="E442" s="28"/>
+      <c r="F442" s="28"/>
+      <c r="G442" s="28"/>
       <c r="H442" s="7" t="s">
         <v>3</v>
       </c>
@@ -18254,12 +18254,12 @@
     </row>
     <row r="443" spans="1:35" ht="13" customHeight="1">
       <c r="A443" s="6"/>
-      <c r="B443" s="18"/>
-      <c r="C443" s="18"/>
-      <c r="D443" s="18"/>
-      <c r="E443" s="18"/>
-      <c r="F443" s="18"/>
-      <c r="G443" s="18"/>
+      <c r="B443" s="28"/>
+      <c r="C443" s="28"/>
+      <c r="D443" s="28"/>
+      <c r="E443" s="28"/>
+      <c r="F443" s="28"/>
+      <c r="G443" s="28"/>
       <c r="H443" s="7" t="s">
         <v>2</v>
       </c>
@@ -18293,12 +18293,12 @@
     </row>
     <row r="444" spans="1:35" ht="12" customHeight="1">
       <c r="A444" s="6"/>
-      <c r="B444" s="18"/>
-      <c r="C444" s="18"/>
-      <c r="D444" s="18"/>
-      <c r="E444" s="18"/>
-      <c r="F444" s="18"/>
-      <c r="G444" s="18"/>
+      <c r="B444" s="28"/>
+      <c r="C444" s="28"/>
+      <c r="D444" s="28"/>
+      <c r="E444" s="28"/>
+      <c r="F444" s="28"/>
+      <c r="G444" s="28"/>
       <c r="H444" s="7" t="s">
         <v>3</v>
       </c>
@@ -18332,12 +18332,12 @@
     </row>
     <row r="445" spans="1:35" ht="13" customHeight="1">
       <c r="A445" s="6"/>
-      <c r="B445" s="18"/>
-      <c r="C445" s="18"/>
-      <c r="D445" s="18"/>
-      <c r="E445" s="18"/>
-      <c r="F445" s="18"/>
-      <c r="G445" s="18"/>
+      <c r="B445" s="28"/>
+      <c r="C445" s="28"/>
+      <c r="D445" s="28"/>
+      <c r="E445" s="28"/>
+      <c r="F445" s="28"/>
+      <c r="G445" s="28"/>
       <c r="H445" s="7" t="s">
         <v>2</v>
       </c>
@@ -18371,12 +18371,12 @@
     </row>
     <row r="446" spans="1:35" ht="12" customHeight="1">
       <c r="A446" s="6"/>
-      <c r="B446" s="18"/>
-      <c r="C446" s="18"/>
-      <c r="D446" s="18"/>
-      <c r="E446" s="18"/>
-      <c r="F446" s="18"/>
-      <c r="G446" s="18"/>
+      <c r="B446" s="28"/>
+      <c r="C446" s="28"/>
+      <c r="D446" s="28"/>
+      <c r="E446" s="28"/>
+      <c r="F446" s="28"/>
+      <c r="G446" s="28"/>
       <c r="H446" s="7" t="s">
         <v>3</v>
       </c>
@@ -18410,12 +18410,12 @@
     </row>
     <row r="447" spans="1:35" ht="13" customHeight="1">
       <c r="A447" s="6"/>
-      <c r="B447" s="18"/>
-      <c r="C447" s="18"/>
-      <c r="D447" s="18"/>
-      <c r="E447" s="18"/>
-      <c r="F447" s="18"/>
-      <c r="G447" s="18"/>
+      <c r="B447" s="28"/>
+      <c r="C447" s="28"/>
+      <c r="D447" s="28"/>
+      <c r="E447" s="28"/>
+      <c r="F447" s="28"/>
+      <c r="G447" s="28"/>
       <c r="H447" s="7" t="s">
         <v>2</v>
       </c>
@@ -18449,12 +18449,12 @@
     </row>
     <row r="448" spans="1:35" ht="12" customHeight="1">
       <c r="A448" s="6"/>
-      <c r="B448" s="18"/>
-      <c r="C448" s="18"/>
-      <c r="D448" s="18"/>
-      <c r="E448" s="18"/>
-      <c r="F448" s="18"/>
-      <c r="G448" s="18"/>
+      <c r="B448" s="28"/>
+      <c r="C448" s="28"/>
+      <c r="D448" s="28"/>
+      <c r="E448" s="28"/>
+      <c r="F448" s="28"/>
+      <c r="G448" s="28"/>
       <c r="H448" s="7" t="s">
         <v>3</v>
       </c>
@@ -18488,12 +18488,12 @@
     </row>
     <row r="449" spans="1:35" ht="13" customHeight="1">
       <c r="A449" s="6"/>
-      <c r="B449" s="18"/>
-      <c r="C449" s="18"/>
-      <c r="D449" s="18"/>
-      <c r="E449" s="18"/>
-      <c r="F449" s="18"/>
-      <c r="G449" s="18"/>
+      <c r="B449" s="28"/>
+      <c r="C449" s="28"/>
+      <c r="D449" s="28"/>
+      <c r="E449" s="28"/>
+      <c r="F449" s="28"/>
+      <c r="G449" s="28"/>
       <c r="H449" s="7" t="s">
         <v>2</v>
       </c>
@@ -18527,12 +18527,12 @@
     </row>
     <row r="450" spans="1:35" ht="12" customHeight="1">
       <c r="A450" s="6"/>
-      <c r="B450" s="18"/>
-      <c r="C450" s="18"/>
-      <c r="D450" s="18"/>
-      <c r="E450" s="18"/>
-      <c r="F450" s="18"/>
-      <c r="G450" s="18"/>
+      <c r="B450" s="28"/>
+      <c r="C450" s="28"/>
+      <c r="D450" s="28"/>
+      <c r="E450" s="28"/>
+      <c r="F450" s="28"/>
+      <c r="G450" s="28"/>
       <c r="H450" s="7" t="s">
         <v>3</v>
       </c>
@@ -18603,20 +18603,427 @@
     </row>
   </sheetData>
   <mergeCells count="459">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="J3:R4"/>
-    <mergeCell ref="S3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="B443:D444"/>
+    <mergeCell ref="E443:G444"/>
+    <mergeCell ref="B445:D446"/>
+    <mergeCell ref="E445:G446"/>
+    <mergeCell ref="B447:D448"/>
+    <mergeCell ref="E447:G448"/>
+    <mergeCell ref="B449:D450"/>
+    <mergeCell ref="E449:G450"/>
+    <mergeCell ref="B433:D434"/>
+    <mergeCell ref="E433:G434"/>
+    <mergeCell ref="B435:D436"/>
+    <mergeCell ref="E435:G436"/>
+    <mergeCell ref="B437:D438"/>
+    <mergeCell ref="E437:G438"/>
+    <mergeCell ref="B439:D440"/>
+    <mergeCell ref="E439:G440"/>
+    <mergeCell ref="B441:D442"/>
+    <mergeCell ref="E441:G442"/>
+    <mergeCell ref="B423:D424"/>
+    <mergeCell ref="E423:G424"/>
+    <mergeCell ref="B425:D426"/>
+    <mergeCell ref="E425:G426"/>
+    <mergeCell ref="B427:D428"/>
+    <mergeCell ref="E427:G428"/>
+    <mergeCell ref="B429:D430"/>
+    <mergeCell ref="E429:G430"/>
+    <mergeCell ref="B431:D432"/>
+    <mergeCell ref="E431:G432"/>
+    <mergeCell ref="B413:D414"/>
+    <mergeCell ref="E413:G414"/>
+    <mergeCell ref="B415:D416"/>
+    <mergeCell ref="E415:G416"/>
+    <mergeCell ref="B417:D418"/>
+    <mergeCell ref="E417:G418"/>
+    <mergeCell ref="B419:D420"/>
+    <mergeCell ref="E419:G420"/>
+    <mergeCell ref="B421:D422"/>
+    <mergeCell ref="E421:G422"/>
+    <mergeCell ref="B403:D404"/>
+    <mergeCell ref="E403:G404"/>
+    <mergeCell ref="B405:D406"/>
+    <mergeCell ref="E405:G406"/>
+    <mergeCell ref="B407:D408"/>
+    <mergeCell ref="E407:G408"/>
+    <mergeCell ref="B409:D410"/>
+    <mergeCell ref="E409:G410"/>
+    <mergeCell ref="B411:D412"/>
+    <mergeCell ref="E411:G412"/>
+    <mergeCell ref="B393:D394"/>
+    <mergeCell ref="E393:G394"/>
+    <mergeCell ref="B395:D396"/>
+    <mergeCell ref="E395:G396"/>
+    <mergeCell ref="B397:D398"/>
+    <mergeCell ref="E397:G398"/>
+    <mergeCell ref="B399:D400"/>
+    <mergeCell ref="E399:G400"/>
+    <mergeCell ref="B401:D402"/>
+    <mergeCell ref="E401:G402"/>
+    <mergeCell ref="B383:D384"/>
+    <mergeCell ref="E383:G384"/>
+    <mergeCell ref="B385:D386"/>
+    <mergeCell ref="E385:G386"/>
+    <mergeCell ref="B387:D388"/>
+    <mergeCell ref="E387:G388"/>
+    <mergeCell ref="B389:D390"/>
+    <mergeCell ref="E389:G390"/>
+    <mergeCell ref="B391:D392"/>
+    <mergeCell ref="E391:G392"/>
+    <mergeCell ref="B373:D374"/>
+    <mergeCell ref="E373:G374"/>
+    <mergeCell ref="B375:D376"/>
+    <mergeCell ref="E375:G376"/>
+    <mergeCell ref="B377:D378"/>
+    <mergeCell ref="E377:G378"/>
+    <mergeCell ref="B379:D380"/>
+    <mergeCell ref="E379:G380"/>
+    <mergeCell ref="B381:D382"/>
+    <mergeCell ref="E381:G382"/>
+    <mergeCell ref="B363:D364"/>
+    <mergeCell ref="E363:G364"/>
+    <mergeCell ref="B365:D366"/>
+    <mergeCell ref="E365:G366"/>
+    <mergeCell ref="B367:D368"/>
+    <mergeCell ref="E367:G368"/>
+    <mergeCell ref="B369:D370"/>
+    <mergeCell ref="E369:G370"/>
+    <mergeCell ref="B371:D372"/>
+    <mergeCell ref="E371:G372"/>
+    <mergeCell ref="B353:D354"/>
+    <mergeCell ref="E353:G354"/>
+    <mergeCell ref="B355:D356"/>
+    <mergeCell ref="E355:G356"/>
+    <mergeCell ref="B357:D358"/>
+    <mergeCell ref="E357:G358"/>
+    <mergeCell ref="B359:D360"/>
+    <mergeCell ref="E359:G360"/>
+    <mergeCell ref="B361:D362"/>
+    <mergeCell ref="E361:G362"/>
+    <mergeCell ref="B343:D344"/>
+    <mergeCell ref="E343:G344"/>
+    <mergeCell ref="B345:D346"/>
+    <mergeCell ref="E345:G346"/>
+    <mergeCell ref="B347:D348"/>
+    <mergeCell ref="E347:G348"/>
+    <mergeCell ref="B349:D350"/>
+    <mergeCell ref="E349:G350"/>
+    <mergeCell ref="B351:D352"/>
+    <mergeCell ref="E351:G352"/>
+    <mergeCell ref="B333:D334"/>
+    <mergeCell ref="E333:G334"/>
+    <mergeCell ref="B335:D336"/>
+    <mergeCell ref="E335:G336"/>
+    <mergeCell ref="B337:D338"/>
+    <mergeCell ref="E337:G338"/>
+    <mergeCell ref="B339:D340"/>
+    <mergeCell ref="E339:G340"/>
+    <mergeCell ref="B341:D342"/>
+    <mergeCell ref="E341:G342"/>
+    <mergeCell ref="B323:D324"/>
+    <mergeCell ref="E323:G324"/>
+    <mergeCell ref="B325:D326"/>
+    <mergeCell ref="E325:G326"/>
+    <mergeCell ref="B327:D328"/>
+    <mergeCell ref="E327:G328"/>
+    <mergeCell ref="B329:D330"/>
+    <mergeCell ref="E329:G330"/>
+    <mergeCell ref="B331:D332"/>
+    <mergeCell ref="E331:G332"/>
+    <mergeCell ref="B313:D314"/>
+    <mergeCell ref="E313:G314"/>
+    <mergeCell ref="B315:D316"/>
+    <mergeCell ref="E315:G316"/>
+    <mergeCell ref="B317:D318"/>
+    <mergeCell ref="E317:G318"/>
+    <mergeCell ref="B319:D320"/>
+    <mergeCell ref="E319:G320"/>
+    <mergeCell ref="B321:D322"/>
+    <mergeCell ref="E321:G322"/>
+    <mergeCell ref="B303:D304"/>
+    <mergeCell ref="E303:G304"/>
+    <mergeCell ref="B305:D306"/>
+    <mergeCell ref="E305:G306"/>
+    <mergeCell ref="B307:D308"/>
+    <mergeCell ref="E307:G308"/>
+    <mergeCell ref="B309:D310"/>
+    <mergeCell ref="E309:G310"/>
+    <mergeCell ref="B311:D312"/>
+    <mergeCell ref="E311:G312"/>
+    <mergeCell ref="B293:D294"/>
+    <mergeCell ref="E293:G294"/>
+    <mergeCell ref="B295:D296"/>
+    <mergeCell ref="E295:G296"/>
+    <mergeCell ref="B297:D298"/>
+    <mergeCell ref="E297:G298"/>
+    <mergeCell ref="B299:D300"/>
+    <mergeCell ref="E299:G300"/>
+    <mergeCell ref="B301:D302"/>
+    <mergeCell ref="E301:G302"/>
+    <mergeCell ref="B283:D284"/>
+    <mergeCell ref="E283:G284"/>
+    <mergeCell ref="B285:D286"/>
+    <mergeCell ref="E285:G286"/>
+    <mergeCell ref="B287:D288"/>
+    <mergeCell ref="E287:G288"/>
+    <mergeCell ref="B289:D290"/>
+    <mergeCell ref="E289:G290"/>
+    <mergeCell ref="B291:D292"/>
+    <mergeCell ref="E291:G292"/>
+    <mergeCell ref="B273:D274"/>
+    <mergeCell ref="E273:G274"/>
+    <mergeCell ref="B275:D276"/>
+    <mergeCell ref="E275:G276"/>
+    <mergeCell ref="B277:D278"/>
+    <mergeCell ref="E277:G278"/>
+    <mergeCell ref="B279:D280"/>
+    <mergeCell ref="E279:G280"/>
+    <mergeCell ref="B281:D282"/>
+    <mergeCell ref="E281:G282"/>
+    <mergeCell ref="B263:D264"/>
+    <mergeCell ref="E263:G264"/>
+    <mergeCell ref="B265:D266"/>
+    <mergeCell ref="E265:G266"/>
+    <mergeCell ref="B267:D268"/>
+    <mergeCell ref="E267:G268"/>
+    <mergeCell ref="B269:D270"/>
+    <mergeCell ref="E269:G270"/>
+    <mergeCell ref="B271:D272"/>
+    <mergeCell ref="E271:G272"/>
+    <mergeCell ref="B253:D254"/>
+    <mergeCell ref="E253:G254"/>
+    <mergeCell ref="B255:D256"/>
+    <mergeCell ref="E255:G256"/>
+    <mergeCell ref="B257:D258"/>
+    <mergeCell ref="E257:G258"/>
+    <mergeCell ref="B259:D260"/>
+    <mergeCell ref="E259:G260"/>
+    <mergeCell ref="B261:D262"/>
+    <mergeCell ref="E261:G262"/>
+    <mergeCell ref="B243:D244"/>
+    <mergeCell ref="E243:G244"/>
+    <mergeCell ref="B245:D246"/>
+    <mergeCell ref="E245:G246"/>
+    <mergeCell ref="B247:D248"/>
+    <mergeCell ref="E247:G248"/>
+    <mergeCell ref="B249:D250"/>
+    <mergeCell ref="E249:G250"/>
+    <mergeCell ref="B251:D252"/>
+    <mergeCell ref="E251:G252"/>
+    <mergeCell ref="B233:D234"/>
+    <mergeCell ref="E233:G234"/>
+    <mergeCell ref="B235:D236"/>
+    <mergeCell ref="E235:G236"/>
+    <mergeCell ref="B237:D238"/>
+    <mergeCell ref="E237:G238"/>
+    <mergeCell ref="B239:D240"/>
+    <mergeCell ref="E239:G240"/>
+    <mergeCell ref="B241:D242"/>
+    <mergeCell ref="E241:G242"/>
+    <mergeCell ref="B223:D224"/>
+    <mergeCell ref="E223:G224"/>
+    <mergeCell ref="B225:D226"/>
+    <mergeCell ref="E225:G226"/>
+    <mergeCell ref="B227:D228"/>
+    <mergeCell ref="E227:G228"/>
+    <mergeCell ref="B229:D230"/>
+    <mergeCell ref="E229:G230"/>
+    <mergeCell ref="B231:D232"/>
+    <mergeCell ref="E231:G232"/>
+    <mergeCell ref="B213:D214"/>
+    <mergeCell ref="E213:G214"/>
+    <mergeCell ref="B215:D216"/>
+    <mergeCell ref="E215:G216"/>
+    <mergeCell ref="B217:D218"/>
+    <mergeCell ref="E217:G218"/>
+    <mergeCell ref="B219:D220"/>
+    <mergeCell ref="E219:G220"/>
+    <mergeCell ref="B221:D222"/>
+    <mergeCell ref="E221:G222"/>
+    <mergeCell ref="B203:D204"/>
+    <mergeCell ref="E203:G204"/>
+    <mergeCell ref="B205:D206"/>
+    <mergeCell ref="E205:G206"/>
+    <mergeCell ref="B207:D208"/>
+    <mergeCell ref="E207:G208"/>
+    <mergeCell ref="B209:D210"/>
+    <mergeCell ref="E209:G210"/>
+    <mergeCell ref="B211:D212"/>
+    <mergeCell ref="E211:G212"/>
+    <mergeCell ref="B193:D194"/>
+    <mergeCell ref="E193:G194"/>
+    <mergeCell ref="B195:D196"/>
+    <mergeCell ref="E195:G196"/>
+    <mergeCell ref="B197:D198"/>
+    <mergeCell ref="E197:G198"/>
+    <mergeCell ref="B199:D200"/>
+    <mergeCell ref="E199:G200"/>
+    <mergeCell ref="B201:D202"/>
+    <mergeCell ref="E201:G202"/>
+    <mergeCell ref="B183:D184"/>
+    <mergeCell ref="E183:G184"/>
+    <mergeCell ref="B185:D186"/>
+    <mergeCell ref="E185:G186"/>
+    <mergeCell ref="B187:D188"/>
+    <mergeCell ref="E187:G188"/>
+    <mergeCell ref="B189:D190"/>
+    <mergeCell ref="E189:G190"/>
+    <mergeCell ref="B191:D192"/>
+    <mergeCell ref="E191:G192"/>
+    <mergeCell ref="E173:G174"/>
+    <mergeCell ref="E127:G128"/>
+    <mergeCell ref="E129:G130"/>
+    <mergeCell ref="E131:G132"/>
+    <mergeCell ref="E133:G134"/>
+    <mergeCell ref="E135:G136"/>
+    <mergeCell ref="E137:G138"/>
+    <mergeCell ref="E139:G140"/>
+    <mergeCell ref="E141:G142"/>
+    <mergeCell ref="E143:G144"/>
+    <mergeCell ref="E145:G146"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="E165:G166"/>
+    <mergeCell ref="E167:G168"/>
+    <mergeCell ref="E169:G170"/>
+    <mergeCell ref="E171:G172"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E147:G148"/>
+    <mergeCell ref="E155:G156"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="E63:G64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="E75:G76"/>
+    <mergeCell ref="E77:G78"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="E23:G24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="B75:D76"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:G14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:G32"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B159:D160"/>
+    <mergeCell ref="B161:D162"/>
+    <mergeCell ref="B127:D128"/>
+    <mergeCell ref="B129:D130"/>
+    <mergeCell ref="B131:D132"/>
+    <mergeCell ref="B133:D134"/>
+    <mergeCell ref="B135:D136"/>
+    <mergeCell ref="B137:D138"/>
+    <mergeCell ref="B139:D140"/>
+    <mergeCell ref="B141:D142"/>
+    <mergeCell ref="B143:D144"/>
+    <mergeCell ref="B145:D146"/>
+    <mergeCell ref="B147:D148"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="E53:G54"/>
+    <mergeCell ref="B155:D156"/>
+    <mergeCell ref="B157:D158"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E27:G28"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:G30"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:G88"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:G80"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="B83:D84"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="B97:D98"/>
+    <mergeCell ref="E97:G98"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="E99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:G102"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:G92"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:G94"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:G96"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:G110"/>
+    <mergeCell ref="B111:D112"/>
+    <mergeCell ref="E111:G112"/>
+    <mergeCell ref="B113:D114"/>
+    <mergeCell ref="E113:G114"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:G104"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:G106"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="E107:G108"/>
+    <mergeCell ref="B121:D122"/>
+    <mergeCell ref="E121:G122"/>
+    <mergeCell ref="B123:D124"/>
+    <mergeCell ref="E123:G124"/>
+    <mergeCell ref="B125:D126"/>
+    <mergeCell ref="E125:G126"/>
+    <mergeCell ref="B115:D116"/>
+    <mergeCell ref="E115:G116"/>
+    <mergeCell ref="B117:D118"/>
+    <mergeCell ref="E117:G118"/>
+    <mergeCell ref="B119:D120"/>
+    <mergeCell ref="E119:G120"/>
     <mergeCell ref="B181:D182"/>
     <mergeCell ref="E181:G182"/>
     <mergeCell ref="E175:G176"/>
@@ -18641,427 +19048,20 @@
     <mergeCell ref="E159:G160"/>
     <mergeCell ref="E161:G162"/>
     <mergeCell ref="E163:G164"/>
-    <mergeCell ref="B121:D122"/>
-    <mergeCell ref="E121:G122"/>
-    <mergeCell ref="B123:D124"/>
-    <mergeCell ref="E123:G124"/>
-    <mergeCell ref="B125:D126"/>
-    <mergeCell ref="E125:G126"/>
-    <mergeCell ref="B115:D116"/>
-    <mergeCell ref="E115:G116"/>
-    <mergeCell ref="B117:D118"/>
-    <mergeCell ref="E117:G118"/>
-    <mergeCell ref="B119:D120"/>
-    <mergeCell ref="E119:G120"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:G110"/>
-    <mergeCell ref="B111:D112"/>
-    <mergeCell ref="E111:G112"/>
-    <mergeCell ref="B113:D114"/>
-    <mergeCell ref="E113:G114"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:G104"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:G106"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="E107:G108"/>
-    <mergeCell ref="B97:D98"/>
-    <mergeCell ref="E97:G98"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="E99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:G102"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:G92"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:G94"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:G96"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:G88"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:G80"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="B83:D84"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E27:G28"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:G30"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="B47:D48"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="B41:D42"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="E33:G34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="E53:G54"/>
-    <mergeCell ref="B155:D156"/>
-    <mergeCell ref="B157:D158"/>
-    <mergeCell ref="B159:D160"/>
-    <mergeCell ref="B161:D162"/>
-    <mergeCell ref="B127:D128"/>
-    <mergeCell ref="B129:D130"/>
-    <mergeCell ref="B131:D132"/>
-    <mergeCell ref="B133:D134"/>
-    <mergeCell ref="B135:D136"/>
-    <mergeCell ref="B137:D138"/>
-    <mergeCell ref="B139:D140"/>
-    <mergeCell ref="B141:D142"/>
-    <mergeCell ref="B143:D144"/>
-    <mergeCell ref="B145:D146"/>
-    <mergeCell ref="B147:D148"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="B75:D76"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E21:G22"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:G32"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="E11:G12"/>
-    <mergeCell ref="E165:G166"/>
-    <mergeCell ref="E167:G168"/>
-    <mergeCell ref="E169:G170"/>
-    <mergeCell ref="E171:G172"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="E147:G148"/>
-    <mergeCell ref="E155:G156"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="E63:G64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="E75:G76"/>
-    <mergeCell ref="E77:G78"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="E23:G24"/>
-    <mergeCell ref="E173:G174"/>
-    <mergeCell ref="E127:G128"/>
-    <mergeCell ref="E129:G130"/>
-    <mergeCell ref="E131:G132"/>
-    <mergeCell ref="E133:G134"/>
-    <mergeCell ref="E135:G136"/>
-    <mergeCell ref="E137:G138"/>
-    <mergeCell ref="E139:G140"/>
-    <mergeCell ref="E141:G142"/>
-    <mergeCell ref="E143:G144"/>
-    <mergeCell ref="E145:G146"/>
-    <mergeCell ref="B183:D184"/>
-    <mergeCell ref="E183:G184"/>
-    <mergeCell ref="B185:D186"/>
-    <mergeCell ref="E185:G186"/>
-    <mergeCell ref="B187:D188"/>
-    <mergeCell ref="E187:G188"/>
-    <mergeCell ref="B189:D190"/>
-    <mergeCell ref="E189:G190"/>
-    <mergeCell ref="B191:D192"/>
-    <mergeCell ref="E191:G192"/>
-    <mergeCell ref="B193:D194"/>
-    <mergeCell ref="E193:G194"/>
-    <mergeCell ref="B195:D196"/>
-    <mergeCell ref="E195:G196"/>
-    <mergeCell ref="B197:D198"/>
-    <mergeCell ref="E197:G198"/>
-    <mergeCell ref="B199:D200"/>
-    <mergeCell ref="E199:G200"/>
-    <mergeCell ref="B201:D202"/>
-    <mergeCell ref="E201:G202"/>
-    <mergeCell ref="B203:D204"/>
-    <mergeCell ref="E203:G204"/>
-    <mergeCell ref="B205:D206"/>
-    <mergeCell ref="E205:G206"/>
-    <mergeCell ref="B207:D208"/>
-    <mergeCell ref="E207:G208"/>
-    <mergeCell ref="B209:D210"/>
-    <mergeCell ref="E209:G210"/>
-    <mergeCell ref="B211:D212"/>
-    <mergeCell ref="E211:G212"/>
-    <mergeCell ref="B213:D214"/>
-    <mergeCell ref="E213:G214"/>
-    <mergeCell ref="B215:D216"/>
-    <mergeCell ref="E215:G216"/>
-    <mergeCell ref="B217:D218"/>
-    <mergeCell ref="E217:G218"/>
-    <mergeCell ref="B219:D220"/>
-    <mergeCell ref="E219:G220"/>
-    <mergeCell ref="B221:D222"/>
-    <mergeCell ref="E221:G222"/>
-    <mergeCell ref="B223:D224"/>
-    <mergeCell ref="E223:G224"/>
-    <mergeCell ref="B225:D226"/>
-    <mergeCell ref="E225:G226"/>
-    <mergeCell ref="B227:D228"/>
-    <mergeCell ref="E227:G228"/>
-    <mergeCell ref="B229:D230"/>
-    <mergeCell ref="E229:G230"/>
-    <mergeCell ref="B231:D232"/>
-    <mergeCell ref="E231:G232"/>
-    <mergeCell ref="B233:D234"/>
-    <mergeCell ref="E233:G234"/>
-    <mergeCell ref="B235:D236"/>
-    <mergeCell ref="E235:G236"/>
-    <mergeCell ref="B237:D238"/>
-    <mergeCell ref="E237:G238"/>
-    <mergeCell ref="B239:D240"/>
-    <mergeCell ref="E239:G240"/>
-    <mergeCell ref="B241:D242"/>
-    <mergeCell ref="E241:G242"/>
-    <mergeCell ref="B243:D244"/>
-    <mergeCell ref="E243:G244"/>
-    <mergeCell ref="B245:D246"/>
-    <mergeCell ref="E245:G246"/>
-    <mergeCell ref="B247:D248"/>
-    <mergeCell ref="E247:G248"/>
-    <mergeCell ref="B249:D250"/>
-    <mergeCell ref="E249:G250"/>
-    <mergeCell ref="B251:D252"/>
-    <mergeCell ref="E251:G252"/>
-    <mergeCell ref="B253:D254"/>
-    <mergeCell ref="E253:G254"/>
-    <mergeCell ref="B255:D256"/>
-    <mergeCell ref="E255:G256"/>
-    <mergeCell ref="B257:D258"/>
-    <mergeCell ref="E257:G258"/>
-    <mergeCell ref="B259:D260"/>
-    <mergeCell ref="E259:G260"/>
-    <mergeCell ref="B261:D262"/>
-    <mergeCell ref="E261:G262"/>
-    <mergeCell ref="B263:D264"/>
-    <mergeCell ref="E263:G264"/>
-    <mergeCell ref="B265:D266"/>
-    <mergeCell ref="E265:G266"/>
-    <mergeCell ref="B267:D268"/>
-    <mergeCell ref="E267:G268"/>
-    <mergeCell ref="B269:D270"/>
-    <mergeCell ref="E269:G270"/>
-    <mergeCell ref="B271:D272"/>
-    <mergeCell ref="E271:G272"/>
-    <mergeCell ref="B273:D274"/>
-    <mergeCell ref="E273:G274"/>
-    <mergeCell ref="B275:D276"/>
-    <mergeCell ref="E275:G276"/>
-    <mergeCell ref="B277:D278"/>
-    <mergeCell ref="E277:G278"/>
-    <mergeCell ref="B279:D280"/>
-    <mergeCell ref="E279:G280"/>
-    <mergeCell ref="B281:D282"/>
-    <mergeCell ref="E281:G282"/>
-    <mergeCell ref="B283:D284"/>
-    <mergeCell ref="E283:G284"/>
-    <mergeCell ref="B285:D286"/>
-    <mergeCell ref="E285:G286"/>
-    <mergeCell ref="B287:D288"/>
-    <mergeCell ref="E287:G288"/>
-    <mergeCell ref="B289:D290"/>
-    <mergeCell ref="E289:G290"/>
-    <mergeCell ref="B291:D292"/>
-    <mergeCell ref="E291:G292"/>
-    <mergeCell ref="B293:D294"/>
-    <mergeCell ref="E293:G294"/>
-    <mergeCell ref="B295:D296"/>
-    <mergeCell ref="E295:G296"/>
-    <mergeCell ref="B297:D298"/>
-    <mergeCell ref="E297:G298"/>
-    <mergeCell ref="B299:D300"/>
-    <mergeCell ref="E299:G300"/>
-    <mergeCell ref="B301:D302"/>
-    <mergeCell ref="E301:G302"/>
-    <mergeCell ref="B303:D304"/>
-    <mergeCell ref="E303:G304"/>
-    <mergeCell ref="B305:D306"/>
-    <mergeCell ref="E305:G306"/>
-    <mergeCell ref="B307:D308"/>
-    <mergeCell ref="E307:G308"/>
-    <mergeCell ref="B309:D310"/>
-    <mergeCell ref="E309:G310"/>
-    <mergeCell ref="B311:D312"/>
-    <mergeCell ref="E311:G312"/>
-    <mergeCell ref="B313:D314"/>
-    <mergeCell ref="E313:G314"/>
-    <mergeCell ref="B315:D316"/>
-    <mergeCell ref="E315:G316"/>
-    <mergeCell ref="B317:D318"/>
-    <mergeCell ref="E317:G318"/>
-    <mergeCell ref="B319:D320"/>
-    <mergeCell ref="E319:G320"/>
-    <mergeCell ref="B321:D322"/>
-    <mergeCell ref="E321:G322"/>
-    <mergeCell ref="B323:D324"/>
-    <mergeCell ref="E323:G324"/>
-    <mergeCell ref="B325:D326"/>
-    <mergeCell ref="E325:G326"/>
-    <mergeCell ref="B327:D328"/>
-    <mergeCell ref="E327:G328"/>
-    <mergeCell ref="B329:D330"/>
-    <mergeCell ref="E329:G330"/>
-    <mergeCell ref="B331:D332"/>
-    <mergeCell ref="E331:G332"/>
-    <mergeCell ref="B333:D334"/>
-    <mergeCell ref="E333:G334"/>
-    <mergeCell ref="B335:D336"/>
-    <mergeCell ref="E335:G336"/>
-    <mergeCell ref="B337:D338"/>
-    <mergeCell ref="E337:G338"/>
-    <mergeCell ref="B339:D340"/>
-    <mergeCell ref="E339:G340"/>
-    <mergeCell ref="B341:D342"/>
-    <mergeCell ref="E341:G342"/>
-    <mergeCell ref="B343:D344"/>
-    <mergeCell ref="E343:G344"/>
-    <mergeCell ref="B345:D346"/>
-    <mergeCell ref="E345:G346"/>
-    <mergeCell ref="B347:D348"/>
-    <mergeCell ref="E347:G348"/>
-    <mergeCell ref="B349:D350"/>
-    <mergeCell ref="E349:G350"/>
-    <mergeCell ref="B351:D352"/>
-    <mergeCell ref="E351:G352"/>
-    <mergeCell ref="B353:D354"/>
-    <mergeCell ref="E353:G354"/>
-    <mergeCell ref="B355:D356"/>
-    <mergeCell ref="E355:G356"/>
-    <mergeCell ref="B357:D358"/>
-    <mergeCell ref="E357:G358"/>
-    <mergeCell ref="B359:D360"/>
-    <mergeCell ref="E359:G360"/>
-    <mergeCell ref="B361:D362"/>
-    <mergeCell ref="E361:G362"/>
-    <mergeCell ref="B363:D364"/>
-    <mergeCell ref="E363:G364"/>
-    <mergeCell ref="B365:D366"/>
-    <mergeCell ref="E365:G366"/>
-    <mergeCell ref="B367:D368"/>
-    <mergeCell ref="E367:G368"/>
-    <mergeCell ref="B369:D370"/>
-    <mergeCell ref="E369:G370"/>
-    <mergeCell ref="B371:D372"/>
-    <mergeCell ref="E371:G372"/>
-    <mergeCell ref="B373:D374"/>
-    <mergeCell ref="E373:G374"/>
-    <mergeCell ref="B375:D376"/>
-    <mergeCell ref="E375:G376"/>
-    <mergeCell ref="B377:D378"/>
-    <mergeCell ref="E377:G378"/>
-    <mergeCell ref="B379:D380"/>
-    <mergeCell ref="E379:G380"/>
-    <mergeCell ref="B381:D382"/>
-    <mergeCell ref="E381:G382"/>
-    <mergeCell ref="B383:D384"/>
-    <mergeCell ref="E383:G384"/>
-    <mergeCell ref="B385:D386"/>
-    <mergeCell ref="E385:G386"/>
-    <mergeCell ref="B387:D388"/>
-    <mergeCell ref="E387:G388"/>
-    <mergeCell ref="B389:D390"/>
-    <mergeCell ref="E389:G390"/>
-    <mergeCell ref="B391:D392"/>
-    <mergeCell ref="E391:G392"/>
-    <mergeCell ref="B393:D394"/>
-    <mergeCell ref="E393:G394"/>
-    <mergeCell ref="B395:D396"/>
-    <mergeCell ref="E395:G396"/>
-    <mergeCell ref="B397:D398"/>
-    <mergeCell ref="E397:G398"/>
-    <mergeCell ref="B399:D400"/>
-    <mergeCell ref="E399:G400"/>
-    <mergeCell ref="B401:D402"/>
-    <mergeCell ref="E401:G402"/>
-    <mergeCell ref="B403:D404"/>
-    <mergeCell ref="E403:G404"/>
-    <mergeCell ref="B405:D406"/>
-    <mergeCell ref="E405:G406"/>
-    <mergeCell ref="B407:D408"/>
-    <mergeCell ref="E407:G408"/>
-    <mergeCell ref="B409:D410"/>
-    <mergeCell ref="E409:G410"/>
-    <mergeCell ref="B411:D412"/>
-    <mergeCell ref="E411:G412"/>
-    <mergeCell ref="B413:D414"/>
-    <mergeCell ref="E413:G414"/>
-    <mergeCell ref="B415:D416"/>
-    <mergeCell ref="E415:G416"/>
-    <mergeCell ref="B417:D418"/>
-    <mergeCell ref="E417:G418"/>
-    <mergeCell ref="B419:D420"/>
-    <mergeCell ref="E419:G420"/>
-    <mergeCell ref="B421:D422"/>
-    <mergeCell ref="E421:G422"/>
-    <mergeCell ref="B423:D424"/>
-    <mergeCell ref="E423:G424"/>
-    <mergeCell ref="B425:D426"/>
-    <mergeCell ref="E425:G426"/>
-    <mergeCell ref="B427:D428"/>
-    <mergeCell ref="E427:G428"/>
-    <mergeCell ref="B429:D430"/>
-    <mergeCell ref="E429:G430"/>
-    <mergeCell ref="B431:D432"/>
-    <mergeCell ref="E431:G432"/>
-    <mergeCell ref="B443:D444"/>
-    <mergeCell ref="E443:G444"/>
-    <mergeCell ref="B445:D446"/>
-    <mergeCell ref="E445:G446"/>
-    <mergeCell ref="B447:D448"/>
-    <mergeCell ref="E447:G448"/>
-    <mergeCell ref="B449:D450"/>
-    <mergeCell ref="E449:G450"/>
-    <mergeCell ref="B433:D434"/>
-    <mergeCell ref="E433:G434"/>
-    <mergeCell ref="B435:D436"/>
-    <mergeCell ref="E435:G436"/>
-    <mergeCell ref="B437:D438"/>
-    <mergeCell ref="E437:G438"/>
-    <mergeCell ref="B439:D440"/>
-    <mergeCell ref="E439:G440"/>
-    <mergeCell ref="B441:D442"/>
-    <mergeCell ref="E441:G442"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.17000000000000004" right="0.70000000000000007" top="0.30000000000000004" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
